--- a/input/dynamic_data/season_16/forecasting_method/average/improved_hor_7/forecast_point_GW1.xlsx
+++ b/input/dynamic_data/season_16/forecasting_method/average/improved_hor_7/forecast_point_GW1.xlsx
@@ -141,37 +141,37 @@
         <v>1.0</v>
       </c>
       <c r="B2" t="n">
-        <v>4.007718819007829</v>
+        <v>3.968427458037165</v>
       </c>
       <c r="C2" t="n">
-        <v>4.2094110098079955</v>
+        <v>4.135335580366024</v>
       </c>
       <c r="D2" t="n">
-        <v>4.138757722443549</v>
+        <v>4.068925001133132</v>
       </c>
       <c r="E2" t="n">
-        <v>3.6814904023736563</v>
+        <v>3.59780970926055</v>
       </c>
       <c r="F2" t="n">
-        <v>4.007718819007829</v>
+        <v>3.694666055663797</v>
       </c>
       <c r="G2" t="n">
-        <v>4.2094110098079955</v>
+        <v>4.0563975225335</v>
       </c>
       <c r="H2" t="n">
-        <v>4.138757722443549</v>
+        <v>3.982823205562681</v>
       </c>
       <c r="I2" t="n">
-        <v>3.6814904023736563</v>
+        <v>4.007049624395699</v>
       </c>
       <c r="J2" t="n">
-        <v>4.007718819007829</v>
+        <v>3.8389216645500244</v>
       </c>
       <c r="K2" t="n">
-        <v>4.2094110098079955</v>
+        <v>3.513381107738189</v>
       </c>
       <c r="L2" t="n">
-        <v>4.138757722443549</v>
+        <v>3.9948996860235506</v>
       </c>
     </row>
     <row r="3">
@@ -445,37 +445,37 @@
         <v>9.0</v>
       </c>
       <c r="B10" t="n">
-        <v>3.555952864071953</v>
+        <v>3.5915123927126724</v>
       </c>
       <c r="C10" t="n">
-        <v>3.3559799827579515</v>
+        <v>3.357112757335239</v>
       </c>
       <c r="D10" t="n">
-        <v>3.8629629459529777</v>
+        <v>3.858677627384136</v>
       </c>
       <c r="E10" t="n">
-        <v>3.8178995673943943</v>
+        <v>3.7967099801817525</v>
       </c>
       <c r="F10" t="n">
-        <v>3.555952864071953</v>
+        <v>3.73897412603819</v>
       </c>
       <c r="G10" t="n">
-        <v>3.3559799827579515</v>
+        <v>3.290617484262973</v>
       </c>
       <c r="H10" t="n">
-        <v>3.8629629459529777</v>
+        <v>3.364462757356424</v>
       </c>
       <c r="I10" t="n">
-        <v>3.8178995673943943</v>
+        <v>3.7595556344646095</v>
       </c>
       <c r="J10" t="n">
-        <v>3.555952864071953</v>
+        <v>3.4225353341392255</v>
       </c>
       <c r="K10" t="n">
-        <v>3.3559799827579515</v>
+        <v>3.4610773991882873</v>
       </c>
       <c r="L10" t="n">
-        <v>3.8629629459529777</v>
+        <v>3.424442039737051</v>
       </c>
     </row>
     <row r="11">
@@ -559,37 +559,37 @@
         <v>12.0</v>
       </c>
       <c r="B13" t="n">
-        <v>2.3464381549457918</v>
+        <v>2.36990253649525</v>
       </c>
       <c r="C13" t="n">
-        <v>2.4139426821770313</v>
+        <v>2.4527662601590716</v>
       </c>
       <c r="D13" t="n">
-        <v>2.348099292077924</v>
+        <v>2.3605983752078914</v>
       </c>
       <c r="E13" t="n">
-        <v>2.567544143112787</v>
+        <v>2.546247369980473</v>
       </c>
       <c r="F13" t="n">
-        <v>2.3464381549457918</v>
+        <v>2.5524238363814495</v>
       </c>
       <c r="G13" t="n">
-        <v>2.4139426821770313</v>
+        <v>2.2447716815160974</v>
       </c>
       <c r="H13" t="n">
-        <v>2.348099292077924</v>
+        <v>2.56018668269775</v>
       </c>
       <c r="I13" t="n">
-        <v>2.567544143112787</v>
+        <v>2.5917160730158386</v>
       </c>
       <c r="J13" t="n">
-        <v>2.3464381549457918</v>
+        <v>2.5447079238403263</v>
       </c>
       <c r="K13" t="n">
-        <v>2.4139426821770313</v>
+        <v>2.2987148570486293</v>
       </c>
       <c r="L13" t="n">
-        <v>2.348099292077924</v>
+        <v>2.6421512268982497</v>
       </c>
     </row>
     <row r="14">
@@ -787,37 +787,37 @@
         <v>18.0</v>
       </c>
       <c r="B19" t="n">
-        <v>3.3841137410388202</v>
+        <v>3.3171015877509227</v>
       </c>
       <c r="C19" t="n">
-        <v>3.412466930810908</v>
+        <v>3.341286847920944</v>
       </c>
       <c r="D19" t="n">
-        <v>3.46802606037626</v>
+        <v>3.3544563358215065</v>
       </c>
       <c r="E19" t="n">
-        <v>3.604768477968478</v>
+        <v>3.4717450169269064</v>
       </c>
       <c r="F19" t="n">
-        <v>3.3841137410388202</v>
+        <v>3.739808193283127</v>
       </c>
       <c r="G19" t="n">
-        <v>3.412466930810908</v>
+        <v>3.253694402081695</v>
       </c>
       <c r="H19" t="n">
-        <v>3.46802606037626</v>
+        <v>3.1773410398007993</v>
       </c>
       <c r="I19" t="n">
-        <v>3.604768477968478</v>
+        <v>3.612804399253299</v>
       </c>
       <c r="J19" t="n">
-        <v>3.3841137410388202</v>
+        <v>3.679749505539612</v>
       </c>
       <c r="K19" t="n">
-        <v>3.412466930810908</v>
+        <v>3.6040619777685805</v>
       </c>
       <c r="L19" t="n">
-        <v>3.46802606037626</v>
+        <v>3.6684202273715907</v>
       </c>
     </row>
     <row r="20">
@@ -1056,34 +1056,34 @@
         <v>1.7505830989152749</v>
       </c>
       <c r="C26" t="n">
-        <v>2.0196405532761816</v>
+        <v>2.007549426756937</v>
       </c>
       <c r="D26" t="n">
-        <v>1.9632749694209524</v>
+        <v>1.9844880973115169</v>
       </c>
       <c r="E26" t="n">
-        <v>1.7967025075792482</v>
+        <v>1.8286035165471064</v>
       </c>
       <c r="F26" t="n">
-        <v>1.7505830989152749</v>
+        <v>1.9773152482690617</v>
       </c>
       <c r="G26" t="n">
-        <v>2.0196405532761816</v>
+        <v>1.8481662792819202</v>
       </c>
       <c r="H26" t="n">
-        <v>1.9632749694209524</v>
+        <v>1.8409104377932966</v>
       </c>
       <c r="I26" t="n">
-        <v>1.7967025075792482</v>
+        <v>2.006322317870187</v>
       </c>
       <c r="J26" t="n">
-        <v>1.7505830989152749</v>
+        <v>1.7571431005433822</v>
       </c>
       <c r="K26" t="n">
-        <v>2.0196405532761816</v>
+        <v>1.796575429808162</v>
       </c>
       <c r="L26" t="n">
-        <v>1.9632749694209524</v>
+        <v>1.8275853627805232</v>
       </c>
     </row>
     <row r="27">
@@ -1243,37 +1243,37 @@
         <v>30.0</v>
       </c>
       <c r="B31" t="n">
-        <v>2.187482883683922</v>
+        <v>2.2098041375990642</v>
       </c>
       <c r="C31" t="n">
-        <v>2.149087635772586</v>
+        <v>2.1829208775435704</v>
       </c>
       <c r="D31" t="n">
-        <v>2.1569214914903294</v>
+        <v>2.1935953064809164</v>
       </c>
       <c r="E31" t="n">
-        <v>2.009359271272758</v>
+        <v>2.0206767575275655</v>
       </c>
       <c r="F31" t="n">
-        <v>2.187482883683922</v>
+        <v>2.216628733534095</v>
       </c>
       <c r="G31" t="n">
-        <v>2.149087635772586</v>
+        <v>2.1763019542410094</v>
       </c>
       <c r="H31" t="n">
-        <v>2.1569214914903294</v>
+        <v>2.252807232301528</v>
       </c>
       <c r="I31" t="n">
-        <v>2.009359271272758</v>
+        <v>2.171035643956975</v>
       </c>
       <c r="J31" t="n">
-        <v>2.187482883683922</v>
+        <v>1.9599792026429508</v>
       </c>
       <c r="K31" t="n">
-        <v>2.149087635772586</v>
+        <v>2.169723048613092</v>
       </c>
       <c r="L31" t="n">
-        <v>2.1569214914903294</v>
+        <v>1.913985023832958</v>
       </c>
     </row>
     <row r="32">
@@ -1281,37 +1281,37 @@
         <v>31.0</v>
       </c>
       <c r="B32" t="n">
-        <v>1.8512870127552254</v>
+        <v>1.7596391408366499</v>
       </c>
       <c r="C32" t="n">
-        <v>2.0112949634167623</v>
+        <v>1.9107999128448296</v>
       </c>
       <c r="D32" t="n">
-        <v>1.8157857018460497</v>
+        <v>1.7250421935781208</v>
       </c>
       <c r="E32" t="n">
-        <v>2.0218480218770756</v>
+        <v>1.915434965825077</v>
       </c>
       <c r="F32" t="n">
-        <v>1.8512870127552254</v>
+        <v>1.9306554142063772</v>
       </c>
       <c r="G32" t="n">
-        <v>2.0112949634167623</v>
+        <v>1.9827697786168954</v>
       </c>
       <c r="H32" t="n">
-        <v>1.8157857018460497</v>
+        <v>1.9509278913203472</v>
       </c>
       <c r="I32" t="n">
-        <v>2.0218480218770756</v>
+        <v>1.684561203270048</v>
       </c>
       <c r="J32" t="n">
-        <v>1.8512870127552254</v>
+        <v>1.9449213398599159</v>
       </c>
       <c r="K32" t="n">
-        <v>2.0112949634167623</v>
+        <v>1.9212604980335712</v>
       </c>
       <c r="L32" t="n">
-        <v>1.8157857018460497</v>
+        <v>1.8406481677295303</v>
       </c>
     </row>
     <row r="33">
@@ -1357,37 +1357,37 @@
         <v>33.0</v>
       </c>
       <c r="B34" t="n">
-        <v>1.5901260525831664</v>
+        <v>1.6063518286299334</v>
       </c>
       <c r="C34" t="n">
-        <v>1.713499350001437</v>
+        <v>1.7368861810933374</v>
       </c>
       <c r="D34" t="n">
-        <v>1.7299407328150724</v>
+        <v>1.7326831882412363</v>
       </c>
       <c r="E34" t="n">
-        <v>1.723002366893224</v>
+        <v>1.750687843345095</v>
       </c>
       <c r="F34" t="n">
-        <v>1.5901260525831664</v>
+        <v>1.6126831709941336</v>
       </c>
       <c r="G34" t="n">
-        <v>1.713499350001437</v>
+        <v>1.7690706054769423</v>
       </c>
       <c r="H34" t="n">
-        <v>1.7299407328150724</v>
+        <v>1.7636239594598297</v>
       </c>
       <c r="I34" t="n">
-        <v>1.723002366893224</v>
+        <v>1.7316356182063362</v>
       </c>
       <c r="J34" t="n">
-        <v>1.5901260525831664</v>
+        <v>1.7979443260741244</v>
       </c>
       <c r="K34" t="n">
-        <v>1.713499350001437</v>
+        <v>1.669070693510641</v>
       </c>
       <c r="L34" t="n">
-        <v>1.7299407328150724</v>
+        <v>1.7421686817112005</v>
       </c>
     </row>
     <row r="35">
@@ -1512,34 +1512,34 @@
         <v>1.9432310038722993</v>
       </c>
       <c r="C38" t="n">
-        <v>1.975741010407</v>
+        <v>1.9778735633291398</v>
       </c>
       <c r="D38" t="n">
-        <v>2.1613718661250365</v>
+        <v>2.1714269399179664</v>
       </c>
       <c r="E38" t="n">
-        <v>2.134017838443379</v>
+        <v>2.138724726562793</v>
       </c>
       <c r="F38" t="n">
-        <v>1.9432310038722993</v>
+        <v>1.900579788949248</v>
       </c>
       <c r="G38" t="n">
-        <v>1.975741010407</v>
+        <v>2.1464830997511</v>
       </c>
       <c r="H38" t="n">
-        <v>2.1613718661250365</v>
+        <v>2.0689295127928835</v>
       </c>
       <c r="I38" t="n">
-        <v>2.134017838443379</v>
+        <v>1.9389858244930955</v>
       </c>
       <c r="J38" t="n">
-        <v>1.9432310038722993</v>
+        <v>2.147781635858857</v>
       </c>
       <c r="K38" t="n">
-        <v>1.975741010407</v>
+        <v>2.1529915385835157</v>
       </c>
       <c r="L38" t="n">
-        <v>2.1613718661250365</v>
+        <v>2.1928863769018583</v>
       </c>
     </row>
     <row r="39">
@@ -1775,37 +1775,37 @@
         <v>44.0</v>
       </c>
       <c r="B45" t="n">
-        <v>4.585409465545986</v>
+        <v>4.54089092704554</v>
       </c>
       <c r="C45" t="n">
-        <v>4.010749810068394</v>
+        <v>3.9596568856314804</v>
       </c>
       <c r="D45" t="n">
-        <v>4.121519862725516</v>
+        <v>4.136131846510031</v>
       </c>
       <c r="E45" t="n">
-        <v>4.3606286980234366</v>
+        <v>4.3379238463545375</v>
       </c>
       <c r="F45" t="n">
-        <v>4.585409465545986</v>
+        <v>4.063687279743651</v>
       </c>
       <c r="G45" t="n">
-        <v>4.010749810068394</v>
+        <v>4.326548170067778</v>
       </c>
       <c r="H45" t="n">
-        <v>4.121519862725516</v>
+        <v>4.491443835506139</v>
       </c>
       <c r="I45" t="n">
-        <v>4.3606286980234366</v>
+        <v>4.660613096919227</v>
       </c>
       <c r="J45" t="n">
-        <v>4.585409465545986</v>
+        <v>4.5160320357388954</v>
       </c>
       <c r="K45" t="n">
-        <v>4.010749810068394</v>
+        <v>4.571648189711607</v>
       </c>
       <c r="L45" t="n">
-        <v>4.121519862725516</v>
+        <v>4.0548097549361914</v>
       </c>
     </row>
     <row r="46">
@@ -2003,37 +2003,37 @@
         <v>50.0</v>
       </c>
       <c r="B51" t="n">
-        <v>1.4892578632852056</v>
+        <v>1.4743652846523536</v>
       </c>
       <c r="C51" t="n">
-        <v>1.6891156329007155</v>
+        <v>1.6834439803885606</v>
       </c>
       <c r="D51" t="n">
-        <v>1.667801787542631</v>
+        <v>1.6752520394751342</v>
       </c>
       <c r="E51" t="n">
-        <v>1.5636958209527845</v>
+        <v>1.544651907290457</v>
       </c>
       <c r="F51" t="n">
-        <v>1.4892578632852056</v>
+        <v>1.6049617426169471</v>
       </c>
       <c r="G51" t="n">
-        <v>1.6891156329007155</v>
+        <v>1.6661308834999402</v>
       </c>
       <c r="H51" t="n">
-        <v>1.667801787542631</v>
+        <v>1.5041585750241713</v>
       </c>
       <c r="I51" t="n">
-        <v>1.5636958209527845</v>
+        <v>1.701120661226558</v>
       </c>
       <c r="J51" t="n">
-        <v>1.4892578632852056</v>
+        <v>1.6701724395336914</v>
       </c>
       <c r="K51" t="n">
-        <v>1.6891156329007155</v>
+        <v>1.7288853431574451</v>
       </c>
       <c r="L51" t="n">
-        <v>1.667801787542631</v>
+        <v>1.6651235505959094</v>
       </c>
     </row>
     <row r="52">
@@ -2307,37 +2307,37 @@
         <v>58.0</v>
       </c>
       <c r="B59" t="n">
-        <v>0.9353783685194602</v>
+        <v>0.9449230457492506</v>
       </c>
       <c r="C59" t="n">
-        <v>0.9036476075495976</v>
+        <v>0.906784585581693</v>
       </c>
       <c r="D59" t="n">
-        <v>0.8764744208000299</v>
+        <v>0.8794989259750334</v>
       </c>
       <c r="E59" t="n">
-        <v>0.8203105056983664</v>
+        <v>0.8238984188338017</v>
       </c>
       <c r="F59" t="n">
-        <v>0.9353783685194602</v>
+        <v>0.8381193829637624</v>
       </c>
       <c r="G59" t="n">
-        <v>0.9036476075495976</v>
+        <v>0.9156097400001669</v>
       </c>
       <c r="H59" t="n">
-        <v>0.8764744208000299</v>
+        <v>0.912833482414982</v>
       </c>
       <c r="I59" t="n">
-        <v>0.8203105056983664</v>
+        <v>0.8771925472946306</v>
       </c>
       <c r="J59" t="n">
-        <v>0.9353783685194602</v>
+        <v>0.8028066193621943</v>
       </c>
       <c r="K59" t="n">
-        <v>0.9036476075495976</v>
+        <v>0.9297482466116286</v>
       </c>
       <c r="L59" t="n">
-        <v>0.8764744208000299</v>
+        <v>0.9106245681847279</v>
       </c>
     </row>
     <row r="60">
@@ -2424,34 +2424,34 @@
         <v>3.320695189834771</v>
       </c>
       <c r="C62" t="n">
-        <v>3.339312836299086</v>
+        <v>3.3279654579132876</v>
       </c>
       <c r="D62" t="n">
-        <v>3.2669385445804187</v>
+        <v>3.242769542394845</v>
       </c>
       <c r="E62" t="n">
-        <v>3.3742718554045554</v>
+        <v>3.3854080701587663</v>
       </c>
       <c r="F62" t="n">
-        <v>3.320695189834771</v>
+        <v>3.7187724135880624</v>
       </c>
       <c r="G62" t="n">
-        <v>3.339312836299086</v>
+        <v>3.552552085316206</v>
       </c>
       <c r="H62" t="n">
-        <v>3.2669385445804187</v>
+        <v>3.716499324509559</v>
       </c>
       <c r="I62" t="n">
-        <v>3.3742718554045554</v>
+        <v>3.387294092036732</v>
       </c>
       <c r="J62" t="n">
-        <v>3.320695189834771</v>
+        <v>3.6627668042567696</v>
       </c>
       <c r="K62" t="n">
-        <v>3.339312836299086</v>
+        <v>3.410091358503274</v>
       </c>
       <c r="L62" t="n">
-        <v>3.2669385445804187</v>
+        <v>3.2549212497264577</v>
       </c>
     </row>
     <row r="63">
@@ -2538,34 +2538,34 @@
         <v>1.3963503351551998</v>
       </c>
       <c r="C65" t="n">
-        <v>1.44057835796924</v>
+        <v>1.4256745547224734</v>
       </c>
       <c r="D65" t="n">
-        <v>1.3596193363170717</v>
+        <v>1.3450857249021924</v>
       </c>
       <c r="E65" t="n">
-        <v>1.3854845217929446</v>
+        <v>1.4039945900748434</v>
       </c>
       <c r="F65" t="n">
-        <v>1.3963503351551998</v>
+        <v>1.260604644666047</v>
       </c>
       <c r="G65" t="n">
-        <v>1.44057835796924</v>
+        <v>1.2945412811221233</v>
       </c>
       <c r="H65" t="n">
-        <v>1.3596193363170717</v>
+        <v>1.235635495238438</v>
       </c>
       <c r="I65" t="n">
-        <v>1.3854845217929446</v>
+        <v>1.2633645889499427</v>
       </c>
       <c r="J65" t="n">
-        <v>1.3963503351551998</v>
+        <v>1.4117230004655543</v>
       </c>
       <c r="K65" t="n">
-        <v>1.44057835796924</v>
+        <v>1.3486223224813632</v>
       </c>
       <c r="L65" t="n">
-        <v>1.3596193363170717</v>
+        <v>1.39046211164128</v>
       </c>
     </row>
     <row r="66">
@@ -2687,37 +2687,37 @@
         <v>68.0</v>
       </c>
       <c r="B69" t="n">
-        <v>5.573453959529105</v>
+        <v>5.5188122540435245</v>
       </c>
       <c r="C69" t="n">
-        <v>5.853943232900727</v>
+        <v>5.750928022959082</v>
       </c>
       <c r="D69" t="n">
-        <v>5.7556871271211785</v>
+        <v>5.658572166049984</v>
       </c>
       <c r="E69" t="n">
-        <v>5.119774661526164</v>
+        <v>5.003401604575316</v>
       </c>
       <c r="F69" t="n">
-        <v>5.573453959529105</v>
+        <v>5.13809777757189</v>
       </c>
       <c r="G69" t="n">
-        <v>5.853943232900727</v>
+        <v>5.641150453510449</v>
       </c>
       <c r="H69" t="n">
-        <v>5.7556871271211785</v>
+        <v>5.5388321306042085</v>
       </c>
       <c r="I69" t="n">
-        <v>5.119774661526164</v>
+        <v>5.5725233240406595</v>
       </c>
       <c r="J69" t="n">
-        <v>5.573453959529105</v>
+        <v>5.338711151623482</v>
       </c>
       <c r="K69" t="n">
-        <v>5.853943232900727</v>
+        <v>4.8859884464414325</v>
       </c>
       <c r="L69" t="n">
-        <v>5.7556871271211785</v>
+        <v>5.555626649102509</v>
       </c>
     </row>
     <row r="70">
@@ -2953,37 +2953,37 @@
         <v>75.0</v>
       </c>
       <c r="B76" t="n">
-        <v>7.364675358834223</v>
+        <v>7.292472659237809</v>
       </c>
       <c r="C76" t="n">
-        <v>7.735309521243602</v>
+        <v>7.599186825380071</v>
       </c>
       <c r="D76" t="n">
-        <v>7.605475431584989</v>
+        <v>7.477149232791809</v>
       </c>
       <c r="E76" t="n">
-        <v>6.76519059210301</v>
+        <v>6.611417045002509</v>
       </c>
       <c r="F76" t="n">
-        <v>7.364675358834223</v>
+        <v>6.789402472602766</v>
       </c>
       <c r="G76" t="n">
-        <v>7.735309521243602</v>
+        <v>7.454128452862474</v>
       </c>
       <c r="H76" t="n">
-        <v>7.605475431584989</v>
+        <v>7.318926612686423</v>
       </c>
       <c r="I76" t="n">
-        <v>6.76519059210301</v>
+        <v>7.363445631577198</v>
       </c>
       <c r="J76" t="n">
-        <v>7.364675358834223</v>
+        <v>7.05448986423795</v>
       </c>
       <c r="K76" t="n">
-        <v>7.735309521243602</v>
+        <v>6.456269124379051</v>
       </c>
       <c r="L76" t="n">
-        <v>7.605475431584989</v>
+        <v>7.341118628166598</v>
       </c>
     </row>
     <row r="77">
@@ -3067,37 +3067,37 @@
         <v>78.0</v>
       </c>
       <c r="B79" t="n">
-        <v>4.57011362067457</v>
+        <v>4.5253085851777595</v>
       </c>
       <c r="C79" t="n">
-        <v>4.8001088548681015</v>
+        <v>4.715638575305455</v>
       </c>
       <c r="D79" t="n">
-        <v>4.719540939424965</v>
+        <v>4.639908738354402</v>
       </c>
       <c r="E79" t="n">
-        <v>4.198106252482998</v>
+        <v>4.102682822683007</v>
       </c>
       <c r="F79" t="n">
-        <v>4.57011362067457</v>
+        <v>4.213130817648841</v>
       </c>
       <c r="G79" t="n">
-        <v>4.8001088548681015</v>
+        <v>4.625623304878043</v>
       </c>
       <c r="H79" t="n">
-        <v>4.719540939424965</v>
+        <v>4.5417244578517915</v>
       </c>
       <c r="I79" t="n">
-        <v>4.198106252482998</v>
+        <v>4.569350519381815</v>
       </c>
       <c r="J79" t="n">
-        <v>4.57011362067457</v>
+        <v>4.37762951448927</v>
       </c>
       <c r="K79" t="n">
-        <v>4.8001088548681015</v>
+        <v>4.006406532050579</v>
       </c>
       <c r="L79" t="n">
-        <v>4.719540939424965</v>
+        <v>4.55549560556362</v>
       </c>
     </row>
     <row r="80">
@@ -3485,37 +3485,37 @@
         <v>89.0</v>
       </c>
       <c r="B90" t="n">
-        <v>4.212868180915937</v>
+        <v>4.297976629015248</v>
       </c>
       <c r="C90" t="n">
-        <v>3.975952951457825</v>
+        <v>4.017469688054652</v>
       </c>
       <c r="D90" t="n">
-        <v>4.576594319764665</v>
+        <v>4.6176942880808864</v>
       </c>
       <c r="E90" t="n">
-        <v>4.523206077312926</v>
+        <v>4.543537367455661</v>
       </c>
       <c r="F90" t="n">
-        <v>4.212868180915937</v>
+        <v>4.4744446497836385</v>
       </c>
       <c r="G90" t="n">
-        <v>3.975952951457825</v>
+        <v>3.9378945402187493</v>
       </c>
       <c r="H90" t="n">
-        <v>4.576594319764665</v>
+        <v>4.0262654612165125</v>
       </c>
       <c r="I90" t="n">
-        <v>4.523206077312926</v>
+        <v>4.499074619705536</v>
       </c>
       <c r="J90" t="n">
-        <v>4.212868180915937</v>
+        <v>4.095761136159918</v>
       </c>
       <c r="K90" t="n">
-        <v>3.975952951457825</v>
+        <v>4.141884572946875</v>
       </c>
       <c r="L90" t="n">
-        <v>4.576594319764665</v>
+        <v>4.09804289804789</v>
       </c>
     </row>
     <row r="91">
@@ -3599,37 +3599,37 @@
         <v>92.0</v>
       </c>
       <c r="B93" t="n">
-        <v>2.9539787519406233</v>
+        <v>3.0136550903636663</v>
       </c>
       <c r="C93" t="n">
-        <v>2.787858540299384</v>
+        <v>2.816969244097925</v>
       </c>
       <c r="D93" t="n">
-        <v>3.2090162322377043</v>
+        <v>3.237834706468995</v>
       </c>
       <c r="E93" t="n">
-        <v>3.1715814664122988</v>
+        <v>3.1858373596665053</v>
       </c>
       <c r="F93" t="n">
-        <v>2.9539787519406233</v>
+        <v>3.137390930499426</v>
       </c>
       <c r="G93" t="n">
-        <v>2.787858540299384</v>
+        <v>2.7611727449445422</v>
       </c>
       <c r="H93" t="n">
-        <v>3.2090162322377043</v>
+        <v>2.823136663991271</v>
       </c>
       <c r="I93" t="n">
-        <v>3.1715814664122988</v>
+        <v>3.154660971878789</v>
       </c>
       <c r="J93" t="n">
-        <v>2.9539787519406233</v>
+        <v>2.8718656387226766</v>
       </c>
       <c r="K93" t="n">
-        <v>2.787858540299384</v>
+        <v>2.9042064683865005</v>
       </c>
       <c r="L93" t="n">
-        <v>3.2090162322377043</v>
+        <v>2.8734655644370832</v>
       </c>
     </row>
     <row r="94">
@@ -3637,37 +3637,37 @@
         <v>93.0</v>
       </c>
       <c r="B94" t="n">
-        <v>2.9643277500548977</v>
+        <v>3.0242131591469157</v>
       </c>
       <c r="C94" t="n">
-        <v>2.7976255512358934</v>
+        <v>2.8268382417594635</v>
       </c>
       <c r="D94" t="n">
-        <v>3.2202587311603135</v>
+        <v>3.2491781683167034</v>
       </c>
       <c r="E94" t="n">
-        <v>3.182692816009382</v>
+        <v>3.1969986534997505</v>
       </c>
       <c r="F94" t="n">
-        <v>2.9643277500548977</v>
+        <v>3.148382496637858</v>
       </c>
       <c r="G94" t="n">
-        <v>2.7976255512358934</v>
+        <v>2.770846264604033</v>
       </c>
       <c r="H94" t="n">
-        <v>3.2202587311603135</v>
+        <v>2.833027268652117</v>
       </c>
       <c r="I94" t="n">
-        <v>3.182692816009382</v>
+        <v>3.1657130420494695</v>
       </c>
       <c r="J94" t="n">
-        <v>2.9643277500548977</v>
+        <v>2.881926960951235</v>
       </c>
       <c r="K94" t="n">
-        <v>2.7976255512358934</v>
+        <v>2.914381093794706</v>
       </c>
       <c r="L94" t="n">
-        <v>3.2202587311603135</v>
+        <v>2.883532491861072</v>
       </c>
     </row>
     <row r="95">
@@ -3751,37 +3751,37 @@
         <v>96.0</v>
       </c>
       <c r="B97" t="n">
-        <v>3.311726541307344</v>
+        <v>3.378630107798401</v>
       </c>
       <c r="C97" t="n">
-        <v>3.12548799318696</v>
+        <v>3.1581242097956372</v>
       </c>
       <c r="D97" t="n">
-        <v>3.597650870307043</v>
+        <v>3.6299594662741095</v>
       </c>
       <c r="E97" t="n">
-        <v>3.555682488689479</v>
+        <v>3.5716648717817687</v>
       </c>
       <c r="F97" t="n">
-        <v>3.311726541307344</v>
+        <v>3.5173512362490893</v>
       </c>
       <c r="G97" t="n">
-        <v>3.12548799318696</v>
+        <v>3.095570358642545</v>
       </c>
       <c r="H97" t="n">
-        <v>3.597650870307043</v>
+        <v>3.1650385480043206</v>
       </c>
       <c r="I97" t="n">
-        <v>3.555682488689479</v>
+        <v>3.5367128021939824</v>
       </c>
       <c r="J97" t="n">
-        <v>3.311726541307344</v>
+        <v>3.219668947374212</v>
       </c>
       <c r="K97" t="n">
-        <v>3.12548799318696</v>
+        <v>3.255926481012605</v>
       </c>
       <c r="L97" t="n">
-        <v>3.597650870307043</v>
+        <v>3.221462635446288</v>
       </c>
     </row>
     <row r="98">
@@ -3865,37 +3865,37 @@
         <v>99.0</v>
       </c>
       <c r="B100" t="n">
-        <v>1.9221632145738485</v>
+        <v>1.941384846719587</v>
       </c>
       <c r="C100" t="n">
-        <v>1.9774618035383997</v>
+        <v>2.009265434628323</v>
       </c>
       <c r="D100" t="n">
-        <v>1.9235239905580854</v>
+        <v>1.933763032127403</v>
       </c>
       <c r="E100" t="n">
-        <v>2.1032895724455805</v>
+        <v>2.0858436091595784</v>
       </c>
       <c r="F100" t="n">
-        <v>1.9221632145738485</v>
+        <v>2.0909032679820303</v>
       </c>
       <c r="G100" t="n">
-        <v>1.9774618035383997</v>
+        <v>1.8388797259508454</v>
       </c>
       <c r="H100" t="n">
-        <v>1.9235239905580854</v>
+        <v>2.097262462916758</v>
       </c>
       <c r="I100" t="n">
-        <v>2.1032895724455805</v>
+        <v>2.1230908164659996</v>
       </c>
       <c r="J100" t="n">
-        <v>1.9221632145738485</v>
+        <v>2.0845825204174058</v>
       </c>
       <c r="K100" t="n">
-        <v>1.9774618035383997</v>
+        <v>1.8830690805551342</v>
       </c>
       <c r="L100" t="n">
-        <v>1.9235239905580854</v>
+        <v>2.164406457924439</v>
       </c>
     </row>
     <row r="101">
@@ -3903,37 +3903,37 @@
         <v>100.0</v>
       </c>
       <c r="B101" t="n">
-        <v>1.810758119581386</v>
+        <v>1.8288657007771998</v>
       </c>
       <c r="C101" t="n">
-        <v>1.8628517025871114</v>
+        <v>1.8928120528797463</v>
       </c>
       <c r="D101" t="n">
-        <v>1.8120400274566932</v>
+        <v>1.821685632740261</v>
       </c>
       <c r="E101" t="n">
-        <v>1.9813867221369479</v>
+        <v>1.9649518952530869</v>
       </c>
       <c r="F101" t="n">
-        <v>1.810758119581386</v>
+        <v>1.9697183054234622</v>
       </c>
       <c r="G101" t="n">
-        <v>1.8628517025871114</v>
+        <v>1.732301590964173</v>
       </c>
       <c r="H101" t="n">
-        <v>1.8120400274566932</v>
+        <v>1.9757089329491333</v>
       </c>
       <c r="I101" t="n">
-        <v>1.9813867221369479</v>
+        <v>2.000040321954035</v>
       </c>
       <c r="J101" t="n">
-        <v>1.810758119581386</v>
+        <v>1.9637638969280287</v>
       </c>
       <c r="K101" t="n">
-        <v>1.8628517025871114</v>
+        <v>1.7739298106918704</v>
       </c>
       <c r="L101" t="n">
-        <v>1.8120400274566932</v>
+        <v>2.0389613837397107</v>
       </c>
     </row>
     <row r="102">
@@ -4017,37 +4017,37 @@
         <v>103.0</v>
       </c>
       <c r="B104" t="n">
-        <v>2.0322079977011818</v>
+        <v>2.0525300776781936</v>
       </c>
       <c r="C104" t="n">
-        <v>2.0906724579006584</v>
+        <v>2.1242968624084773</v>
       </c>
       <c r="D104" t="n">
-        <v>2.0336466787753373</v>
+        <v>2.0444719104768896</v>
       </c>
       <c r="E104" t="n">
-        <v>2.2237039280522506</v>
+        <v>2.205259174844717</v>
       </c>
       <c r="F104" t="n">
-        <v>2.0322079977011818</v>
+        <v>2.210608501606703</v>
       </c>
       <c r="G104" t="n">
-        <v>2.0906724579006584</v>
+        <v>1.9441564886654903</v>
       </c>
       <c r="H104" t="n">
-        <v>2.0336466787753373</v>
+        <v>2.217331763558295</v>
       </c>
       <c r="I104" t="n">
-        <v>2.2237039280522506</v>
+        <v>2.2446388029669437</v>
       </c>
       <c r="J104" t="n">
-        <v>2.0322079977011818</v>
+        <v>2.2039258881559363</v>
       </c>
       <c r="K104" t="n">
-        <v>2.0906724579006584</v>
+        <v>1.990875705410047</v>
       </c>
       <c r="L104" t="n">
-        <v>2.0336466787753373</v>
+        <v>2.288319785084068</v>
       </c>
     </row>
     <row r="105">
@@ -4093,37 +4093,37 @@
         <v>105.0</v>
       </c>
       <c r="B106" t="n">
-        <v>3.199836880830968</v>
+        <v>3.073110667728751</v>
       </c>
       <c r="C106" t="n">
-        <v>3.2266461399943664</v>
+        <v>3.0955169700574903</v>
       </c>
       <c r="D106" t="n">
-        <v>3.2791798801267253</v>
+        <v>3.1077177702696974</v>
       </c>
       <c r="E106" t="n">
-        <v>3.408476193568972</v>
+        <v>3.216379228947913</v>
       </c>
       <c r="F106" t="n">
-        <v>3.199836880830968</v>
+        <v>3.4647248961193857</v>
       </c>
       <c r="G106" t="n">
-        <v>3.2266461399943664</v>
+        <v>3.014367426517716</v>
       </c>
       <c r="H106" t="n">
-        <v>3.2791798801267253</v>
+        <v>2.9436302706196744</v>
       </c>
       <c r="I106" t="n">
-        <v>3.408476193568972</v>
+        <v>3.3470629240783905</v>
       </c>
       <c r="J106" t="n">
-        <v>3.199836880830968</v>
+        <v>3.409083852542084</v>
       </c>
       <c r="K106" t="n">
-        <v>3.2266461399943664</v>
+        <v>3.338963555392885</v>
       </c>
       <c r="L106" t="n">
-        <v>3.2791798801267253</v>
+        <v>3.3985879045963294</v>
       </c>
     </row>
     <row r="107">
@@ -4131,37 +4131,37 @@
         <v>106.0</v>
       </c>
       <c r="B107" t="n">
-        <v>3.037388309563792</v>
+        <v>2.9170957032444336</v>
       </c>
       <c r="C107" t="n">
-        <v>3.062836522520768</v>
+        <v>2.938364487650778</v>
       </c>
       <c r="D107" t="n">
-        <v>3.1127032420062473</v>
+        <v>2.9499458804879835</v>
       </c>
       <c r="E107" t="n">
-        <v>3.2354354704119617</v>
+        <v>3.0530908396159155</v>
       </c>
       <c r="F107" t="n">
-        <v>3.037388309563792</v>
+        <v>3.288828551971291</v>
       </c>
       <c r="G107" t="n">
-        <v>3.062836522520768</v>
+        <v>2.8613347251804675</v>
       </c>
       <c r="H107" t="n">
-        <v>3.1127032420062473</v>
+        <v>2.794188736688483</v>
       </c>
       <c r="I107" t="n">
-        <v>3.2354354704119617</v>
+        <v>3.177140015440413</v>
       </c>
       <c r="J107" t="n">
-        <v>3.037388309563792</v>
+        <v>3.236012279896279</v>
       </c>
       <c r="K107" t="n">
-        <v>3.062836522520768</v>
+        <v>3.169451833612278</v>
       </c>
       <c r="L107" t="n">
-        <v>3.1127032420062473</v>
+        <v>3.226049187783926</v>
       </c>
     </row>
     <row r="108">
@@ -4283,37 +4283,37 @@
         <v>110.0</v>
       </c>
       <c r="B111" t="n">
-        <v>1.977839927200442</v>
+        <v>1.9185047293844288</v>
       </c>
       <c r="C111" t="n">
-        <v>1.9944109041491993</v>
+        <v>1.9324927049679679</v>
       </c>
       <c r="D111" t="n">
-        <v>2.0268823496098722</v>
+        <v>1.9401095126394903</v>
       </c>
       <c r="E111" t="n">
-        <v>2.1068012394438713</v>
+        <v>2.007945508448271</v>
       </c>
       <c r="F111" t="n">
-        <v>1.977839927200442</v>
+        <v>2.162984616539596</v>
       </c>
       <c r="G111" t="n">
-        <v>1.9944109041491993</v>
+        <v>1.881832055254527</v>
       </c>
       <c r="H111" t="n">
-        <v>2.0268823496098722</v>
+        <v>1.8376717295107439</v>
       </c>
       <c r="I111" t="n">
-        <v>2.1068012394438713</v>
+        <v>2.089529712295558</v>
       </c>
       <c r="J111" t="n">
-        <v>1.977839927200442</v>
+        <v>2.1282486057698207</v>
       </c>
       <c r="K111" t="n">
-        <v>1.9944109041491993</v>
+        <v>2.084473377262998</v>
       </c>
       <c r="L111" t="n">
-        <v>2.0268823496098722</v>
+        <v>2.1216961161426946</v>
       </c>
     </row>
     <row r="112">
@@ -4473,37 +4473,37 @@
         <v>115.0</v>
       </c>
       <c r="B116" t="n">
-        <v>2.639938372301595</v>
+        <v>2.6668765189577335</v>
       </c>
       <c r="C116" t="n">
-        <v>2.4300351119744437</v>
+        <v>2.4560210247636154</v>
       </c>
       <c r="D116" t="n">
-        <v>2.3695701168464636</v>
+        <v>2.4143479796037672</v>
       </c>
       <c r="E116" t="n">
-        <v>2.6222424125061012</v>
+        <v>2.697867744391264</v>
       </c>
       <c r="F116" t="n">
-        <v>2.639938372301595</v>
+        <v>2.352540671474007</v>
       </c>
       <c r="G116" t="n">
-        <v>2.4300351119744437</v>
+        <v>2.6572372055694258</v>
       </c>
       <c r="H116" t="n">
-        <v>2.3695701168464636</v>
+        <v>2.483678919527793</v>
       </c>
       <c r="I116" t="n">
-        <v>2.6222424125061012</v>
+        <v>2.577279439372058</v>
       </c>
       <c r="J116" t="n">
-        <v>2.639938372301595</v>
+        <v>2.4739280758127284</v>
       </c>
       <c r="K116" t="n">
-        <v>2.4300351119744437</v>
+        <v>2.457389282087238</v>
       </c>
       <c r="L116" t="n">
-        <v>2.3695701168464636</v>
+        <v>2.696218680392991</v>
       </c>
     </row>
     <row r="117">
@@ -4511,37 +4511,37 @@
         <v>116.0</v>
       </c>
       <c r="B117" t="n">
-        <v>2.001256245005542</v>
+        <v>1.9612311201054309</v>
       </c>
       <c r="C117" t="n">
-        <v>1.8421350265013</v>
+        <v>1.806167188903872</v>
       </c>
       <c r="D117" t="n">
-        <v>1.796298369716542</v>
+        <v>1.77552067323055</v>
       </c>
       <c r="E117" t="n">
-        <v>1.9878414810763283</v>
+        <v>1.9840221849854045</v>
       </c>
       <c r="F117" t="n">
-        <v>2.001256245005542</v>
+        <v>1.7300673441047585</v>
       </c>
       <c r="G117" t="n">
-        <v>1.8421350265013</v>
+        <v>1.954142332432207</v>
       </c>
       <c r="H117" t="n">
-        <v>1.796298369716542</v>
+        <v>1.8265069097505298</v>
       </c>
       <c r="I117" t="n">
-        <v>1.9878414810763283</v>
+        <v>1.8953410875130465</v>
       </c>
       <c r="J117" t="n">
-        <v>2.001256245005542</v>
+        <v>1.8193361022514474</v>
       </c>
       <c r="K117" t="n">
-        <v>1.8421350265013</v>
+        <v>1.8071734105359294</v>
       </c>
       <c r="L117" t="n">
-        <v>1.796298369716542</v>
+        <v>1.9828094570583825</v>
       </c>
     </row>
     <row r="118">
@@ -4853,37 +4853,37 @@
         <v>125.0</v>
       </c>
       <c r="B126" t="n">
-        <v>2.082328212982217</v>
+        <v>1.9998597689037132</v>
       </c>
       <c r="C126" t="n">
-        <v>2.0585122542984764</v>
+        <v>1.9877687181531074</v>
       </c>
       <c r="D126" t="n">
-        <v>1.8354331360725065</v>
+        <v>1.7600478900884085</v>
       </c>
       <c r="E126" t="n">
-        <v>2.1004589641338076</v>
+        <v>2.024488581974784</v>
       </c>
       <c r="F126" t="n">
-        <v>2.082328212982217</v>
+        <v>1.9209871214904002</v>
       </c>
       <c r="G126" t="n">
-        <v>2.0585122542984764</v>
+        <v>1.7995454061998082</v>
       </c>
       <c r="H126" t="n">
-        <v>1.8354331360725065</v>
+        <v>1.830606602685689</v>
       </c>
       <c r="I126" t="n">
-        <v>2.1004589641338076</v>
+        <v>1.9805840114441369</v>
       </c>
       <c r="J126" t="n">
-        <v>2.082328212982217</v>
+        <v>1.8316264395948774</v>
       </c>
       <c r="K126" t="n">
-        <v>2.0585122542984764</v>
+        <v>2.009639033561186</v>
       </c>
       <c r="L126" t="n">
-        <v>1.8354331360725065</v>
+        <v>1.8439537058067998</v>
       </c>
     </row>
     <row r="127">
@@ -4891,37 +4891,37 @@
         <v>126.0</v>
       </c>
       <c r="B127" t="n">
-        <v>3.3207338503328465</v>
+        <v>3.2549767443856616</v>
       </c>
       <c r="C127" t="n">
-        <v>3.0567000875840975</v>
+        <v>2.997623347950182</v>
       </c>
       <c r="D127" t="n">
-        <v>2.9806421923739754</v>
+        <v>2.9467605532542915</v>
       </c>
       <c r="E127" t="n">
-        <v>3.2984744016564775</v>
+        <v>3.2928021620040147</v>
       </c>
       <c r="F127" t="n">
-        <v>3.3207338503328465</v>
+        <v>2.8713234832717363</v>
       </c>
       <c r="G127" t="n">
-        <v>3.0567000875840975</v>
+        <v>3.243211767384383</v>
       </c>
       <c r="H127" t="n">
-        <v>2.9806421923739754</v>
+        <v>3.031380368050703</v>
       </c>
       <c r="I127" t="n">
-        <v>3.2984744016564775</v>
+        <v>3.1456216961323507</v>
       </c>
       <c r="J127" t="n">
-        <v>3.3207338503328465</v>
+        <v>3.019479266029273</v>
       </c>
       <c r="K127" t="n">
-        <v>3.0567000875840975</v>
+        <v>2.9992933336945797</v>
       </c>
       <c r="L127" t="n">
-        <v>2.9806421923739754</v>
+        <v>3.2907894460322678</v>
       </c>
     </row>
     <row r="128">
@@ -4929,37 +4929,37 @@
         <v>127.0</v>
       </c>
       <c r="B128" t="n">
-        <v>1.71329913530629</v>
+        <v>1.7307817795441092</v>
       </c>
       <c r="C128" t="n">
-        <v>1.9766261971235157</v>
+        <v>1.9848414916824773</v>
       </c>
       <c r="D128" t="n">
-        <v>1.9214610889146924</v>
+        <v>1.9620410151778602</v>
       </c>
       <c r="E128" t="n">
-        <v>1.7584362916251097</v>
+        <v>1.8079196871094623</v>
       </c>
       <c r="F128" t="n">
-        <v>1.71329913530629</v>
+        <v>1.954949300172846</v>
       </c>
       <c r="G128" t="n">
-        <v>1.9766261971235157</v>
+        <v>1.8272611701387116</v>
       </c>
       <c r="H128" t="n">
-        <v>1.9214610889146924</v>
+        <v>1.820087401437556</v>
       </c>
       <c r="I128" t="n">
-        <v>1.7584362916251097</v>
+        <v>1.9836282629565631</v>
       </c>
       <c r="J128" t="n">
-        <v>1.71329913530629</v>
+        <v>1.7372675792177967</v>
       </c>
       <c r="K128" t="n">
-        <v>1.9766261971235157</v>
+        <v>1.7762538787306588</v>
       </c>
       <c r="L128" t="n">
-        <v>1.9214610889146924</v>
+        <v>1.8069130499557802</v>
       </c>
     </row>
     <row r="129">
@@ -5081,37 +5081,37 @@
         <v>131.0</v>
       </c>
       <c r="B132" t="n">
-        <v>2.5306170962483825</v>
+        <v>2.5055614814340417</v>
       </c>
       <c r="C132" t="n">
-        <v>2.919562582070037</v>
+        <v>2.8733503247426344</v>
       </c>
       <c r="D132" t="n">
-        <v>2.8380813257775195</v>
+        <v>2.840343277659346</v>
       </c>
       <c r="E132" t="n">
-        <v>2.597286632876626</v>
+        <v>2.6172299610993854</v>
       </c>
       <c r="F132" t="n">
-        <v>2.5306170962483825</v>
+        <v>2.8300769759430477</v>
       </c>
       <c r="G132" t="n">
-        <v>2.919562582070037</v>
+        <v>2.6452296057944324</v>
       </c>
       <c r="H132" t="n">
-        <v>2.8380813257775195</v>
+        <v>2.6348445192706613</v>
       </c>
       <c r="I132" t="n">
-        <v>2.597286632876626</v>
+        <v>2.8715939975153972</v>
       </c>
       <c r="J132" t="n">
-        <v>2.5306170962483825</v>
+        <v>2.514950631487938</v>
       </c>
       <c r="K132" t="n">
-        <v>2.919562582070037</v>
+        <v>2.571389040718712</v>
       </c>
       <c r="L132" t="n">
-        <v>2.8380813257775195</v>
+        <v>2.615772705593315</v>
       </c>
     </row>
     <row r="133">
@@ -5119,37 +5119,37 @@
         <v>132.0</v>
       </c>
       <c r="B133" t="n">
-        <v>2.848748501907014</v>
+        <v>2.8772359869260837</v>
       </c>
       <c r="C133" t="n">
-        <v>2.930703962960441</v>
+        <v>2.977838642125919</v>
       </c>
       <c r="D133" t="n">
-        <v>2.850765244562962</v>
+        <v>2.865940050797106</v>
       </c>
       <c r="E133" t="n">
-        <v>3.117187434007463</v>
+        <v>3.091331585035584</v>
       </c>
       <c r="F133" t="n">
-        <v>2.848748501907014</v>
+        <v>3.0988302695288334</v>
       </c>
       <c r="G133" t="n">
-        <v>2.930703962960441</v>
+        <v>2.7253179255389344</v>
       </c>
       <c r="H133" t="n">
-        <v>2.850765244562962</v>
+        <v>3.108254935918392</v>
       </c>
       <c r="I133" t="n">
-        <v>3.117187434007463</v>
+        <v>3.146533934768362</v>
       </c>
       <c r="J133" t="n">
-        <v>2.848748501907014</v>
+        <v>3.089462584194345</v>
       </c>
       <c r="K133" t="n">
-        <v>2.930703962960441</v>
+        <v>2.790808908185335</v>
       </c>
       <c r="L133" t="n">
-        <v>2.850765244562962</v>
+        <v>3.207765921114615</v>
       </c>
     </row>
     <row r="134">
@@ -5312,34 +5312,34 @@
         <v>1.8158632580158827</v>
       </c>
       <c r="C138" t="n">
-        <v>2.094954005534234</v>
+        <v>2.082411994584898</v>
       </c>
       <c r="D138" t="n">
-        <v>2.036486519584698</v>
+        <v>2.0584906961061873</v>
       </c>
       <c r="E138" t="n">
-        <v>1.8637024835437772</v>
+        <v>1.8967930978163947</v>
       </c>
       <c r="F138" t="n">
-        <v>1.8158632580158827</v>
+        <v>2.0510503677724112</v>
       </c>
       <c r="G138" t="n">
-        <v>2.094954005534234</v>
+        <v>1.9170853662025356</v>
       </c>
       <c r="H138" t="n">
-        <v>2.036486519584698</v>
+        <v>1.9095589505908783</v>
       </c>
       <c r="I138" t="n">
-        <v>1.8637024835437772</v>
+        <v>2.0811391261661325</v>
       </c>
       <c r="J138" t="n">
-        <v>1.8158632580158827</v>
+        <v>1.822667885534785</v>
       </c>
       <c r="K138" t="n">
-        <v>2.094954005534234</v>
+        <v>1.863570666976161</v>
       </c>
       <c r="L138" t="n">
-        <v>2.036486519584698</v>
+        <v>1.8957369765634853</v>
       </c>
     </row>
     <row r="139">
@@ -5879,37 +5879,37 @@
         <v>152.0</v>
       </c>
       <c r="B153" t="n">
-        <v>2.7205118947955858</v>
+        <v>2.6666403721263663</v>
       </c>
       <c r="C153" t="n">
-        <v>2.9556475220848006</v>
+        <v>2.895716554830023</v>
       </c>
       <c r="D153" t="n">
-        <v>2.6683418433968518</v>
+        <v>2.6142105220674194</v>
       </c>
       <c r="E153" t="n">
-        <v>2.971155501598484</v>
+        <v>2.9027407333205035</v>
       </c>
       <c r="F153" t="n">
-        <v>2.7205118947955858</v>
+        <v>2.925806520613768</v>
       </c>
       <c r="G153" t="n">
-        <v>2.9556475220848006</v>
+        <v>3.004783093070958</v>
       </c>
       <c r="H153" t="n">
-        <v>2.6683418433968518</v>
+        <v>2.9565283911726463</v>
       </c>
       <c r="I153" t="n">
-        <v>2.971155501598484</v>
+        <v>2.5528637148988556</v>
       </c>
       <c r="J153" t="n">
-        <v>2.7205118947955858</v>
+        <v>2.9474257790234164</v>
       </c>
       <c r="K153" t="n">
-        <v>2.9556475220848006</v>
+        <v>2.9115690203344573</v>
       </c>
       <c r="L153" t="n">
-        <v>2.6683418433968518</v>
+        <v>2.7894052826162037</v>
       </c>
     </row>
     <row r="154">
@@ -5917,37 +5917,37 @@
         <v>153.0</v>
       </c>
       <c r="B154" t="n">
-        <v>2.110208495629625</v>
+        <v>2.068422188785474</v>
       </c>
       <c r="C154" t="n">
-        <v>2.2925951998672054</v>
+        <v>2.2461087880657105</v>
       </c>
       <c r="D154" t="n">
-        <v>2.0697419621475817</v>
+        <v>2.0277541383238566</v>
       </c>
       <c r="E154" t="n">
-        <v>2.304624211827208</v>
+        <v>2.251557204282448</v>
       </c>
       <c r="F154" t="n">
-        <v>2.110208495629625</v>
+        <v>2.2694485505389173</v>
       </c>
       <c r="G154" t="n">
-        <v>2.2925951998672054</v>
+        <v>2.330707990158972</v>
       </c>
       <c r="H154" t="n">
-        <v>2.0697419621475817</v>
+        <v>2.293278460041978</v>
       </c>
       <c r="I154" t="n">
-        <v>2.304624211827208</v>
+        <v>1.9801695076833856</v>
       </c>
       <c r="J154" t="n">
-        <v>2.110208495629625</v>
+        <v>2.286217873566884</v>
       </c>
       <c r="K154" t="n">
-        <v>2.2925951998672054</v>
+        <v>2.2584050060856087</v>
       </c>
       <c r="L154" t="n">
-        <v>2.0697419621475817</v>
+        <v>2.1636467520658087</v>
       </c>
     </row>
     <row r="155">
@@ -5993,37 +5993,37 @@
         <v>155.0</v>
       </c>
       <c r="B156" t="n">
-        <v>2.840531308048633</v>
+        <v>2.784283163334799</v>
       </c>
       <c r="C156" t="n">
-        <v>3.0860402919389074</v>
+        <v>3.0234653812632737</v>
       </c>
       <c r="D156" t="n">
-        <v>2.7860596975314715</v>
+        <v>2.7295402927545824</v>
       </c>
       <c r="E156" t="n">
-        <v>3.1022324289471905</v>
+        <v>3.030799441795669</v>
       </c>
       <c r="F156" t="n">
-        <v>2.840531308048633</v>
+        <v>3.0548828104722205</v>
       </c>
       <c r="G156" t="n">
-        <v>3.0860402919389074</v>
+        <v>3.1373435514438666</v>
       </c>
       <c r="H156" t="n">
-        <v>2.7860596975314715</v>
+        <v>3.0869600218717577</v>
       </c>
       <c r="I156" t="n">
-        <v>3.1022324289471905</v>
+        <v>2.665487080289499</v>
       </c>
       <c r="J156" t="n">
-        <v>2.840531308048633</v>
+        <v>3.0774558345001175</v>
       </c>
       <c r="K156" t="n">
-        <v>3.0860402919389074</v>
+        <v>3.0400172017722187</v>
       </c>
       <c r="L156" t="n">
-        <v>2.7860596975314715</v>
+        <v>2.9124640297530924</v>
       </c>
     </row>
     <row r="157">
@@ -6031,37 +6031,37 @@
         <v>156.0</v>
       </c>
       <c r="B157" t="n">
-        <v>2.0120901452150575</v>
+        <v>1.972246776002878</v>
       </c>
       <c r="C157" t="n">
-        <v>2.1859964160763132</v>
+        <v>2.141671482655794</v>
       </c>
       <c r="D157" t="n">
-        <v>1.973505183871728</v>
+        <v>1.933469667613636</v>
       </c>
       <c r="E157" t="n">
-        <v>2.197466115147055</v>
+        <v>2.146866563899866</v>
       </c>
       <c r="F157" t="n">
-        <v>2.0120901452150575</v>
+        <v>2.163926016348204</v>
       </c>
       <c r="G157" t="n">
-        <v>2.1859964160763132</v>
+        <v>2.222337076210861</v>
       </c>
       <c r="H157" t="n">
-        <v>1.973505183871728</v>
+        <v>2.186647906707275</v>
       </c>
       <c r="I157" t="n">
-        <v>2.197466115147055</v>
+        <v>1.888097579228207</v>
       </c>
       <c r="J157" t="n">
-        <v>2.0120901452150575</v>
+        <v>2.1799156162746476</v>
       </c>
       <c r="K157" t="n">
-        <v>2.1859964160763132</v>
+        <v>2.1533959635080384</v>
       </c>
       <c r="L157" t="n">
-        <v>1.973505183871728</v>
+        <v>2.0630436833964296</v>
       </c>
     </row>
     <row r="158">
@@ -6110,34 +6110,34 @@
         <v>2.6717274364895776</v>
       </c>
       <c r="C159" t="n">
-        <v>2.879019067934213</v>
+        <v>2.8888356718494053</v>
       </c>
       <c r="D159" t="n">
-        <v>2.9066438549664477</v>
+        <v>2.8818451414324757</v>
       </c>
       <c r="E159" t="n">
-        <v>2.8949860228293707</v>
+        <v>2.911790966604872</v>
       </c>
       <c r="F159" t="n">
-        <v>2.6717274364895776</v>
+        <v>2.682257894887767</v>
       </c>
       <c r="G159" t="n">
-        <v>2.879019067934213</v>
+        <v>2.942365669525345</v>
       </c>
       <c r="H159" t="n">
-        <v>2.9066438549664477</v>
+        <v>2.9333066618151986</v>
       </c>
       <c r="I159" t="n">
-        <v>2.8949860228293707</v>
+        <v>2.8801027948593254</v>
       </c>
       <c r="J159" t="n">
-        <v>2.6717274364895776</v>
+        <v>2.9903892158855596</v>
       </c>
       <c r="K159" t="n">
-        <v>2.879019067934213</v>
+        <v>2.7760431343962986</v>
       </c>
       <c r="L159" t="n">
-        <v>2.9066438549664477</v>
+        <v>2.897621668529881</v>
       </c>
     </row>
     <row r="160">
@@ -6335,37 +6335,37 @@
         <v>164.0</v>
       </c>
       <c r="B165" t="n">
-        <v>6.513308738394413</v>
+        <v>6.449452770370939</v>
       </c>
       <c r="C165" t="n">
-        <v>7.018657590992328</v>
+        <v>6.973544146941735</v>
       </c>
       <c r="D165" t="n">
-        <v>7.0860030710424</v>
+        <v>6.95666926099788</v>
       </c>
       <c r="E165" t="n">
-        <v>7.057582859125526</v>
+        <v>7.028957392819035</v>
       </c>
       <c r="F165" t="n">
-        <v>6.513308738394413</v>
+        <v>6.474872913594347</v>
       </c>
       <c r="G165" t="n">
-        <v>7.018657590992328</v>
+        <v>7.10276361263044</v>
       </c>
       <c r="H165" t="n">
-        <v>7.0860030710424</v>
+        <v>7.080895497801413</v>
       </c>
       <c r="I165" t="n">
-        <v>7.057582859125526</v>
+        <v>6.952463299798516</v>
       </c>
       <c r="J165" t="n">
-        <v>6.513308738394413</v>
+        <v>7.2186907052993226</v>
       </c>
       <c r="K165" t="n">
-        <v>7.018657590992328</v>
+        <v>6.701267067618885</v>
       </c>
       <c r="L165" t="n">
-        <v>7.0860030710424</v>
+        <v>6.994753223083803</v>
       </c>
     </row>
     <row r="166">
@@ -6411,37 +6411,37 @@
         <v>166.0</v>
       </c>
       <c r="B167" t="n">
-        <v>1.344659508524239</v>
+        <v>1.3585219776842827</v>
       </c>
       <c r="C167" t="n">
-        <v>1.3210577077644647</v>
+        <v>1.3419949475299857</v>
       </c>
       <c r="D167" t="n">
-        <v>1.3258732282230894</v>
+        <v>1.3485572695312331</v>
       </c>
       <c r="E167" t="n">
-        <v>1.2351658018955536</v>
+        <v>1.2422520793537748</v>
       </c>
       <c r="F167" t="n">
-        <v>1.344659508524239</v>
+        <v>1.3627175366520687</v>
       </c>
       <c r="G167" t="n">
-        <v>1.3210577077644647</v>
+        <v>1.3379258299904984</v>
       </c>
       <c r="H167" t="n">
-        <v>1.3258732282230894</v>
+        <v>1.3849590036033352</v>
       </c>
       <c r="I167" t="n">
-        <v>1.2351658018955536</v>
+        <v>1.334688258777541</v>
       </c>
       <c r="J167" t="n">
-        <v>1.344659508524239</v>
+        <v>1.2049370246394513</v>
       </c>
       <c r="K167" t="n">
-        <v>1.3210577077644647</v>
+        <v>1.3338813141293113</v>
       </c>
       <c r="L167" t="n">
-        <v>1.3258732282230894</v>
+        <v>1.1766611690123532</v>
       </c>
     </row>
     <row r="168">
@@ -6449,37 +6449,37 @@
         <v>167.0</v>
       </c>
       <c r="B168" t="n">
-        <v>4.842665746239038</v>
+        <v>4.795649573945456</v>
       </c>
       <c r="C168" t="n">
-        <v>4.235765828088436</v>
+        <v>4.1818064255737974</v>
       </c>
       <c r="D168" t="n">
-        <v>4.352750438457984</v>
+        <v>4.368182201725704</v>
       </c>
       <c r="E168" t="n">
-        <v>4.605274051675256</v>
+        <v>4.581295384496985</v>
       </c>
       <c r="F168" t="n">
-        <v>4.842665746239038</v>
+        <v>4.291673260786685</v>
       </c>
       <c r="G168" t="n">
-        <v>4.235765828088436</v>
+        <v>4.569281496030074</v>
       </c>
       <c r="H168" t="n">
-        <v>4.352750438457984</v>
+        <v>4.743428340869493</v>
       </c>
       <c r="I168" t="n">
-        <v>4.605274051675256</v>
+        <v>4.922088544220421</v>
       </c>
       <c r="J168" t="n">
-        <v>4.842665746239038</v>
+        <v>4.769396018548777</v>
       </c>
       <c r="K168" t="n">
-        <v>4.235765828088436</v>
+        <v>4.82813241838502</v>
       </c>
       <c r="L168" t="n">
-        <v>4.352750438457984</v>
+        <v>4.282297678165439</v>
       </c>
     </row>
     <row r="169">
@@ -6563,37 +6563,37 @@
         <v>170.0</v>
       </c>
       <c r="B171" t="n">
-        <v>2.0217299468143666</v>
+        <v>2.0423598442308397</v>
       </c>
       <c r="C171" t="n">
-        <v>1.94745083605889</v>
+        <v>1.9733612019617413</v>
       </c>
       <c r="D171" t="n">
-        <v>2.088309637463699</v>
+        <v>2.125342326155864</v>
       </c>
       <c r="E171" t="n">
-        <v>2.175040973088594</v>
+        <v>2.2000561797732265</v>
       </c>
       <c r="F171" t="n">
-        <v>2.0217299468143666</v>
+        <v>2.120199330200033</v>
       </c>
       <c r="G171" t="n">
-        <v>1.94745083605889</v>
+        <v>2.1435409758270816</v>
       </c>
       <c r="H171" t="n">
-        <v>2.088309637463699</v>
+        <v>1.9524732562087954</v>
       </c>
       <c r="I171" t="n">
-        <v>2.175040973088594</v>
+        <v>1.9513861326295323</v>
       </c>
       <c r="J171" t="n">
-        <v>2.0217299468143666</v>
+        <v>2.1422307424921048</v>
       </c>
       <c r="K171" t="n">
-        <v>1.94745083605889</v>
+        <v>1.8761721062535082</v>
       </c>
       <c r="L171" t="n">
-        <v>2.088309637463699</v>
+        <v>2.0477297658255598</v>
       </c>
     </row>
     <row r="172">
@@ -6715,37 +6715,37 @@
         <v>174.0</v>
       </c>
       <c r="B175" t="n">
-        <v>1.4075475036608776</v>
+        <v>1.4217651552130077</v>
       </c>
       <c r="C175" t="n">
-        <v>1.3558336844721368</v>
+        <v>1.3737325493956152</v>
       </c>
       <c r="D175" t="n">
-        <v>1.4539009137766283</v>
+        <v>1.4795324490752337</v>
       </c>
       <c r="E175" t="n">
-        <v>1.5142840896505145</v>
+        <v>1.5315436330910732</v>
       </c>
       <c r="F175" t="n">
-        <v>1.4075475036608776</v>
+        <v>1.4759522119960253</v>
       </c>
       <c r="G175" t="n">
-        <v>1.3558336844721368</v>
+        <v>1.4922012283050812</v>
       </c>
       <c r="H175" t="n">
-        <v>1.4539009137766283</v>
+        <v>1.3591916478402861</v>
       </c>
       <c r="I175" t="n">
-        <v>1.5142840896505145</v>
+        <v>1.358434859349378</v>
       </c>
       <c r="J175" t="n">
-        <v>1.4075475036608776</v>
+        <v>1.4912891245413245</v>
       </c>
       <c r="K175" t="n">
-        <v>1.3558336844721368</v>
+        <v>1.306075485859553</v>
       </c>
       <c r="L175" t="n">
-        <v>1.4539009137766283</v>
+        <v>1.4255033639479502</v>
       </c>
     </row>
     <row r="176">
@@ -6753,37 +6753,37 @@
         <v>175.0</v>
       </c>
       <c r="B176" t="n">
-        <v>1.938306058221585</v>
+        <v>1.9578849072945304</v>
       </c>
       <c r="C176" t="n">
-        <v>1.8670919721842714</v>
+        <v>1.8917401479838332</v>
       </c>
       <c r="D176" t="n">
-        <v>2.0021384300690053</v>
+        <v>2.0374351145656853</v>
       </c>
       <c r="E176" t="n">
-        <v>2.085290917147844</v>
+        <v>2.1090586958735797</v>
       </c>
       <c r="F176" t="n">
-        <v>1.938306058221585</v>
+        <v>2.032504840310322</v>
       </c>
       <c r="G176" t="n">
-        <v>1.8670919721842714</v>
+        <v>2.0548810419447734</v>
       </c>
       <c r="H176" t="n">
-        <v>2.0021384300690053</v>
+        <v>1.8717161576720371</v>
       </c>
       <c r="I176" t="n">
-        <v>2.085290917147844</v>
+        <v>1.8706739990856276</v>
       </c>
       <c r="J176" t="n">
-        <v>1.938306058221585</v>
+        <v>2.053625001742636</v>
       </c>
       <c r="K176" t="n">
-        <v>1.8670919721842714</v>
+        <v>1.79857093288285</v>
       </c>
       <c r="L176" t="n">
-        <v>2.0021384300690053</v>
+        <v>1.9630327212183873</v>
       </c>
     </row>
     <row r="177">
@@ -6791,37 +6791,37 @@
         <v>176.0</v>
       </c>
       <c r="B177" t="n">
-        <v>4.005907855081231</v>
+        <v>3.9265829470598206</v>
       </c>
       <c r="C177" t="n">
-        <v>4.0286615030760045</v>
+        <v>3.9870291096921044</v>
       </c>
       <c r="D177" t="n">
-        <v>3.676212008274195</v>
+        <v>3.605197815530737</v>
       </c>
       <c r="E177" t="n">
-        <v>3.4901014705726934</v>
+        <v>3.4662394417604374</v>
       </c>
       <c r="F177" t="n">
-        <v>4.005907855081231</v>
+        <v>3.91471298636868</v>
       </c>
       <c r="G177" t="n">
-        <v>4.0286615030760045</v>
+        <v>3.6072062829927294</v>
       </c>
       <c r="H177" t="n">
-        <v>3.676212008274195</v>
+        <v>3.900563420375413</v>
       </c>
       <c r="I177" t="n">
-        <v>3.4901014705726934</v>
+        <v>3.631483608964071</v>
       </c>
       <c r="J177" t="n">
-        <v>4.005907855081231</v>
+        <v>3.7831932671385475</v>
       </c>
       <c r="K177" t="n">
-        <v>4.0286615030760045</v>
+        <v>3.9602050636379853</v>
       </c>
       <c r="L177" t="n">
-        <v>3.676212008274195</v>
+        <v>3.645796890530752</v>
       </c>
     </row>
     <row r="178">
@@ -6829,37 +6829,37 @@
         <v>177.0</v>
       </c>
       <c r="B178" t="n">
-        <v>2.0484533347957403</v>
+        <v>2.0281716186096435</v>
       </c>
       <c r="C178" t="n">
-        <v>2.082723697489385</v>
+        <v>2.064328439773134</v>
       </c>
       <c r="D178" t="n">
-        <v>2.2784061174790096</v>
+        <v>2.266342232421185</v>
       </c>
       <c r="E178" t="n">
-        <v>2.2495709202672893</v>
+        <v>2.2322105718720726</v>
       </c>
       <c r="F178" t="n">
-        <v>2.0484533347957403</v>
+        <v>1.9836560754581731</v>
       </c>
       <c r="G178" t="n">
-        <v>2.082723697489385</v>
+        <v>2.2403080714877905</v>
       </c>
       <c r="H178" t="n">
-        <v>2.2784061174790096</v>
+        <v>2.159364537920967</v>
       </c>
       <c r="I178" t="n">
-        <v>2.2495709202672893</v>
+        <v>2.0237408780977586</v>
       </c>
       <c r="J178" t="n">
-        <v>2.0484533347957403</v>
+        <v>2.241663367936974</v>
       </c>
       <c r="K178" t="n">
-        <v>2.082723697489385</v>
+        <v>2.247101000838474</v>
       </c>
       <c r="L178" t="n">
-        <v>2.2784061174790096</v>
+        <v>2.2887396833445917</v>
       </c>
     </row>
     <row r="179">
@@ -6867,37 +6867,37 @@
         <v>178.0</v>
       </c>
       <c r="B179" t="n">
-        <v>2.8073200272212913</v>
+        <v>2.8353932274935043</v>
       </c>
       <c r="C179" t="n">
-        <v>2.854286132768235</v>
+        <v>2.8859406293573238</v>
       </c>
       <c r="D179" t="n">
-        <v>3.122460743964237</v>
+        <v>3.1683568382613907</v>
       </c>
       <c r="E179" t="n">
-        <v>3.082943306468201</v>
+        <v>3.1206406202273356</v>
       </c>
       <c r="F179" t="n">
-        <v>2.8073200272212913</v>
+        <v>2.7731602939430386</v>
       </c>
       <c r="G179" t="n">
-        <v>2.854286132768235</v>
+        <v>3.1319609618391446</v>
       </c>
       <c r="H179" t="n">
-        <v>3.122460743964237</v>
+        <v>3.018801530566708</v>
       </c>
       <c r="I179" t="n">
-        <v>3.082943306468201</v>
+        <v>2.829199031930906</v>
       </c>
       <c r="J179" t="n">
-        <v>2.8073200272212913</v>
+        <v>3.13385567249282</v>
       </c>
       <c r="K179" t="n">
-        <v>2.854286132768235</v>
+        <v>3.1414575082354372</v>
       </c>
       <c r="L179" t="n">
-        <v>3.122460743964237</v>
+        <v>3.1996685774054776</v>
       </c>
     </row>
     <row r="180">
@@ -7057,37 +7057,37 @@
         <v>183.0</v>
       </c>
       <c r="B184" t="n">
-        <v>1.3785068849540263</v>
+        <v>1.3928663316722976</v>
       </c>
       <c r="C184" t="n">
-        <v>1.4015691290972503</v>
+        <v>1.41769737575004</v>
       </c>
       <c r="D184" t="n">
-        <v>1.5332536340054672</v>
+        <v>1.5564322873971075</v>
       </c>
       <c r="E184" t="n">
-        <v>1.513848985039262</v>
+        <v>1.5329920418149725</v>
       </c>
       <c r="F184" t="n">
-        <v>1.3785068849540263</v>
+        <v>1.3622948550167402</v>
       </c>
       <c r="G184" t="n">
-        <v>1.4015691290972503</v>
+        <v>1.5385530774206253</v>
       </c>
       <c r="H184" t="n">
-        <v>1.5332536340054672</v>
+        <v>1.4829643286000973</v>
       </c>
       <c r="I184" t="n">
-        <v>1.513848985039262</v>
+        <v>1.3898234780859664</v>
       </c>
       <c r="J184" t="n">
-        <v>1.3785068849540263</v>
+        <v>1.5394838402693811</v>
       </c>
       <c r="K184" t="n">
-        <v>1.4015691290972503</v>
+        <v>1.5432181868715116</v>
       </c>
       <c r="L184" t="n">
-        <v>1.5332536340054672</v>
+        <v>1.5718139518579688</v>
       </c>
     </row>
     <row r="185">
@@ -7171,37 +7171,37 @@
         <v>186.0</v>
       </c>
       <c r="B187" t="n">
-        <v>1.8264809751616682</v>
+        <v>1.844930277941079</v>
       </c>
       <c r="C187" t="n">
-        <v>1.8570377686255883</v>
+        <v>1.8778204009989854</v>
       </c>
       <c r="D187" t="n">
-        <v>2.031515854708171</v>
+        <v>2.0615826424179806</v>
       </c>
       <c r="E187" t="n">
-        <v>2.005805267003964</v>
+        <v>2.03053471067213</v>
       </c>
       <c r="F187" t="n">
-        <v>1.8264809751616682</v>
+        <v>1.804436627085516</v>
       </c>
       <c r="G187" t="n">
-        <v>1.8570377686255883</v>
+        <v>2.037900617028168</v>
       </c>
       <c r="H187" t="n">
-        <v>2.031515854708171</v>
+        <v>1.9642701734746069</v>
       </c>
       <c r="I187" t="n">
-        <v>2.005805267003964</v>
+        <v>1.840899846172351</v>
       </c>
       <c r="J187" t="n">
-        <v>1.8264809751616682</v>
+        <v>2.039133465092771</v>
       </c>
       <c r="K187" t="n">
-        <v>1.8570377686255883</v>
+        <v>2.0440798184921856</v>
       </c>
       <c r="L187" t="n">
-        <v>2.031515854708171</v>
+        <v>2.0819565274374443</v>
       </c>
     </row>
     <row r="188">
@@ -7665,37 +7665,37 @@
         <v>199.0</v>
       </c>
       <c r="B200" t="n">
-        <v>4.366946120885904</v>
+        <v>4.4992778215188105</v>
       </c>
       <c r="C200" t="n">
-        <v>3.8196650607813427</v>
+        <v>3.923370257637394</v>
       </c>
       <c r="D200" t="n">
-        <v>3.9251576793568455</v>
+        <v>4.098227987164686</v>
       </c>
       <c r="E200" t="n">
-        <v>4.152874616877816</v>
+        <v>4.298170748188245</v>
       </c>
       <c r="F200" t="n">
-        <v>4.366946120885904</v>
+        <v>4.026447308487696</v>
       </c>
       <c r="G200" t="n">
-        <v>3.8196650607813427</v>
+        <v>4.2868993195536245</v>
       </c>
       <c r="H200" t="n">
-        <v>3.9251576793568455</v>
+        <v>4.450283867275874</v>
       </c>
       <c r="I200" t="n">
-        <v>4.152874616877816</v>
+        <v>4.617902847380698</v>
       </c>
       <c r="J200" t="n">
-        <v>4.366946120885904</v>
+        <v>4.474646739178257</v>
       </c>
       <c r="K200" t="n">
-        <v>3.8196650607813427</v>
+        <v>4.529753222048658</v>
       </c>
       <c r="L200" t="n">
-        <v>3.9251576793568455</v>
+        <v>4.017651138062574</v>
       </c>
     </row>
     <row r="201">
@@ -8162,34 +8162,34 @@
         <v>1.3030597802238792</v>
       </c>
       <c r="C213" t="n">
-        <v>1.239392990623801</v>
+        <v>1.2326344054584544</v>
       </c>
       <c r="D213" t="n">
-        <v>1.2894473884365765</v>
+        <v>1.270875774280491</v>
       </c>
       <c r="E213" t="n">
-        <v>1.2925264527871743</v>
+        <v>1.275485964834884</v>
       </c>
       <c r="F213" t="n">
-        <v>1.3030597802238792</v>
+        <v>1.2990478966167225</v>
       </c>
       <c r="G213" t="n">
-        <v>1.239392990623801</v>
+        <v>1.2895194286351566</v>
       </c>
       <c r="H213" t="n">
-        <v>1.2894473884365765</v>
+        <v>1.2903081258132825</v>
       </c>
       <c r="I213" t="n">
-        <v>1.2925264527871743</v>
+        <v>1.129364981319774</v>
       </c>
       <c r="J213" t="n">
-        <v>1.3030597802238792</v>
+        <v>1.187868122312631</v>
       </c>
       <c r="K213" t="n">
-        <v>1.239392990623801</v>
+        <v>1.1746401920587115</v>
       </c>
       <c r="L213" t="n">
-        <v>1.2894473884365765</v>
+        <v>1.154709241437087</v>
       </c>
     </row>
     <row r="214">
@@ -8197,37 +8197,37 @@
         <v>213.0</v>
       </c>
       <c r="B214" t="n">
-        <v>0.9243264835369622</v>
+        <v>0.8965966890308534</v>
       </c>
       <c r="C214" t="n">
-        <v>0.8791643960853666</v>
+        <v>0.848139082713215</v>
       </c>
       <c r="D214" t="n">
-        <v>0.9146705226791086</v>
+        <v>0.8744518315143137</v>
       </c>
       <c r="E214" t="n">
-        <v>0.9168546594063455</v>
+        <v>0.8776239665533984</v>
       </c>
       <c r="F214" t="n">
-        <v>0.9243264835369622</v>
+        <v>0.8938362312118454</v>
       </c>
       <c r="G214" t="n">
-        <v>0.8791643960853666</v>
+        <v>0.8872799757173041</v>
       </c>
       <c r="H214" t="n">
-        <v>0.9146705226791086</v>
+        <v>0.8878226547941107</v>
       </c>
       <c r="I214" t="n">
-        <v>0.9168546594063455</v>
+        <v>0.7770824626209615</v>
       </c>
       <c r="J214" t="n">
-        <v>0.9243264835369622</v>
+        <v>0.817336734380534</v>
       </c>
       <c r="K214" t="n">
-        <v>0.8791643960853666</v>
+        <v>0.8082349888977921</v>
       </c>
       <c r="L214" t="n">
-        <v>0.9146705226791086</v>
+        <v>0.7945210944105293</v>
       </c>
     </row>
     <row r="215">
@@ -8463,37 +8463,37 @@
         <v>220.0</v>
       </c>
       <c r="B221" t="n">
-        <v>0.7517340611431569</v>
+        <v>0.7594048168691074</v>
       </c>
       <c r="C221" t="n">
-        <v>0.8526164512973115</v>
+        <v>0.867095475554295</v>
       </c>
       <c r="D221" t="n">
-        <v>0.8418578419761118</v>
+        <v>0.8628760331583559</v>
       </c>
       <c r="E221" t="n">
-        <v>0.7893081774867245</v>
+        <v>0.7956075139540586</v>
       </c>
       <c r="F221" t="n">
-        <v>0.7517340611431569</v>
+        <v>0.8266714435841697</v>
       </c>
       <c r="G221" t="n">
-        <v>0.8526164512973115</v>
+        <v>0.8581779777611752</v>
       </c>
       <c r="H221" t="n">
-        <v>0.8418578419761118</v>
+        <v>0.774750517459225</v>
       </c>
       <c r="I221" t="n">
-        <v>0.7893081774867245</v>
+        <v>0.8762002453927943</v>
       </c>
       <c r="J221" t="n">
-        <v>0.7517340611431569</v>
+        <v>0.8602596715935154</v>
       </c>
       <c r="K221" t="n">
-        <v>0.8526164512973115</v>
+        <v>0.8905010658316899</v>
       </c>
       <c r="L221" t="n">
-        <v>0.8418578419761118</v>
+        <v>0.8576591284180207</v>
       </c>
     </row>
     <row r="222">
@@ -8504,34 +8504,34 @@
         <v>0.9190432845726437</v>
       </c>
       <c r="C222" t="n">
-        <v>1.042378501100975</v>
+        <v>1.04937216118403</v>
       </c>
       <c r="D222" t="n">
-        <v>1.029225408592498</v>
+        <v>1.044265727681782</v>
       </c>
       <c r="E222" t="n">
-        <v>0.9649800607336096</v>
+        <v>0.9628563404030188</v>
       </c>
       <c r="F222" t="n">
-        <v>0.9190432845726437</v>
+        <v>1.0004503815320882</v>
       </c>
       <c r="G222" t="n">
-        <v>1.042378501100975</v>
+        <v>1.0385800694301919</v>
       </c>
       <c r="H222" t="n">
-        <v>1.029225408592498</v>
+        <v>0.9376148853330335</v>
       </c>
       <c r="I222" t="n">
-        <v>0.9649800607336096</v>
+        <v>1.0603908924216732</v>
       </c>
       <c r="J222" t="n">
-        <v>0.9190432845726437</v>
+        <v>1.041099367036225</v>
       </c>
       <c r="K222" t="n">
-        <v>1.042378501100975</v>
+        <v>1.07769796329651</v>
       </c>
       <c r="L222" t="n">
-        <v>1.029225408592498</v>
+        <v>1.0379521500465658</v>
       </c>
     </row>
     <row r="223">
@@ -8580,34 +8580,34 @@
         <v>1.122811286371017</v>
       </c>
       <c r="C224" t="n">
-        <v>1.2734920817694817</v>
+        <v>1.2820363588520873</v>
       </c>
       <c r="D224" t="n">
-        <v>1.257422718152873</v>
+        <v>1.2757977395556162</v>
       </c>
       <c r="E224" t="n">
-        <v>1.1789330508176346</v>
+        <v>1.176338464472997</v>
       </c>
       <c r="F224" t="n">
-        <v>1.122811286371017</v>
+        <v>1.2222677633303882</v>
       </c>
       <c r="G224" t="n">
-        <v>1.2734920817694817</v>
+        <v>1.2688514712323538</v>
       </c>
       <c r="H224" t="n">
-        <v>1.257422718152873</v>
+        <v>1.1455005364746598</v>
       </c>
       <c r="I224" t="n">
-        <v>1.1789330508176346</v>
+        <v>1.2954981359008881</v>
       </c>
       <c r="J224" t="n">
-        <v>1.122811286371017</v>
+        <v>1.271929341266622</v>
       </c>
       <c r="K224" t="n">
-        <v>1.2734920817694817</v>
+        <v>1.3166424876833247</v>
       </c>
       <c r="L224" t="n">
-        <v>1.257422718152873</v>
+        <v>1.2680843311175176</v>
       </c>
     </row>
     <row r="225">
@@ -8805,37 +8805,37 @@
         <v>229.0</v>
       </c>
       <c r="B230" t="n">
-        <v>3.437241341617949</v>
+        <v>3.4032092491266814</v>
       </c>
       <c r="C230" t="n">
-        <v>3.4567649508445193</v>
+        <v>3.4555985511019363</v>
       </c>
       <c r="D230" t="n">
-        <v>3.154348115961888</v>
+        <v>3.1246614973287596</v>
       </c>
       <c r="E230" t="n">
-        <v>2.994657264988638</v>
+        <v>3.0042248659791553</v>
       </c>
       <c r="F230" t="n">
-        <v>3.437241341617949</v>
+        <v>3.3929214338543443</v>
       </c>
       <c r="G230" t="n">
-        <v>3.4567649508445193</v>
+        <v>3.1264022564405316</v>
       </c>
       <c r="H230" t="n">
-        <v>3.154348115961888</v>
+        <v>3.3806578615553127</v>
       </c>
       <c r="I230" t="n">
-        <v>2.994657264988638</v>
+        <v>3.1474436609909175</v>
       </c>
       <c r="J230" t="n">
-        <v>3.437241341617949</v>
+        <v>3.278931959810079</v>
       </c>
       <c r="K230" t="n">
-        <v>3.4567649508445193</v>
+        <v>3.432349878436373</v>
       </c>
       <c r="L230" t="n">
-        <v>3.154348115961888</v>
+        <v>3.1598491272372264</v>
       </c>
     </row>
     <row r="231">
@@ -9109,37 +9109,37 @@
         <v>237.0</v>
       </c>
       <c r="B238" t="n">
-        <v>3.316685088694557</v>
+        <v>3.283846622469859</v>
       </c>
       <c r="C238" t="n">
-        <v>3.33552393565454</v>
+        <v>3.3343984456905855</v>
       </c>
       <c r="D238" t="n">
-        <v>3.043713932475277</v>
+        <v>3.015068528918042</v>
       </c>
       <c r="E238" t="n">
-        <v>2.889624006402581</v>
+        <v>2.898856037670101</v>
       </c>
       <c r="F238" t="n">
-        <v>3.316685088694557</v>
+        <v>3.2739196373914865</v>
       </c>
       <c r="G238" t="n">
-        <v>3.33552393565454</v>
+        <v>3.0167482334296563</v>
       </c>
       <c r="H238" t="n">
-        <v>3.043713932475277</v>
+        <v>3.2620861920974824</v>
       </c>
       <c r="I238" t="n">
-        <v>2.889624006402581</v>
+        <v>3.0370516412446587</v>
       </c>
       <c r="J238" t="n">
-        <v>3.316685088694557</v>
+        <v>3.1639281787606564</v>
       </c>
       <c r="K238" t="n">
-        <v>3.33552393565454</v>
+        <v>3.311965186486994</v>
       </c>
       <c r="L238" t="n">
-        <v>3.043713932475277</v>
+        <v>3.0490220037616154</v>
       </c>
     </row>
     <row r="239">
@@ -9261,37 +9261,37 @@
         <v>241.0</v>
       </c>
       <c r="B242" t="n">
-        <v>1.8673588551953297</v>
+        <v>1.8118927505855675</v>
       </c>
       <c r="C242" t="n">
-        <v>1.8040125993128617</v>
+        <v>1.7387621397840276</v>
       </c>
       <c r="D242" t="n">
-        <v>1.7497649358983254</v>
+        <v>1.6864418063360793</v>
       </c>
       <c r="E242" t="n">
-        <v>1.6376411283170855</v>
+        <v>1.5798276685274302</v>
       </c>
       <c r="F242" t="n">
-        <v>1.8673588551953297</v>
+        <v>1.607096409542189</v>
       </c>
       <c r="G242" t="n">
-        <v>1.8040125993128617</v>
+        <v>1.7556843996289573</v>
       </c>
       <c r="H242" t="n">
-        <v>1.7497649358983254</v>
+        <v>1.7503609174523043</v>
       </c>
       <c r="I242" t="n">
-        <v>1.6376411283170855</v>
+        <v>1.6820193183568453</v>
       </c>
       <c r="J242" t="n">
-        <v>1.8673588551953297</v>
+        <v>1.5393840803100347</v>
       </c>
       <c r="K242" t="n">
-        <v>1.8040125993128617</v>
+        <v>1.7827950281067513</v>
       </c>
       <c r="L242" t="n">
-        <v>1.7497649358983254</v>
+        <v>1.7461253178461067</v>
       </c>
     </row>
     <row r="243">
@@ -9565,37 +9565,37 @@
         <v>249.0</v>
       </c>
       <c r="B250" t="n">
-        <v>0.823622763420003</v>
+        <v>0.832027077332452</v>
       </c>
       <c r="C250" t="n">
-        <v>0.7956830783524685</v>
+        <v>0.7984452616598201</v>
       </c>
       <c r="D250" t="n">
-        <v>0.7717564451152352</v>
+        <v>0.7744195934133485</v>
       </c>
       <c r="E250" t="n">
-        <v>0.7223027902977344</v>
+        <v>0.7254620326225226</v>
       </c>
       <c r="F250" t="n">
-        <v>0.823622763420003</v>
+        <v>0.7379839276859654</v>
       </c>
       <c r="G250" t="n">
-        <v>0.7956830783524685</v>
+        <v>0.8062160187292365</v>
       </c>
       <c r="H250" t="n">
-        <v>0.7717564451152352</v>
+        <v>0.8037714583018931</v>
       </c>
       <c r="I250" t="n">
-        <v>0.7223027902977344</v>
+        <v>0.7723887724683943</v>
       </c>
       <c r="J250" t="n">
-        <v>0.823622763420003</v>
+        <v>0.706890204631886</v>
       </c>
       <c r="K250" t="n">
-        <v>0.7956830783524685</v>
+        <v>0.8186653079985572</v>
       </c>
       <c r="L250" t="n">
-        <v>0.7717564451152352</v>
+        <v>0.8018264571091038</v>
       </c>
     </row>
     <row r="251">
@@ -9679,37 +9679,37 @@
         <v>252.0</v>
       </c>
       <c r="B253" t="n">
-        <v>2.832241947643153</v>
+        <v>2.77559710869029</v>
       </c>
       <c r="C253" t="n">
-        <v>2.848121056163573</v>
+        <v>2.781673949202453</v>
       </c>
       <c r="D253" t="n">
-        <v>2.786392564622387</v>
+        <v>2.7104630962734984</v>
       </c>
       <c r="E253" t="n">
-        <v>2.8779378248516667</v>
+        <v>2.8296872534503814</v>
       </c>
       <c r="F253" t="n">
-        <v>2.832241947643153</v>
+        <v>3.108329241006255</v>
       </c>
       <c r="G253" t="n">
-        <v>2.848121056163573</v>
+        <v>2.969394278240259</v>
       </c>
       <c r="H253" t="n">
-        <v>2.786392564622387</v>
+        <v>3.106429283583664</v>
       </c>
       <c r="I253" t="n">
-        <v>2.8779378248516667</v>
+        <v>2.831263681448781</v>
       </c>
       <c r="J253" t="n">
-        <v>2.832241947643153</v>
+        <v>3.0615170530625284</v>
       </c>
       <c r="K253" t="n">
-        <v>2.848121056163573</v>
+        <v>2.850318735668836</v>
       </c>
       <c r="L253" t="n">
-        <v>2.786392564622387</v>
+        <v>2.720620079015703</v>
       </c>
     </row>
     <row r="254">
@@ -9717,37 +9717,37 @@
         <v>253.0</v>
       </c>
       <c r="B254" t="n">
-        <v>2.4964526147622577</v>
+        <v>2.5216693078406647</v>
       </c>
       <c r="C254" t="n">
-        <v>2.5104491033104495</v>
+        <v>2.5271902035643943</v>
       </c>
       <c r="D254" t="n">
-        <v>2.456039113993838</v>
+        <v>2.4624941345081637</v>
       </c>
       <c r="E254" t="n">
-        <v>2.536730809298561</v>
+        <v>2.570810970898003</v>
       </c>
       <c r="F254" t="n">
-        <v>2.4964526147622577</v>
+        <v>2.823961165389638</v>
       </c>
       <c r="G254" t="n">
-        <v>2.5104491033104495</v>
+        <v>2.6977367827888385</v>
       </c>
       <c r="H254" t="n">
-        <v>2.456039113993838</v>
+        <v>2.8222350271458163</v>
       </c>
       <c r="I254" t="n">
-        <v>2.536730809298561</v>
+        <v>2.572243178075024</v>
       </c>
       <c r="J254" t="n">
-        <v>2.4964526147622577</v>
+        <v>2.781431629240112</v>
       </c>
       <c r="K254" t="n">
-        <v>2.5104491033104495</v>
+        <v>2.589554964874163</v>
       </c>
       <c r="L254" t="n">
-        <v>2.456039113993838</v>
+        <v>2.471721897269947</v>
       </c>
     </row>
     <row r="255">
@@ -9948,34 +9948,34 @@
         <v>4.138253658386225</v>
       </c>
       <c r="C260" t="n">
-        <v>4.1614549879835145</v>
+        <v>4.147313873718685</v>
       </c>
       <c r="D260" t="n">
-        <v>4.071262073441187</v>
+        <v>4.0411426388058835</v>
       </c>
       <c r="E260" t="n">
-        <v>4.205020952468801</v>
+        <v>4.218898914405284</v>
       </c>
       <c r="F260" t="n">
-        <v>4.138253658386225</v>
+        <v>4.634337891760037</v>
       </c>
       <c r="G260" t="n">
-        <v>4.1614549879835145</v>
+        <v>4.427193952841815</v>
       </c>
       <c r="H260" t="n">
-        <v>4.071262073441187</v>
+        <v>4.631505165882712</v>
       </c>
       <c r="I260" t="n">
-        <v>4.205020952468801</v>
+        <v>4.22124927675115</v>
       </c>
       <c r="J260" t="n">
-        <v>4.138253658386225</v>
+        <v>4.56454364553869</v>
       </c>
       <c r="K260" t="n">
-        <v>4.1614549879835145</v>
+        <v>4.249659252964917</v>
       </c>
       <c r="L260" t="n">
-        <v>4.071262073441187</v>
+        <v>4.0562861086054065</v>
       </c>
     </row>
     <row r="261">
@@ -10135,37 +10135,37 @@
         <v>264.0</v>
       </c>
       <c r="B265" t="n">
-        <v>0.7049893494882725</v>
+        <v>0.7124102900092018</v>
       </c>
       <c r="C265" t="n">
-        <v>0.727319193401947</v>
+        <v>0.7273713461569721</v>
       </c>
       <c r="D265" t="n">
-        <v>0.6864446029980814</v>
+        <v>0.6862553667509962</v>
       </c>
       <c r="E265" t="n">
-        <v>0.6995034176980489</v>
+        <v>0.7163103469842318</v>
       </c>
       <c r="F265" t="n">
-        <v>0.7049893494882725</v>
+        <v>0.6431535825095555</v>
       </c>
       <c r="G265" t="n">
-        <v>0.727319193401947</v>
+        <v>0.660467868481294</v>
       </c>
       <c r="H265" t="n">
-        <v>0.6864446029980814</v>
+        <v>0.6304144592844166</v>
       </c>
       <c r="I265" t="n">
-        <v>0.6995034176980489</v>
+        <v>0.6445616909607064</v>
       </c>
       <c r="J265" t="n">
-        <v>0.7049893494882725</v>
+        <v>0.7202533396194895</v>
       </c>
       <c r="K265" t="n">
-        <v>0.727319193401947</v>
+        <v>0.6880597194578997</v>
       </c>
       <c r="L265" t="n">
-        <v>0.6864446029980814</v>
+        <v>0.7094061506355936</v>
       </c>
     </row>
     <row r="266">
@@ -10173,37 +10173,37 @@
         <v>265.0</v>
       </c>
       <c r="B266" t="n">
-        <v>1.616584575086754</v>
+        <v>1.5519211920832836</v>
       </c>
       <c r="C266" t="n">
-        <v>1.6677883007333094</v>
+        <v>1.5845124957425454</v>
       </c>
       <c r="D266" t="n">
-        <v>1.5740603140511824</v>
+        <v>1.4949450643504896</v>
       </c>
       <c r="E266" t="n">
-        <v>1.6040049911278036</v>
+        <v>1.5604171124184647</v>
       </c>
       <c r="F266" t="n">
-        <v>1.616584575086754</v>
+        <v>1.4010517372622058</v>
       </c>
       <c r="G266" t="n">
-        <v>1.6677883007333094</v>
+        <v>1.4387693386250164</v>
       </c>
       <c r="H266" t="n">
-        <v>1.5740603140511824</v>
+        <v>1.3733007129172345</v>
       </c>
       <c r="I266" t="n">
-        <v>1.6040049911278036</v>
+        <v>1.4041191737896377</v>
       </c>
       <c r="J266" t="n">
-        <v>1.616584575086754</v>
+        <v>1.5690065641946394</v>
       </c>
       <c r="K266" t="n">
-        <v>1.6677883007333094</v>
+        <v>1.4988756830446697</v>
       </c>
       <c r="L266" t="n">
-        <v>1.5740603140511824</v>
+        <v>1.5453769469716445</v>
       </c>
     </row>
     <row r="267">
@@ -10249,37 +10249,37 @@
         <v>267.0</v>
       </c>
       <c r="B268" t="n">
-        <v>4.813905121379195</v>
+        <v>4.767168178453183</v>
       </c>
       <c r="C268" t="n">
-        <v>4.210609585977278</v>
+        <v>4.156970648721798</v>
       </c>
       <c r="D268" t="n">
-        <v>4.326899423948829</v>
+        <v>4.342239537869366</v>
       </c>
       <c r="E268" t="n">
-        <v>4.577923297706769</v>
+        <v>4.554087039996236</v>
       </c>
       <c r="F268" t="n">
-        <v>4.813905121379195</v>
+        <v>4.266184984051837</v>
       </c>
       <c r="G268" t="n">
-        <v>4.210609585977278</v>
+        <v>4.542144502094779</v>
       </c>
       <c r="H268" t="n">
-        <v>4.326899423948829</v>
+        <v>4.71525708763624</v>
       </c>
       <c r="I268" t="n">
-        <v>4.577923297706769</v>
+        <v>4.892856226822261</v>
       </c>
       <c r="J268" t="n">
-        <v>4.813905121379195</v>
+        <v>4.74107054310087</v>
       </c>
       <c r="K268" t="n">
-        <v>4.210609585977278</v>
+        <v>4.799458107058316</v>
       </c>
       <c r="L268" t="n">
-        <v>4.326899423948829</v>
+        <v>4.256865083079654</v>
       </c>
     </row>
     <row r="269">
@@ -10287,37 +10287,37 @@
         <v>268.0</v>
       </c>
       <c r="B269" t="n">
-        <v>1.0380709574485267</v>
+        <v>1.0488841965886155</v>
       </c>
       <c r="C269" t="n">
-        <v>1.0709508335317184</v>
+        <v>1.0709114126153079</v>
       </c>
       <c r="D269" t="n">
-        <v>1.0107644984804782</v>
+        <v>1.0103762103154732</v>
       </c>
       <c r="E269" t="n">
-        <v>1.0299931241165647</v>
+        <v>1.0546262643047506</v>
       </c>
       <c r="F269" t="n">
-        <v>1.0380709574485267</v>
+        <v>0.9469173005136011</v>
       </c>
       <c r="G269" t="n">
-        <v>1.0709508335317184</v>
+        <v>0.972409185156</v>
       </c>
       <c r="H269" t="n">
-        <v>1.0107644984804782</v>
+        <v>0.9281614442091245</v>
       </c>
       <c r="I269" t="n">
-        <v>1.0299931241165647</v>
+        <v>0.948990463580176</v>
       </c>
       <c r="J269" t="n">
-        <v>1.0380709574485267</v>
+        <v>1.0604315463457128</v>
       </c>
       <c r="K269" t="n">
-        <v>1.0709508335317184</v>
+        <v>1.0130327652050979</v>
       </c>
       <c r="L269" t="n">
-        <v>1.0107644984804782</v>
+        <v>1.0444611915344826</v>
       </c>
     </row>
     <row r="270">
@@ -10401,37 +10401,37 @@
         <v>271.0</v>
       </c>
       <c r="B272" t="n">
-        <v>1.4853907766165069</v>
+        <v>1.4118565797543035</v>
       </c>
       <c r="C272" t="n">
-        <v>1.5324390677952804</v>
+        <v>1.4415064400364035</v>
       </c>
       <c r="D272" t="n">
-        <v>1.4463175687571033</v>
+        <v>1.3600226842969692</v>
       </c>
       <c r="E272" t="n">
-        <v>1.4738320878387823</v>
+        <v>1.4195857228882998</v>
       </c>
       <c r="F272" t="n">
-        <v>1.4853907766165069</v>
+        <v>1.2746034553304104</v>
       </c>
       <c r="G272" t="n">
-        <v>1.5324390677952804</v>
+        <v>1.3089169526447615</v>
       </c>
       <c r="H272" t="n">
-        <v>1.4463175687571033</v>
+        <v>1.2493570275374026</v>
       </c>
       <c r="I272" t="n">
-        <v>1.4738320878387823</v>
+        <v>1.277394048349132</v>
       </c>
       <c r="J272" t="n">
-        <v>1.4853907766165069</v>
+        <v>1.4273999560262565</v>
       </c>
       <c r="K272" t="n">
-        <v>1.5324390677952804</v>
+        <v>1.3635985552201786</v>
       </c>
       <c r="L272" t="n">
-        <v>1.4463175687571033</v>
+        <v>1.4059029684707374</v>
       </c>
     </row>
     <row r="273">
@@ -10477,37 +10477,37 @@
         <v>273.0</v>
       </c>
       <c r="B274" t="n">
-        <v>1.0312768733161939</v>
+        <v>1.0420193407465708</v>
       </c>
       <c r="C274" t="n">
-        <v>0.993387377138271</v>
+        <v>1.0068159852102054</v>
       </c>
       <c r="D274" t="n">
-        <v>1.0652389241367763</v>
+        <v>1.084357301587939</v>
       </c>
       <c r="E274" t="n">
-        <v>1.109480253579769</v>
+        <v>1.1224765785169857</v>
       </c>
       <c r="F274" t="n">
-        <v>1.0312768733161939</v>
+        <v>1.081733326547255</v>
       </c>
       <c r="G274" t="n">
-        <v>0.993387377138271</v>
+        <v>1.0936423181272363</v>
       </c>
       <c r="H274" t="n">
-        <v>1.0652389241367763</v>
+        <v>0.9961588801341742</v>
       </c>
       <c r="I274" t="n">
-        <v>1.109480253579769</v>
+        <v>0.995604225772665</v>
       </c>
       <c r="J274" t="n">
-        <v>1.0312768733161939</v>
+        <v>1.0929738323656342</v>
       </c>
       <c r="K274" t="n">
-        <v>0.993387377138271</v>
+        <v>0.9572297589025743</v>
       </c>
       <c r="L274" t="n">
-        <v>1.0652389241367763</v>
+        <v>1.0447590940646736</v>
       </c>
     </row>
     <row r="275">
@@ -10518,34 +10518,34 @@
         <v>5.8138409695173126</v>
       </c>
       <c r="C275" t="n">
-        <v>6.1064279435695505</v>
+        <v>6.05836535354642</v>
       </c>
       <c r="D275" t="n">
-        <v>6.003933982475695</v>
+        <v>5.961072269463049</v>
       </c>
       <c r="E275" t="n">
-        <v>5.340594162617307</v>
+        <v>5.270877119314163</v>
       </c>
       <c r="F275" t="n">
-        <v>5.8138409695173126</v>
+        <v>5.412773979173982</v>
       </c>
       <c r="G275" t="n">
-        <v>6.1064279435695505</v>
+        <v>5.9427192142296</v>
       </c>
       <c r="H275" t="n">
-        <v>6.003933982475695</v>
+        <v>5.834931083330825</v>
       </c>
       <c r="I275" t="n">
-        <v>5.340594162617307</v>
+        <v>5.870423365310386</v>
       </c>
       <c r="J275" t="n">
-        <v>5.8138409695173126</v>
+        <v>5.6241118901963585</v>
       </c>
       <c r="K275" t="n">
-        <v>6.1064279435695505</v>
+        <v>5.147187202408755</v>
       </c>
       <c r="L275" t="n">
-        <v>6.003933982475695</v>
+        <v>5.852623415523715</v>
       </c>
     </row>
     <row r="276">
@@ -10708,34 +10708,34 @@
         <v>0.2987738607190136</v>
       </c>
       <c r="C280" t="n">
-        <v>0.3037723092539625</v>
+        <v>0.3041001915636136</v>
       </c>
       <c r="D280" t="n">
-        <v>0.3323132533418928</v>
+        <v>0.33385923177211635</v>
       </c>
       <c r="E280" t="n">
-        <v>0.3281075421112785</v>
+        <v>0.3288312312314127</v>
       </c>
       <c r="F280" t="n">
-        <v>0.2987738607190136</v>
+        <v>0.2922161904669832</v>
       </c>
       <c r="G280" t="n">
-        <v>0.3037723092539625</v>
+        <v>0.3300240894689307</v>
       </c>
       <c r="H280" t="n">
-        <v>0.3323132533418928</v>
+        <v>0.3181001419084291</v>
       </c>
       <c r="I280" t="n">
-        <v>0.3281075421112785</v>
+        <v>0.29812115981518794</v>
       </c>
       <c r="J280" t="n">
-        <v>0.2987738607190136</v>
+        <v>0.3302237407946991</v>
       </c>
       <c r="K280" t="n">
-        <v>0.3037723092539625</v>
+        <v>0.3310247689523989</v>
       </c>
       <c r="L280" t="n">
-        <v>0.3323132533418928</v>
+        <v>0.33715864333139955</v>
       </c>
     </row>
     <row r="281">
@@ -10781,37 +10781,37 @@
         <v>281.0</v>
       </c>
       <c r="B282" t="n">
-        <v>4.648164036712373</v>
+        <v>4.694645677079497</v>
       </c>
       <c r="C282" t="n">
-        <v>4.882087230953618</v>
+        <v>4.892097817315469</v>
       </c>
       <c r="D282" t="n">
-        <v>4.8001433411165</v>
+        <v>4.813534169118595</v>
       </c>
       <c r="E282" t="n">
-        <v>4.2698033626149865</v>
+        <v>4.25620525438278</v>
       </c>
       <c r="F282" t="n">
-        <v>4.648164036712373</v>
+        <v>4.3707862144098595</v>
       </c>
       <c r="G282" t="n">
-        <v>4.882087230953618</v>
+        <v>4.798714174580619</v>
       </c>
       <c r="H282" t="n">
-        <v>4.8001433411165</v>
+        <v>4.7116758318709415</v>
       </c>
       <c r="I282" t="n">
-        <v>4.2698033626149865</v>
+        <v>4.740335660895963</v>
       </c>
       <c r="J282" t="n">
-        <v>4.648164036712373</v>
+        <v>4.541440454108917</v>
       </c>
       <c r="K282" t="n">
-        <v>4.882087230953618</v>
+        <v>4.156326304005074</v>
       </c>
       <c r="L282" t="n">
-        <v>4.8001433411165</v>
+        <v>4.7259622960660055</v>
       </c>
     </row>
     <row r="283">
@@ -10857,37 +10857,37 @@
         <v>283.0</v>
       </c>
       <c r="B284" t="n">
-        <v>1.6062947938559806</v>
+        <v>1.6225199937939196</v>
       </c>
       <c r="C284" t="n">
-        <v>1.5159630570625873</v>
+        <v>1.5166264165617844</v>
       </c>
       <c r="D284" t="n">
-        <v>1.7449773678488427</v>
+        <v>1.7432159256193658</v>
       </c>
       <c r="E284" t="n">
-        <v>1.7246213414505271</v>
+        <v>1.7152211046190982</v>
       </c>
       <c r="F284" t="n">
-        <v>1.6062947938559806</v>
+        <v>1.6891380600786488</v>
       </c>
       <c r="G284" t="n">
-        <v>1.5159630570625873</v>
+        <v>1.4865861721590499</v>
       </c>
       <c r="H284" t="n">
-        <v>1.7449773678488427</v>
+        <v>1.5199468901352446</v>
       </c>
       <c r="I284" t="n">
-        <v>1.7246213414505271</v>
+        <v>1.698436067511969</v>
       </c>
       <c r="J284" t="n">
-        <v>1.6062947938559806</v>
+        <v>1.5461820542160962</v>
       </c>
       <c r="K284" t="n">
-        <v>1.5159630570625873</v>
+        <v>1.5635940145008762</v>
       </c>
       <c r="L284" t="n">
-        <v>1.7449773678488427</v>
+        <v>1.5470434372816335</v>
       </c>
     </row>
     <row r="285">
@@ -11427,37 +11427,37 @@
         <v>298.0</v>
       </c>
       <c r="B299" t="n">
-        <v>3.727552495576992</v>
+        <v>3.7648280205327618</v>
       </c>
       <c r="C299" t="n">
-        <v>3.5179295221340445</v>
+        <v>3.519116961018614</v>
       </c>
       <c r="D299" t="n">
-        <v>4.049377964200458</v>
+        <v>4.044885848996395</v>
       </c>
       <c r="E299" t="n">
-        <v>4.002139962003537</v>
+        <v>3.9799278287964945</v>
       </c>
       <c r="F299" t="n">
-        <v>3.727552495576992</v>
+        <v>3.919405815309886</v>
       </c>
       <c r="G299" t="n">
-        <v>3.5179295221340445</v>
+        <v>3.4494128252892198</v>
       </c>
       <c r="H299" t="n">
-        <v>4.049377964200458</v>
+        <v>3.5268216500200547</v>
       </c>
       <c r="I299" t="n">
-        <v>4.002139962003537</v>
+        <v>3.9409805256703008</v>
       </c>
       <c r="J299" t="n">
-        <v>3.727552495576992</v>
+        <v>3.587696635371643</v>
       </c>
       <c r="K299" t="n">
-        <v>3.5179295221340445</v>
+        <v>3.6280986250070755</v>
       </c>
       <c r="L299" t="n">
-        <v>4.049377964200458</v>
+        <v>3.5896953528690867</v>
       </c>
     </row>
     <row r="300">
@@ -11544,34 +11544,34 @@
         <v>1.0129379808278391</v>
       </c>
       <c r="C302" t="n">
-        <v>0.9559743105089428</v>
+        <v>0.9468287022276152</v>
       </c>
       <c r="D302" t="n">
-        <v>1.1003919444549741</v>
+        <v>1.0882883579849976</v>
       </c>
       <c r="E302" t="n">
-        <v>1.0875553266956088</v>
+        <v>1.0708112128243137</v>
       </c>
       <c r="F302" t="n">
-        <v>1.0129379808278391</v>
+        <v>1.0545275882331206</v>
       </c>
       <c r="G302" t="n">
-        <v>0.9559743105089428</v>
+        <v>0.928074600814215</v>
       </c>
       <c r="H302" t="n">
-        <v>1.1003919444549741</v>
+        <v>0.9489016713187562</v>
       </c>
       <c r="I302" t="n">
-        <v>1.0875553266956088</v>
+        <v>1.06033232710306</v>
       </c>
       <c r="J302" t="n">
-        <v>1.0129379808278391</v>
+        <v>0.9652802640217069</v>
       </c>
       <c r="K302" t="n">
-        <v>0.9559743105089428</v>
+        <v>0.9761505373992809</v>
       </c>
       <c r="L302" t="n">
-        <v>1.1003919444549741</v>
+        <v>0.9658180248052178</v>
       </c>
     </row>
     <row r="303">
@@ -11658,34 +11658,34 @@
         <v>2.4901595325435584</v>
       </c>
       <c r="C305" t="n">
-        <v>2.3501226997481877</v>
+        <v>2.3276395625041433</v>
       </c>
       <c r="D305" t="n">
-        <v>2.7051522816621647</v>
+        <v>2.675397388671041</v>
       </c>
       <c r="E305" t="n">
-        <v>2.673595338706015</v>
+        <v>2.6324323893845536</v>
       </c>
       <c r="F305" t="n">
-        <v>2.4901595325435584</v>
+        <v>2.592401485452033</v>
       </c>
       <c r="G305" t="n">
-        <v>2.3501226997481877</v>
+        <v>2.2815353534678704</v>
       </c>
       <c r="H305" t="n">
-        <v>2.7051522816621647</v>
+        <v>2.332735653124375</v>
       </c>
       <c r="I305" t="n">
-        <v>2.673595338706015</v>
+        <v>2.6066715850084665</v>
       </c>
       <c r="J305" t="n">
-        <v>2.4901595325435584</v>
+        <v>2.3730000222376435</v>
       </c>
       <c r="K305" t="n">
-        <v>2.3501226997481877</v>
+        <v>2.3997229957906723</v>
       </c>
       <c r="L305" t="n">
-        <v>2.7051522816621647</v>
+        <v>2.374322028289972</v>
       </c>
     </row>
     <row r="306">
@@ -11848,34 +11848,34 @@
         <v>2.6753932582142443</v>
       </c>
       <c r="C310" t="n">
-        <v>2.524939605158642</v>
+        <v>2.5007840307787226</v>
       </c>
       <c r="D310" t="n">
-        <v>2.906378520017669</v>
+        <v>2.874410270968972</v>
       </c>
       <c r="E310" t="n">
-        <v>2.8724741731951595</v>
+        <v>2.828249264845467</v>
       </c>
       <c r="F310" t="n">
-        <v>2.6753932582142443</v>
+        <v>2.7852406105397356</v>
       </c>
       <c r="G310" t="n">
-        <v>2.524939605158642</v>
+        <v>2.4512503007429793</v>
       </c>
       <c r="H310" t="n">
-        <v>2.906378520017669</v>
+        <v>2.506259200666609</v>
       </c>
       <c r="I310" t="n">
-        <v>2.8724741731951595</v>
+        <v>2.8005722098402557</v>
       </c>
       <c r="J310" t="n">
-        <v>2.6753932582142443</v>
+        <v>2.5495186867614037</v>
       </c>
       <c r="K310" t="n">
-        <v>2.524939605158642</v>
+        <v>2.5782294831376436</v>
       </c>
       <c r="L310" t="n">
-        <v>2.906378520017669</v>
+        <v>2.550939031937484</v>
       </c>
     </row>
     <row r="311">
@@ -11921,37 +11921,37 @@
         <v>311.0</v>
       </c>
       <c r="B312" t="n">
-        <v>1.023101823503367</v>
+        <v>1.0338713163823499</v>
       </c>
       <c r="C312" t="n">
-        <v>1.0525353735670846</v>
+        <v>1.070020662503289</v>
       </c>
       <c r="D312" t="n">
-        <v>1.023826118079549</v>
+        <v>1.0298123707802151</v>
       </c>
       <c r="E312" t="n">
-        <v>1.1195091970385935</v>
+        <v>1.1108018493156644</v>
       </c>
       <c r="F312" t="n">
-        <v>1.023101823503367</v>
+        <v>1.1134963362619557</v>
       </c>
       <c r="G312" t="n">
-        <v>1.0525353735670846</v>
+        <v>0.9792829104183374</v>
       </c>
       <c r="H312" t="n">
-        <v>1.023826118079549</v>
+        <v>1.116882882339828</v>
       </c>
       <c r="I312" t="n">
-        <v>1.1195091970385935</v>
+        <v>1.1306375966248727</v>
       </c>
       <c r="J312" t="n">
-        <v>1.023101823503367</v>
+        <v>1.1101302650699398</v>
       </c>
       <c r="K312" t="n">
-        <v>1.0525353735670846</v>
+        <v>1.0028156511276407</v>
       </c>
       <c r="L312" t="n">
-        <v>1.023826118079549</v>
+        <v>1.1526399609134343</v>
       </c>
     </row>
     <row r="313">
@@ -11997,37 +11997,37 @@
         <v>313.0</v>
       </c>
       <c r="B314" t="n">
-        <v>1.4106889451088778</v>
+        <v>1.4249383283928059</v>
       </c>
       <c r="C314" t="n">
-        <v>1.6000027994395052</v>
+        <v>1.6270078225040616</v>
       </c>
       <c r="D314" t="n">
-        <v>1.5798134106401176</v>
+        <v>1.6190905100761428</v>
       </c>
       <c r="E314" t="n">
-        <v>1.4811997723920007</v>
+        <v>1.4928686463492076</v>
       </c>
       <c r="F314" t="n">
-        <v>1.4106889451088778</v>
+        <v>1.551156641075045</v>
       </c>
       <c r="G314" t="n">
-        <v>1.6000027994395052</v>
+        <v>1.6102751338029775</v>
       </c>
       <c r="H314" t="n">
-        <v>1.5798134106401176</v>
+        <v>1.4537328217396495</v>
       </c>
       <c r="I314" t="n">
-        <v>1.4811997723920007</v>
+        <v>1.6440919062837258</v>
       </c>
       <c r="J314" t="n">
-        <v>1.4106889451088778</v>
+        <v>1.614181199795434</v>
       </c>
       <c r="K314" t="n">
-        <v>1.6000027994395052</v>
+        <v>1.6709257987191986</v>
       </c>
       <c r="L314" t="n">
-        <v>1.5798134106401176</v>
+        <v>1.609301570955733</v>
       </c>
     </row>
     <row r="315">
@@ -12035,37 +12035,37 @@
         <v>314.0</v>
       </c>
       <c r="B315" t="n">
-        <v>2.850562901965934</v>
+        <v>2.8790685309855935</v>
       </c>
       <c r="C315" t="n">
-        <v>2.9325705613770836</v>
+        <v>2.9797352611514705</v>
       </c>
       <c r="D315" t="n">
-        <v>2.8525809291080315</v>
+        <v>2.86776540034746</v>
       </c>
       <c r="E315" t="n">
-        <v>3.119172805850622</v>
+        <v>3.093300488996841</v>
       </c>
       <c r="F315" t="n">
-        <v>2.850562901965934</v>
+        <v>3.1008039494868407</v>
       </c>
       <c r="G315" t="n">
-        <v>2.9325705613770836</v>
+        <v>2.7270537112712883</v>
       </c>
       <c r="H315" t="n">
-        <v>2.8525809291080315</v>
+        <v>3.1102346185527465</v>
       </c>
       <c r="I315" t="n">
-        <v>3.119172805850622</v>
+        <v>3.1485379977289276</v>
       </c>
       <c r="J315" t="n">
-        <v>2.850562901965934</v>
+        <v>3.0914302977678814</v>
       </c>
       <c r="K315" t="n">
-        <v>2.9325705613770836</v>
+        <v>2.7925864058633705</v>
       </c>
       <c r="L315" t="n">
-        <v>2.8525809291080315</v>
+        <v>3.209808983418071</v>
       </c>
     </row>
     <row r="316">
@@ -12076,34 +12076,34 @@
         <v>1.173288978573921</v>
       </c>
       <c r="C316" t="n">
-        <v>1.2070432531697863</v>
+        <v>1.214313068046451</v>
       </c>
       <c r="D316" t="n">
-        <v>1.1741195966257636</v>
+        <v>1.1686826837051554</v>
       </c>
       <c r="E316" t="n">
-        <v>1.2838485594715576</v>
+        <v>1.2605936024436628</v>
       </c>
       <c r="F316" t="n">
-        <v>1.173288978573921</v>
+        <v>1.2636514412548383</v>
       </c>
       <c r="G316" t="n">
-        <v>1.2070432531697863</v>
+        <v>1.111339319984294</v>
       </c>
       <c r="H316" t="n">
-        <v>1.1741195966257636</v>
+        <v>1.2674946634485862</v>
       </c>
       <c r="I316" t="n">
-        <v>1.2838485594715576</v>
+        <v>1.2831042024872996</v>
       </c>
       <c r="J316" t="n">
-        <v>1.173288978573921</v>
+        <v>1.259831454987585</v>
       </c>
       <c r="K316" t="n">
-        <v>1.2070432531697863</v>
+        <v>1.1380454533998885</v>
       </c>
       <c r="L316" t="n">
-        <v>1.1741195966257636</v>
+        <v>1.3080735880513255</v>
       </c>
     </row>
     <row r="317">
@@ -12190,34 +12190,34 @@
         <v>2.031549531089015</v>
       </c>
       <c r="C319" t="n">
-        <v>2.0899950479051945</v>
+        <v>2.1025827302865143</v>
       </c>
       <c r="D319" t="n">
-        <v>2.0329877460084</v>
+        <v>2.0235737328401706</v>
       </c>
       <c r="E319" t="n">
-        <v>2.2229834138166886</v>
+        <v>2.1827174623688728</v>
       </c>
       <c r="F319" t="n">
-        <v>2.031549531089015</v>
+        <v>2.1880121093965297</v>
       </c>
       <c r="G319" t="n">
-        <v>2.0899950479051945</v>
+        <v>1.9242837149455354</v>
       </c>
       <c r="H319" t="n">
-        <v>2.0329877460084</v>
+        <v>2.1946666475266583</v>
       </c>
       <c r="I319" t="n">
-        <v>2.2229834138166886</v>
+        <v>2.221694559911174</v>
       </c>
       <c r="J319" t="n">
-        <v>2.031549531089015</v>
+        <v>2.1813978042664868</v>
       </c>
       <c r="K319" t="n">
-        <v>2.0899950479051945</v>
+        <v>1.9705253773223492</v>
       </c>
       <c r="L319" t="n">
-        <v>2.0329877460084</v>
+        <v>2.264929043879338</v>
       </c>
     </row>
     <row r="320">
@@ -12339,37 +12339,37 @@
         <v>322.0</v>
       </c>
       <c r="B323" t="n">
-        <v>2.0909044940503967</v>
+        <v>2.069995449109893</v>
       </c>
       <c r="C323" t="n">
-        <v>1.9887440417696174</v>
+        <v>1.9581201480080188</v>
       </c>
       <c r="D323" t="n">
-        <v>2.069061895886592</v>
+        <v>2.018869056562121</v>
       </c>
       <c r="E323" t="n">
-        <v>2.0740025974459857</v>
+        <v>2.026192644943832</v>
       </c>
       <c r="F323" t="n">
-        <v>2.0909044940503967</v>
+        <v>2.0636223103366693</v>
       </c>
       <c r="G323" t="n">
-        <v>1.9887440417696174</v>
+        <v>2.0484857174817797</v>
       </c>
       <c r="H323" t="n">
-        <v>2.069061895886592</v>
+        <v>2.049738614389676</v>
       </c>
       <c r="I323" t="n">
-        <v>2.0740025974459857</v>
+        <v>1.7940699323206464</v>
       </c>
       <c r="J323" t="n">
-        <v>2.0909044940503967</v>
+        <v>1.887005987482323</v>
       </c>
       <c r="K323" t="n">
-        <v>1.9887440417696174</v>
+        <v>1.865992557521303</v>
       </c>
       <c r="L323" t="n">
-        <v>2.069061895886592</v>
+        <v>1.8343309425214842</v>
       </c>
     </row>
     <row r="324">
@@ -12494,34 +12494,34 @@
         <v>2.038352505240404</v>
       </c>
       <c r="C327" t="n">
-        <v>2.3516389390520804</v>
+        <v>2.337560214056419</v>
       </c>
       <c r="D327" t="n">
-        <v>2.286007705018211</v>
+        <v>2.3107079505572603</v>
       </c>
       <c r="E327" t="n">
-        <v>2.092053247723675</v>
+        <v>2.1291983004718835</v>
       </c>
       <c r="F327" t="n">
-        <v>2.038352505240404</v>
+        <v>2.302355993529651</v>
       </c>
       <c r="G327" t="n">
-        <v>2.3516389390520804</v>
+        <v>2.1519768857642014</v>
       </c>
       <c r="H327" t="n">
-        <v>2.286007705018211</v>
+        <v>2.1435282935864706</v>
       </c>
       <c r="I327" t="n">
-        <v>2.092053247723675</v>
+        <v>2.3361313870129843</v>
       </c>
       <c r="J327" t="n">
-        <v>2.038352505240404</v>
+        <v>2.0459908720002105</v>
       </c>
       <c r="K327" t="n">
-        <v>2.3516389390520804</v>
+        <v>2.091905280287445</v>
       </c>
       <c r="L327" t="n">
-        <v>2.286007705018211</v>
+        <v>2.1280127776126028</v>
       </c>
     </row>
     <row r="328">
@@ -12570,34 +12570,34 @@
         <v>2.09152044282891</v>
       </c>
       <c r="C329" t="n">
-        <v>2.2722919264065418</v>
+        <v>2.271191284123442</v>
       </c>
       <c r="D329" t="n">
-        <v>2.0514122818564746</v>
+        <v>2.050398248640685</v>
       </c>
       <c r="E329" t="n">
-        <v>2.284214409172337</v>
+        <v>2.2767005432873257</v>
       </c>
       <c r="F329" t="n">
-        <v>2.09152044282891</v>
+        <v>2.2947916837943363</v>
       </c>
       <c r="G329" t="n">
-        <v>2.2722919264065418</v>
+        <v>2.3567352130101105</v>
       </c>
       <c r="H329" t="n">
-        <v>2.0514122818564746</v>
+        <v>2.3188877040104416</v>
       </c>
       <c r="I329" t="n">
-        <v>2.284214409172337</v>
+        <v>2.002282236209274</v>
       </c>
       <c r="J329" t="n">
-        <v>2.09152044282891</v>
+        <v>2.311748271339932</v>
       </c>
       <c r="K329" t="n">
-        <v>2.2722919264065418</v>
+        <v>2.283624815100597</v>
       </c>
       <c r="L329" t="n">
-        <v>2.0514122818564746</v>
+        <v>2.187808387253457</v>
       </c>
     </row>
     <row r="330">
@@ -12646,34 +12646,34 @@
         <v>4.1955687828589445</v>
       </c>
       <c r="C331" t="n">
-        <v>4.230720603100581</v>
+        <v>4.226159019512945</v>
       </c>
       <c r="D331" t="n">
-        <v>4.2996019018525695</v>
+        <v>4.242816179645114</v>
       </c>
       <c r="E331" t="n">
-        <v>4.469132911282075</v>
+        <v>4.391166393230874</v>
       </c>
       <c r="F331" t="n">
-        <v>4.1955687828589445</v>
+        <v>4.730220674446521</v>
       </c>
       <c r="G331" t="n">
-        <v>4.230720603100581</v>
+        <v>4.115369487852388</v>
       </c>
       <c r="H331" t="n">
-        <v>4.2996019018525695</v>
+        <v>4.018795483476101</v>
       </c>
       <c r="I331" t="n">
-        <v>4.469132911282075</v>
+        <v>4.569582496977413</v>
       </c>
       <c r="J331" t="n">
-        <v>4.1955687828589445</v>
+        <v>4.654256659245222</v>
       </c>
       <c r="K331" t="n">
-        <v>4.230720603100581</v>
+        <v>4.558524822167776</v>
       </c>
       <c r="L331" t="n">
-        <v>4.2996019018525695</v>
+        <v>4.639927051135057</v>
       </c>
     </row>
     <row r="332">
@@ -12722,34 +12722,34 @@
         <v>2.5291086231083666</v>
       </c>
       <c r="C333" t="n">
-        <v>2.5502983059123503</v>
+        <v>2.5475485618410216</v>
       </c>
       <c r="D333" t="n">
-        <v>2.591820277225582</v>
+        <v>2.557589576422615</v>
       </c>
       <c r="E333" t="n">
-        <v>2.6940143681874895</v>
+        <v>2.6470157838900206</v>
       </c>
       <c r="F333" t="n">
-        <v>2.5291086231083666</v>
+        <v>2.851399301525973</v>
       </c>
       <c r="G333" t="n">
-        <v>2.5502983059123503</v>
+        <v>2.480764110346004</v>
       </c>
       <c r="H333" t="n">
-        <v>2.591820277225582</v>
+        <v>2.4225488456519675</v>
       </c>
       <c r="I333" t="n">
-        <v>2.6940143681874895</v>
+        <v>2.754565851554336</v>
       </c>
       <c r="J333" t="n">
-        <v>2.5291086231083666</v>
+        <v>2.8056078353780567</v>
       </c>
       <c r="K333" t="n">
-        <v>2.5502983059123503</v>
+        <v>2.747900233098303</v>
       </c>
       <c r="L333" t="n">
-        <v>2.591820277225582</v>
+        <v>2.7969698801179153</v>
       </c>
     </row>
     <row r="334">
@@ -13023,37 +13023,37 @@
         <v>340.0</v>
       </c>
       <c r="B341" t="n">
-        <v>2.146307500625575</v>
+        <v>2.167987374369268</v>
       </c>
       <c r="C341" t="n">
-        <v>1.9756531600649092</v>
+        <v>1.9965763450322602</v>
       </c>
       <c r="D341" t="n">
-        <v>1.9264942577473034</v>
+        <v>1.9626990225856327</v>
       </c>
       <c r="E341" t="n">
-        <v>2.1319204332461488</v>
+        <v>2.1931811113040345</v>
       </c>
       <c r="F341" t="n">
-        <v>2.146307500625575</v>
+        <v>1.9124539277278327</v>
       </c>
       <c r="G341" t="n">
-        <v>1.9756531600649092</v>
+        <v>2.1601512748817644</v>
       </c>
       <c r="H341" t="n">
-        <v>1.9264942577473034</v>
+        <v>2.0190603131590654</v>
       </c>
       <c r="I341" t="n">
-        <v>2.1319204332461488</v>
+        <v>2.0951511046952533</v>
       </c>
       <c r="J341" t="n">
-        <v>2.146307500625575</v>
+        <v>2.011133547178926</v>
       </c>
       <c r="K341" t="n">
-        <v>1.9756531600649092</v>
+        <v>1.9976886442262485</v>
       </c>
       <c r="L341" t="n">
-        <v>1.9264942577473034</v>
+        <v>2.1918405355771986</v>
       </c>
     </row>
     <row r="342">
@@ -13289,37 +13289,37 @@
         <v>347.0</v>
       </c>
       <c r="B348" t="n">
-        <v>3.1855055613891263</v>
+        <v>3.2180107201788113</v>
       </c>
       <c r="C348" t="n">
-        <v>2.932223890066285</v>
+        <v>2.963580027230771</v>
       </c>
       <c r="D348" t="n">
-        <v>2.859263255730862</v>
+        <v>2.913294869626512</v>
       </c>
       <c r="E348" t="n">
-        <v>3.1641525711321923</v>
+        <v>3.255406563206278</v>
       </c>
       <c r="F348" t="n">
-        <v>3.1855055613891263</v>
+        <v>2.838714521142775</v>
       </c>
       <c r="G348" t="n">
-        <v>2.932223890066285</v>
+        <v>3.206379355322496</v>
       </c>
       <c r="H348" t="n">
-        <v>2.859263255730862</v>
+        <v>2.996953676597741</v>
       </c>
       <c r="I348" t="n">
-        <v>3.1641525711321923</v>
+        <v>3.109897592122886</v>
       </c>
       <c r="J348" t="n">
-        <v>3.1855055613891263</v>
+        <v>2.9851877326619007</v>
       </c>
       <c r="K348" t="n">
-        <v>2.932223890066285</v>
+        <v>2.9652310473301577</v>
       </c>
       <c r="L348" t="n">
-        <v>2.859263255730862</v>
+        <v>3.253416705188113</v>
       </c>
     </row>
     <row r="349">
@@ -13403,37 +13403,37 @@
         <v>350.0</v>
       </c>
       <c r="B351" t="n">
-        <v>4.265301024677599</v>
+        <v>4.308384873411716</v>
       </c>
       <c r="C351" t="n">
-        <v>3.926164096046947</v>
+        <v>3.9677441968734826</v>
       </c>
       <c r="D351" t="n">
-        <v>3.8284718891445357</v>
+        <v>3.9004206758482716</v>
       </c>
       <c r="E351" t="n">
-        <v>4.236709980189478</v>
+        <v>4.358451730994796</v>
       </c>
       <c r="F351" t="n">
-        <v>4.265301024677599</v>
+        <v>3.800569906785808</v>
       </c>
       <c r="G351" t="n">
-        <v>3.926164096046947</v>
+        <v>4.292812396884572</v>
       </c>
       <c r="H351" t="n">
-        <v>3.8284718891445357</v>
+        <v>4.012426001443484</v>
       </c>
       <c r="I351" t="n">
-        <v>4.236709980189478</v>
+        <v>4.163639250716124</v>
       </c>
       <c r="J351" t="n">
-        <v>4.265301024677599</v>
+        <v>3.9966733457556978</v>
       </c>
       <c r="K351" t="n">
-        <v>3.926164096046947</v>
+        <v>3.9699546401070283</v>
       </c>
       <c r="L351" t="n">
-        <v>3.8284718891445357</v>
+        <v>4.355787639749872</v>
       </c>
     </row>
     <row r="352">
@@ -13479,37 +13479,37 @@
         <v>352.0</v>
       </c>
       <c r="B353" t="n">
-        <v>2.8622037268094305</v>
+        <v>2.8335816895413366</v>
       </c>
       <c r="C353" t="n">
-        <v>2.634627999935915</v>
+        <v>2.609545719656556</v>
       </c>
       <c r="D353" t="n">
-        <v>2.5690722520394456</v>
+        <v>2.565267712454886</v>
       </c>
       <c r="E353" t="n">
-        <v>2.8430178842126685</v>
+        <v>2.866510161594936</v>
       </c>
       <c r="F353" t="n">
-        <v>2.8622037268094305</v>
+        <v>2.499596859173395</v>
       </c>
       <c r="G353" t="n">
-        <v>2.634627999935915</v>
+        <v>2.82333982730186</v>
       </c>
       <c r="H353" t="n">
-        <v>2.5690722520394456</v>
+        <v>2.6389324961413045</v>
       </c>
       <c r="I353" t="n">
-        <v>2.8430178842126685</v>
+        <v>2.7383839395346845</v>
       </c>
       <c r="J353" t="n">
-        <v>2.8622037268094305</v>
+        <v>2.628572131867902</v>
       </c>
       <c r="K353" t="n">
-        <v>2.634627999935915</v>
+        <v>2.6109995060884503</v>
       </c>
       <c r="L353" t="n">
-        <v>2.5690722520394456</v>
+        <v>2.8647580153980003</v>
       </c>
     </row>
     <row r="354">
@@ -13593,37 +13593,37 @@
         <v>355.0</v>
       </c>
       <c r="B356" t="n">
-        <v>1.777323373734791</v>
+        <v>1.7952761350856474</v>
       </c>
       <c r="C356" t="n">
-        <v>2.0504906988446545</v>
+        <v>2.0588029086393194</v>
       </c>
       <c r="D356" t="n">
-        <v>1.9932641268971802</v>
+        <v>2.035152814894918</v>
       </c>
       <c r="E356" t="n">
-        <v>1.824147259474404</v>
+        <v>1.875288442933606</v>
       </c>
       <c r="F356" t="n">
-        <v>1.777323373734791</v>
+        <v>2.0277968403545086</v>
       </c>
       <c r="G356" t="n">
-        <v>2.0504906988446545</v>
+        <v>1.8953506502609339</v>
       </c>
       <c r="H356" t="n">
-        <v>1.9932641268971802</v>
+        <v>1.8879095644464061</v>
       </c>
       <c r="I356" t="n">
-        <v>1.824147259474404</v>
+        <v>2.0575444712073008</v>
       </c>
       <c r="J356" t="n">
-        <v>1.777323373734791</v>
+        <v>1.802003615989788</v>
       </c>
       <c r="K356" t="n">
-        <v>2.0504906988446545</v>
+        <v>1.8424426672543432</v>
       </c>
       <c r="L356" t="n">
-        <v>1.9932641268971802</v>
+        <v>1.8742442953235174</v>
       </c>
     </row>
     <row r="357">
@@ -13821,37 +13821,37 @@
         <v>361.0</v>
       </c>
       <c r="B362" t="n">
-        <v>2.085931756793633</v>
+        <v>2.1072167747200985</v>
       </c>
       <c r="C362" t="n">
-        <v>2.4065309267509067</v>
+        <v>2.4165330002118774</v>
       </c>
       <c r="D362" t="n">
-        <v>2.3393677275707643</v>
+        <v>2.3887735523542766</v>
       </c>
       <c r="E362" t="n">
-        <v>2.1408859827291713</v>
+        <v>2.20113172963217</v>
       </c>
       <c r="F362" t="n">
-        <v>2.085931756793633</v>
+        <v>2.3801394304813064</v>
       </c>
       <c r="G362" t="n">
-        <v>2.4065309267509067</v>
+        <v>2.224679873002349</v>
       </c>
       <c r="H362" t="n">
-        <v>2.3393677275707643</v>
+        <v>2.2159458512303964</v>
       </c>
       <c r="I362" t="n">
-        <v>2.1408859827291713</v>
+        <v>2.4150559012771455</v>
       </c>
       <c r="J362" t="n">
-        <v>2.085931756793633</v>
+        <v>2.115113198192657</v>
       </c>
       <c r="K362" t="n">
-        <v>2.4065309267509067</v>
+        <v>2.162578791653783</v>
       </c>
       <c r="L362" t="n">
-        <v>2.3393677275707643</v>
+        <v>2.1999061547380006</v>
       </c>
     </row>
     <row r="363">
@@ -13897,37 +13897,37 @@
         <v>363.0</v>
       </c>
       <c r="B364" t="n">
-        <v>2.1980542376695147</v>
+        <v>2.2200347800462095</v>
       </c>
       <c r="C364" t="n">
-        <v>2.4930321782025837</v>
+        <v>2.534856338267126</v>
       </c>
       <c r="D364" t="n">
-        <v>2.4615742357835155</v>
+        <v>2.5225212718265335</v>
       </c>
       <c r="E364" t="n">
-        <v>2.3079201462729806</v>
+        <v>2.3258693031816113</v>
       </c>
       <c r="F364" t="n">
-        <v>2.1980542376695147</v>
+        <v>2.416681216211182</v>
       </c>
       <c r="G364" t="n">
-        <v>2.4930321782025837</v>
+        <v>2.5087870339752047</v>
       </c>
       <c r="H364" t="n">
-        <v>2.4615742357835155</v>
+        <v>2.264896213997462</v>
       </c>
       <c r="I364" t="n">
-        <v>2.3079201462729806</v>
+        <v>2.5614731113725666</v>
       </c>
       <c r="J364" t="n">
-        <v>2.1980542376695147</v>
+        <v>2.5148726323366373</v>
       </c>
       <c r="K364" t="n">
-        <v>2.4930321782025837</v>
+        <v>2.603279955432941</v>
       </c>
       <c r="L364" t="n">
-        <v>2.4615742357835155</v>
+        <v>2.507270236133237</v>
       </c>
     </row>
     <row r="365">
@@ -13973,37 +13973,37 @@
         <v>365.0</v>
       </c>
       <c r="B366" t="n">
-        <v>8.47581199381239</v>
+        <v>8.39352255697926</v>
       </c>
       <c r="C366" t="n">
-        <v>8.90236514463088</v>
+        <v>8.746545789613393</v>
       </c>
       <c r="D366" t="n">
-        <v>8.752942491123939</v>
+        <v>8.606082419498257</v>
       </c>
       <c r="E366" t="n">
-        <v>7.785880675947411</v>
+        <v>7.60963814249332</v>
       </c>
       <c r="F366" t="n">
-        <v>8.47581199381239</v>
+        <v>7.8144966001364775</v>
       </c>
       <c r="G366" t="n">
-        <v>8.90236514463088</v>
+        <v>8.579585860012175</v>
       </c>
       <c r="H366" t="n">
-        <v>8.752942491123939</v>
+        <v>8.423970645764474</v>
       </c>
       <c r="I366" t="n">
-        <v>7.785880675947411</v>
+        <v>8.475211343773942</v>
       </c>
       <c r="J366" t="n">
-        <v>8.47581199381239</v>
+        <v>8.119608063042293</v>
       </c>
       <c r="K366" t="n">
-        <v>8.90236514463088</v>
+        <v>7.431065300019676</v>
       </c>
       <c r="L366" t="n">
-        <v>8.752942491123939</v>
+        <v>8.449513310265482</v>
       </c>
     </row>
     <row r="367">
@@ -14546,34 +14546,34 @@
         <v>1.6834519250439517</v>
       </c>
       <c r="C381" t="n">
-        <v>1.828953779001546</v>
+        <v>1.8280678788055322</v>
       </c>
       <c r="D381" t="n">
-        <v>1.651169113259576</v>
+        <v>1.6503529241685095</v>
       </c>
       <c r="E381" t="n">
-        <v>1.8385501119621905</v>
+        <v>1.8325022475810349</v>
       </c>
       <c r="F381" t="n">
-        <v>1.6834519250439517</v>
+        <v>1.847063695171561</v>
       </c>
       <c r="G381" t="n">
-        <v>1.828953779001546</v>
+        <v>1.8969216603948258</v>
       </c>
       <c r="H381" t="n">
-        <v>1.651169113259576</v>
+        <v>1.866458433462445</v>
       </c>
       <c r="I381" t="n">
-        <v>1.8385501119621905</v>
+        <v>1.611624642056412</v>
       </c>
       <c r="J381" t="n">
-        <v>1.6834519250439517</v>
+        <v>1.8607119480699166</v>
       </c>
       <c r="K381" t="n">
-        <v>1.828953779001546</v>
+        <v>1.8380755513245126</v>
       </c>
       <c r="L381" t="n">
-        <v>1.651169113259576</v>
+        <v>1.7609534985790318</v>
       </c>
     </row>
     <row r="382">
@@ -14771,37 +14771,37 @@
         <v>386.0</v>
       </c>
       <c r="B387" t="n">
-        <v>2.382737265181747</v>
+        <v>2.358909892529929</v>
       </c>
       <c r="C387" t="n">
-        <v>2.5886788097071367</v>
+        <v>2.5615506682306886</v>
       </c>
       <c r="D387" t="n">
-        <v>2.3370445682183503</v>
+        <v>2.3125304507196742</v>
       </c>
       <c r="E387" t="n">
-        <v>2.6022613420113023</v>
+        <v>2.5677642560475107</v>
       </c>
       <c r="F387" t="n">
-        <v>2.382737265181747</v>
+        <v>2.5881682499245273</v>
       </c>
       <c r="G387" t="n">
-        <v>2.5886788097071367</v>
+        <v>2.6580309205698454</v>
       </c>
       <c r="H387" t="n">
-        <v>2.3370445682183503</v>
+        <v>2.6153448145396414</v>
       </c>
       <c r="I387" t="n">
-        <v>2.6022613420113023</v>
+        <v>2.258263069254337</v>
       </c>
       <c r="J387" t="n">
-        <v>2.382737265181747</v>
+        <v>2.607292644449094</v>
       </c>
       <c r="K387" t="n">
-        <v>2.5886788097071367</v>
+        <v>2.575573758141977</v>
       </c>
       <c r="L387" t="n">
-        <v>2.3370445682183503</v>
+        <v>2.467507724032461</v>
       </c>
     </row>
     <row r="388">
@@ -14850,34 +14850,34 @@
         <v>0.4991467664961423</v>
       </c>
       <c r="C389" t="n">
-        <v>0.5422883488850965</v>
+        <v>0.5420256777557935</v>
       </c>
       <c r="D389" t="n">
-        <v>0.4895748500809148</v>
+        <v>0.4893328484296679</v>
       </c>
       <c r="E389" t="n">
-        <v>0.5451336802523115</v>
+        <v>0.5433404767131119</v>
       </c>
       <c r="F389" t="n">
-        <v>0.4991467664961423</v>
+        <v>0.5476579742146367</v>
       </c>
       <c r="G389" t="n">
-        <v>0.5422883488850965</v>
+        <v>0.5624409577706535</v>
       </c>
       <c r="H389" t="n">
-        <v>0.4895748500809148</v>
+        <v>0.553408551799251</v>
       </c>
       <c r="I389" t="n">
-        <v>0.5451336802523115</v>
+        <v>0.47784983753958904</v>
       </c>
       <c r="J389" t="n">
-        <v>0.4991467664961423</v>
+        <v>0.5517047077157183</v>
       </c>
       <c r="K389" t="n">
-        <v>0.5422883488850965</v>
+        <v>0.5449929721012325</v>
       </c>
       <c r="L389" t="n">
-        <v>0.4895748500809148</v>
+        <v>0.5221261336244244</v>
       </c>
     </row>
     <row r="390">
@@ -15037,37 +15037,37 @@
         <v>393.0</v>
       </c>
       <c r="B394" t="n">
-        <v>2.6143458446148538</v>
+        <v>2.641297863631502</v>
       </c>
       <c r="C394" t="n">
-        <v>2.7459152397552593</v>
+        <v>2.7523882316907975</v>
       </c>
       <c r="D394" t="n">
-        <v>2.699826146041008</v>
+        <v>2.7081868136467016</v>
       </c>
       <c r="E394" t="n">
-        <v>2.401538024520834</v>
+        <v>2.3946228573679953</v>
       </c>
       <c r="F394" t="n">
-        <v>2.6143458446148538</v>
+        <v>2.459088307105757</v>
       </c>
       <c r="G394" t="n">
-        <v>2.7459152397552593</v>
+        <v>2.6998487999594705</v>
       </c>
       <c r="H394" t="n">
-        <v>2.699826146041008</v>
+        <v>2.6508793559446637</v>
       </c>
       <c r="I394" t="n">
-        <v>2.401538024520834</v>
+        <v>2.667003926441095</v>
       </c>
       <c r="J394" t="n">
-        <v>2.6143458446148538</v>
+        <v>2.555101661412229</v>
       </c>
       <c r="K394" t="n">
-        <v>2.7459152397552593</v>
+        <v>2.338429040752104</v>
       </c>
       <c r="L394" t="n">
-        <v>2.699826146041008</v>
+        <v>2.658917195209404</v>
       </c>
     </row>
     <row r="395">
@@ -15075,37 +15075,37 @@
         <v>394.0</v>
       </c>
       <c r="B395" t="n">
-        <v>7.096182853558301</v>
+        <v>7.238106510629467</v>
       </c>
       <c r="C395" t="n">
-        <v>7.646755228813873</v>
+        <v>7.8262849716531715</v>
       </c>
       <c r="D395" t="n">
-        <v>7.720127436395389</v>
+        <v>7.807346586310237</v>
       </c>
       <c r="E395" t="n">
-        <v>7.689163907934012</v>
+        <v>7.888474275155355</v>
       </c>
       <c r="F395" t="n">
-        <v>7.096182853558301</v>
+        <v>7.266635086730027</v>
       </c>
       <c r="G395" t="n">
-        <v>7.646755228813873</v>
+        <v>7.971305687239819</v>
       </c>
       <c r="H395" t="n">
-        <v>7.720127436395389</v>
+        <v>7.946763489637204</v>
       </c>
       <c r="I395" t="n">
-        <v>7.689163907934012</v>
+        <v>7.802626310617943</v>
       </c>
       <c r="J395" t="n">
-        <v>7.096182853558301</v>
+        <v>8.101408608228683</v>
       </c>
       <c r="K395" t="n">
-        <v>7.646755228813873</v>
+        <v>7.520713232358374</v>
       </c>
       <c r="L395" t="n">
-        <v>7.720127436395389</v>
+        <v>7.850087541820611</v>
       </c>
     </row>
     <row r="396">
@@ -15151,37 +15151,37 @@
         <v>396.0</v>
       </c>
       <c r="B397" t="n">
-        <v>3.923959243850673</v>
+        <v>3.885108162228389</v>
       </c>
       <c r="C397" t="n">
-        <v>4.228407932092916</v>
+        <v>4.200817379330169</v>
       </c>
       <c r="D397" t="n">
-        <v>4.2689803860618625</v>
+        <v>4.190652058418241</v>
       </c>
       <c r="E397" t="n">
-        <v>4.251858557857093</v>
+        <v>4.234197956181976</v>
       </c>
       <c r="F397" t="n">
-        <v>3.923959243850673</v>
+        <v>3.9004210902299694</v>
       </c>
       <c r="G397" t="n">
-        <v>4.228407932092916</v>
+        <v>4.2786583402210425</v>
       </c>
       <c r="H397" t="n">
-        <v>4.2689803860618625</v>
+        <v>4.265485130889995</v>
       </c>
       <c r="I397" t="n">
-        <v>4.251858557857093</v>
+        <v>4.18811841490344</v>
       </c>
       <c r="J397" t="n">
-        <v>3.923959243850673</v>
+        <v>4.348492062551779</v>
       </c>
       <c r="K397" t="n">
-        <v>4.228407932092916</v>
+        <v>4.036799447743072</v>
       </c>
       <c r="L397" t="n">
-        <v>4.2689803860618625</v>
+        <v>4.213593588067043</v>
       </c>
     </row>
     <row r="398">
@@ -15189,37 +15189,37 @@
         <v>397.0</v>
       </c>
       <c r="B398" t="n">
-        <v>6.662916035841609</v>
+        <v>6.797520400202045</v>
       </c>
       <c r="C398" t="n">
-        <v>7.179872487455912</v>
+        <v>7.349896229695105</v>
       </c>
       <c r="D398" t="n">
-        <v>7.248764857983658</v>
+        <v>7.332110630584836</v>
       </c>
       <c r="E398" t="n">
-        <v>7.219691848653284</v>
+        <v>7.4083000482365495</v>
       </c>
       <c r="F398" t="n">
-        <v>6.662916035841609</v>
+        <v>6.824312431757188</v>
       </c>
       <c r="G398" t="n">
-        <v>7.179872487455912</v>
+        <v>7.486089482889773</v>
       </c>
       <c r="H398" t="n">
-        <v>7.248764857983658</v>
+        <v>7.463041177559564</v>
       </c>
       <c r="I398" t="n">
-        <v>7.219691848653284</v>
+        <v>7.327677679748064</v>
       </c>
       <c r="J398" t="n">
-        <v>6.662916035841609</v>
+        <v>7.608272992934691</v>
       </c>
       <c r="K398" t="n">
-        <v>7.179872487455912</v>
+        <v>7.062924750547728</v>
       </c>
       <c r="L398" t="n">
-        <v>7.248764857983658</v>
+        <v>7.3722499289744405</v>
       </c>
     </row>
     <row r="399">
@@ -15382,34 +15382,34 @@
         <v>3.5669252921815677</v>
       </c>
       <c r="C403" t="n">
-        <v>3.843672745143667</v>
+        <v>3.85677853292359</v>
       </c>
       <c r="D403" t="n">
-        <v>3.880553584936919</v>
+        <v>3.847445732200971</v>
       </c>
       <c r="E403" t="n">
-        <v>3.864989640900628</v>
+        <v>3.8874253048713827</v>
       </c>
       <c r="F403" t="n">
-        <v>3.5669252921815677</v>
+        <v>3.5809841208950686</v>
       </c>
       <c r="G403" t="n">
-        <v>3.843672745143667</v>
+        <v>3.928244469153823</v>
       </c>
       <c r="H403" t="n">
-        <v>3.880553584936919</v>
+        <v>3.916150120275988</v>
       </c>
       <c r="I403" t="n">
-        <v>3.864989640900628</v>
+        <v>3.8451195892065035</v>
       </c>
       <c r="J403" t="n">
-        <v>3.5669252921815677</v>
+        <v>3.992358944228261</v>
       </c>
       <c r="K403" t="n">
-        <v>3.843672745143667</v>
+        <v>3.706193353793401</v>
       </c>
       <c r="L403" t="n">
-        <v>3.880553584936919</v>
+        <v>3.868508394790707</v>
       </c>
     </row>
     <row r="404">
@@ -15496,34 +15496,34 @@
         <v>2.4964967504590025</v>
       </c>
       <c r="C406" t="n">
-        <v>2.4047745306243384</v>
+        <v>2.412155645390048</v>
       </c>
       <c r="D406" t="n">
-        <v>2.578711480282108</v>
+        <v>2.597931126509843</v>
       </c>
       <c r="E406" t="n">
-        <v>2.6858101053441223</v>
+        <v>2.68925827108571</v>
       </c>
       <c r="F406" t="n">
-        <v>2.4964967504590025</v>
+        <v>2.5916445395855927</v>
       </c>
       <c r="G406" t="n">
-        <v>2.4047745306243384</v>
+        <v>2.6201764080625884</v>
       </c>
       <c r="H406" t="n">
-        <v>2.578711480282108</v>
+        <v>2.3866230788135487</v>
       </c>
       <c r="I406" t="n">
-        <v>2.6858101053441223</v>
+        <v>2.3852942236215293</v>
       </c>
       <c r="J406" t="n">
-        <v>2.4964967504590025</v>
+        <v>2.618574832673045</v>
       </c>
       <c r="K406" t="n">
-        <v>2.4047745306243384</v>
+        <v>2.2933556884182003</v>
       </c>
       <c r="L406" t="n">
-        <v>2.578711480282108</v>
+        <v>2.503060721959572</v>
       </c>
     </row>
     <row r="407">
@@ -15531,37 +15531,37 @@
         <v>406.0</v>
       </c>
       <c r="B407" t="n">
-        <v>7.221835166074424</v>
+        <v>7.586574315876163</v>
       </c>
       <c r="C407" t="n">
-        <v>6.956502254028535</v>
+        <v>7.33027113367851</v>
       </c>
       <c r="D407" t="n">
-        <v>7.459664927678017</v>
+        <v>7.894822036187732</v>
       </c>
       <c r="E407" t="n">
-        <v>7.769478516087003</v>
+        <v>8.1723550108468</v>
       </c>
       <c r="F407" t="n">
-        <v>7.221835166074424</v>
+        <v>7.875717801870074</v>
       </c>
       <c r="G407" t="n">
-        <v>6.956502254028535</v>
+        <v>7.962422958018079</v>
       </c>
       <c r="H407" t="n">
-        <v>7.459664927678017</v>
+        <v>7.252680520443361</v>
       </c>
       <c r="I407" t="n">
-        <v>7.769478516087003</v>
+        <v>7.248642278187512</v>
       </c>
       <c r="J407" t="n">
-        <v>7.221835166074424</v>
+        <v>7.957555949593967</v>
       </c>
       <c r="K407" t="n">
-        <v>6.956502254028535</v>
+        <v>6.969251355814147</v>
       </c>
       <c r="L407" t="n">
-        <v>7.459664927678017</v>
+        <v>7.60652149088739</v>
       </c>
     </row>
     <row r="408">
@@ -15645,37 +15645,37 @@
         <v>409.0</v>
       </c>
       <c r="B410" t="n">
-        <v>3.0001012157404396</v>
+        <v>2.9701002035830353</v>
       </c>
       <c r="C410" t="n">
-        <v>2.8898763804043655</v>
+        <v>2.8697589821135248</v>
       </c>
       <c r="D410" t="n">
-        <v>3.098900667752032</v>
+        <v>3.090777412917887</v>
       </c>
       <c r="E410" t="n">
-        <v>3.2276037053961244</v>
+        <v>3.1994299760135805</v>
       </c>
       <c r="F410" t="n">
-        <v>3.0001012157404396</v>
+        <v>3.083298215077904</v>
       </c>
       <c r="G410" t="n">
-        <v>2.8898763804043655</v>
+        <v>3.11724278494628</v>
       </c>
       <c r="H410" t="n">
-        <v>3.098900667752032</v>
+        <v>2.839382703364948</v>
       </c>
       <c r="I410" t="n">
-        <v>3.2276037053961244</v>
+        <v>2.8378017547514065</v>
       </c>
       <c r="J410" t="n">
-        <v>3.0001012157404396</v>
+        <v>3.115337379145266</v>
       </c>
       <c r="K410" t="n">
-        <v>2.8898763804043655</v>
+        <v>2.7284218158132414</v>
       </c>
       <c r="L410" t="n">
-        <v>3.098900667752032</v>
+        <v>2.9779094078556105</v>
       </c>
     </row>
     <row r="411">
@@ -15797,37 +15797,37 @@
         <v>413.0</v>
       </c>
       <c r="B414" t="n">
-        <v>3.444320968587128</v>
+        <v>3.47946710091965</v>
       </c>
       <c r="C414" t="n">
-        <v>3.317775334188122</v>
+        <v>3.361917538602503</v>
       </c>
       <c r="D414" t="n">
-        <v>3.557749483086249</v>
+        <v>3.6208402368175117</v>
       </c>
       <c r="E414" t="n">
-        <v>3.705509354970771</v>
+        <v>3.7481265210533063</v>
       </c>
       <c r="F414" t="n">
-        <v>3.444320968587128</v>
+        <v>3.6120783698629566</v>
       </c>
       <c r="G414" t="n">
-        <v>3.317775334188122</v>
+        <v>3.651844373033288</v>
       </c>
       <c r="H414" t="n">
-        <v>3.557749483086249</v>
+        <v>3.326331782126499</v>
       </c>
       <c r="I414" t="n">
-        <v>3.705509354970771</v>
+        <v>3.324479703640249</v>
       </c>
       <c r="J414" t="n">
-        <v>3.444320968587128</v>
+        <v>3.649612193529535</v>
       </c>
       <c r="K414" t="n">
-        <v>3.317775334188122</v>
+        <v>3.196341299899924</v>
       </c>
       <c r="L414" t="n">
-        <v>3.557749483086249</v>
+        <v>3.4886155698224863</v>
       </c>
     </row>
     <row r="415">
@@ -15873,37 +15873,37 @@
         <v>415.0</v>
       </c>
       <c r="B416" t="n">
-        <v>6.8602419777313655</v>
+        <v>7.06812809826868</v>
       </c>
       <c r="C416" t="n">
-        <v>6.608194134014053</v>
+        <v>6.829339990706631</v>
       </c>
       <c r="D416" t="n">
-        <v>7.086163738140872</v>
+        <v>7.355310993004464</v>
       </c>
       <c r="E416" t="n">
-        <v>7.380465135998754</v>
+        <v>7.613878105736595</v>
       </c>
       <c r="F416" t="n">
-        <v>6.8602419777313655</v>
+        <v>7.337512291014032</v>
       </c>
       <c r="G416" t="n">
-        <v>6.608194134014053</v>
+        <v>7.418292248464921</v>
       </c>
       <c r="H416" t="n">
-        <v>7.086163738140872</v>
+        <v>6.757051712659767</v>
       </c>
       <c r="I416" t="n">
-        <v>7.380465135998754</v>
+        <v>6.7532894330896</v>
       </c>
       <c r="J416" t="n">
-        <v>6.8602419777313655</v>
+        <v>7.413757838391986</v>
       </c>
       <c r="K416" t="n">
-        <v>6.608194134014053</v>
+        <v>6.492991339825575</v>
       </c>
       <c r="L416" t="n">
-        <v>7.086163738140872</v>
+        <v>7.086712136637999</v>
       </c>
     </row>
     <row r="417">
@@ -16025,37 +16025,37 @@
         <v>419.0</v>
       </c>
       <c r="B420" t="n">
-        <v>0.6914284998421745</v>
+        <v>0.6986308800488639</v>
       </c>
       <c r="C420" t="n">
-        <v>0.7029960103457402</v>
+        <v>0.7110855813953579</v>
       </c>
       <c r="D420" t="n">
-        <v>0.7690460393118156</v>
+        <v>0.7806719381142565</v>
       </c>
       <c r="E420" t="n">
-        <v>0.7593130974809776</v>
+        <v>0.7689148304670733</v>
       </c>
       <c r="F420" t="n">
-        <v>0.6914284998421745</v>
+        <v>0.6832969049540517</v>
       </c>
       <c r="G420" t="n">
-        <v>0.7029960103457402</v>
+        <v>0.7717041226703644</v>
       </c>
       <c r="H420" t="n">
-        <v>0.7690460393118156</v>
+        <v>0.7438220383481211</v>
       </c>
       <c r="I420" t="n">
-        <v>0.7593130974809776</v>
+        <v>0.6971046521327033</v>
       </c>
       <c r="J420" t="n">
-        <v>0.6914284998421745</v>
+        <v>0.7721709726855862</v>
       </c>
       <c r="K420" t="n">
-        <v>0.7029960103457402</v>
+        <v>0.7740440381720077</v>
       </c>
       <c r="L420" t="n">
-        <v>0.7690460393118156</v>
+        <v>0.7883870400838805</v>
       </c>
     </row>
     <row r="421">
@@ -16139,37 +16139,37 @@
         <v>422.0</v>
       </c>
       <c r="B423" t="n">
-        <v>1.4178401675092889</v>
+        <v>1.3616880816673367</v>
       </c>
       <c r="C423" t="n">
-        <v>1.4415604524466101</v>
+        <v>1.3859633017707782</v>
       </c>
       <c r="D423" t="n">
-        <v>1.57700234434813</v>
+        <v>1.5215927382825862</v>
       </c>
       <c r="E423" t="n">
-        <v>1.557044017668013</v>
+        <v>1.4986771847116798</v>
       </c>
       <c r="F423" t="n">
-        <v>1.4178401675092889</v>
+        <v>1.3318009241890858</v>
       </c>
       <c r="G423" t="n">
-        <v>1.4415604524466101</v>
+        <v>1.5041137407786596</v>
       </c>
       <c r="H423" t="n">
-        <v>1.57700234434813</v>
+        <v>1.4497693036833699</v>
       </c>
       <c r="I423" t="n">
-        <v>1.557044017668013</v>
+        <v>1.35871334003668</v>
       </c>
       <c r="J423" t="n">
-        <v>1.4178401675092889</v>
+        <v>1.5050236692112666</v>
       </c>
       <c r="K423" t="n">
-        <v>1.4415604524466101</v>
+        <v>1.5086744253142093</v>
       </c>
       <c r="L423" t="n">
-        <v>1.57700234434813</v>
+        <v>1.536630095921502</v>
       </c>
     </row>
     <row r="424">
@@ -16215,37 +16215,37 @@
         <v>424.0</v>
       </c>
       <c r="B425" t="n">
-        <v>3.9133494711682473</v>
+        <v>3.874603436800245</v>
       </c>
       <c r="C425" t="n">
-        <v>3.9461367675451338</v>
+        <v>3.9028534887494253</v>
       </c>
       <c r="D425" t="n">
-        <v>4.0103846938681995</v>
+        <v>3.9182363589240516</v>
       </c>
       <c r="E425" t="n">
-        <v>4.168512023065625</v>
+        <v>4.055237627919517</v>
       </c>
       <c r="F425" t="n">
-        <v>3.9133494711682473</v>
+        <v>4.3683539063671795</v>
       </c>
       <c r="G425" t="n">
-        <v>3.9461367675451338</v>
+        <v>3.80053947071038</v>
       </c>
       <c r="H425" t="n">
-        <v>4.0103846938681995</v>
+        <v>3.71135347743322</v>
       </c>
       <c r="I425" t="n">
-        <v>4.168512023065625</v>
+        <v>4.220004715419341</v>
       </c>
       <c r="J425" t="n">
-        <v>3.9133494711682473</v>
+        <v>4.298201216802278</v>
       </c>
       <c r="K425" t="n">
-        <v>3.9461367675451338</v>
+        <v>4.209792964155608</v>
       </c>
       <c r="L425" t="n">
-        <v>4.0103846938681995</v>
+        <v>4.284967838515529</v>
       </c>
     </row>
     <row r="426">
@@ -16329,37 +16329,37 @@
         <v>427.0</v>
       </c>
       <c r="B428" t="n">
-        <v>1.9874685186705374</v>
+        <v>2.007343203857243</v>
       </c>
       <c r="C428" t="n">
-        <v>2.0207186131784662</v>
+        <v>2.043128710650484</v>
       </c>
       <c r="D428" t="n">
-        <v>2.2105753420482137</v>
+        <v>2.243067912065539</v>
       </c>
       <c r="E428" t="n">
-        <v>2.1825986018830954</v>
+        <v>2.2092867683935893</v>
       </c>
       <c r="F428" t="n">
-        <v>1.9874685186705374</v>
+        <v>1.9632848154096347</v>
       </c>
       <c r="G428" t="n">
-        <v>2.0207186131784662</v>
+        <v>2.217301110312539</v>
       </c>
       <c r="H428" t="n">
-        <v>2.2105753420482137</v>
+        <v>2.1371888306066738</v>
       </c>
       <c r="I428" t="n">
-        <v>2.1825986018830954</v>
+        <v>2.0029579650673006</v>
       </c>
       <c r="J428" t="n">
-        <v>1.9874685186705374</v>
+        <v>2.2186424884737947</v>
       </c>
       <c r="K428" t="n">
-        <v>2.0207186131784662</v>
+        <v>2.224024279319176</v>
       </c>
       <c r="L428" t="n">
-        <v>2.2105753420482137</v>
+        <v>2.2652353511926315</v>
       </c>
     </row>
     <row r="429">
@@ -16367,37 +16367,37 @@
         <v>428.0</v>
       </c>
       <c r="B429" t="n">
-        <v>7.9855350193941765</v>
+        <v>8.14524571978206</v>
       </c>
       <c r="C429" t="n">
-        <v>8.387414523798078</v>
+        <v>8.487826674926552</v>
       </c>
       <c r="D429" t="n">
-        <v>8.246635111378176</v>
+        <v>8.351518151723129</v>
       </c>
       <c r="E429" t="n">
-        <v>7.335512260063312</v>
+        <v>7.384548273798983</v>
       </c>
       <c r="F429" t="n">
-        <v>7.9855350193941765</v>
+        <v>7.5833471051539565</v>
       </c>
       <c r="G429" t="n">
-        <v>8.387414523798078</v>
+        <v>8.325805349228363</v>
       </c>
       <c r="H429" t="n">
-        <v>8.246635111378176</v>
+        <v>8.174793167015295</v>
       </c>
       <c r="I429" t="n">
-        <v>7.335512260063312</v>
+        <v>8.224518186910931</v>
       </c>
       <c r="J429" t="n">
-        <v>7.9855350193941765</v>
+        <v>7.879433500397343</v>
       </c>
       <c r="K429" t="n">
-        <v>8.387414523798078</v>
+        <v>7.2112575402656205</v>
       </c>
       <c r="L429" t="n">
-        <v>8.246635111378176</v>
+        <v>8.199580290334058</v>
       </c>
     </row>
     <row r="430">
@@ -17016,34 +17016,34 @@
         <v>3.003803043354165</v>
       </c>
       <c r="C446" t="n">
-        <v>2.6273558721720582</v>
+        <v>2.6193162519842295</v>
       </c>
       <c r="D446" t="n">
-        <v>2.6999189494248204</v>
+        <v>2.7360545822104734</v>
       </c>
       <c r="E446" t="n">
-        <v>2.85655400078882</v>
+        <v>2.8695401543142345</v>
       </c>
       <c r="F446" t="n">
-        <v>3.003803043354165</v>
+        <v>2.688132442343328</v>
       </c>
       <c r="G446" t="n">
-        <v>2.6273558721720582</v>
+        <v>2.8620151351936785</v>
       </c>
       <c r="H446" t="n">
-        <v>2.6999189494248204</v>
+        <v>2.971093752063678</v>
       </c>
       <c r="I446" t="n">
-        <v>2.85655400078882</v>
+        <v>3.082999356148564</v>
       </c>
       <c r="J446" t="n">
-        <v>3.003803043354165</v>
+        <v>2.9873588665260966</v>
       </c>
       <c r="K446" t="n">
-        <v>2.6273558721720582</v>
+        <v>3.024148997636244</v>
       </c>
       <c r="L446" t="n">
-        <v>2.6999189494248204</v>
+        <v>2.6822599524591797</v>
       </c>
     </row>
     <row r="447">
@@ -17054,34 +17054,34 @@
         <v>2.061602700165247</v>
       </c>
       <c r="C447" t="n">
-        <v>1.8032353926629567</v>
+        <v>1.7977175532945595</v>
       </c>
       <c r="D447" t="n">
-        <v>1.853037671253616</v>
+        <v>1.8778386708690553</v>
       </c>
       <c r="E447" t="n">
-        <v>1.9605411394144177</v>
+        <v>1.969453937219849</v>
       </c>
       <c r="F447" t="n">
-        <v>2.061602700165247</v>
+        <v>1.8449482278134137</v>
       </c>
       <c r="G447" t="n">
-        <v>1.8032353926629567</v>
+        <v>1.9642892844400814</v>
       </c>
       <c r="H447" t="n">
-        <v>1.853037671253616</v>
+        <v>2.039153304425352</v>
       </c>
       <c r="I447" t="n">
-        <v>1.9605411394144177</v>
+        <v>2.1159575729526945</v>
       </c>
       <c r="J447" t="n">
-        <v>2.061602700165247</v>
+        <v>2.050316554282365</v>
       </c>
       <c r="K447" t="n">
-        <v>1.8032353926629567</v>
+        <v>2.0755667562900904</v>
       </c>
       <c r="L447" t="n">
-        <v>1.853037671253616</v>
+        <v>1.840917756831423</v>
       </c>
     </row>
     <row r="448">
@@ -17130,34 +17130,34 @@
         <v>2.8059174723588636</v>
       </c>
       <c r="C449" t="n">
-        <v>2.454270017517597</v>
+        <v>2.4467600341962648</v>
       </c>
       <c r="D449" t="n">
-        <v>2.522052759386151</v>
+        <v>2.5558078365149055</v>
       </c>
       <c r="E449" t="n">
-        <v>2.668368952912377</v>
+        <v>2.6804996001451618</v>
       </c>
       <c r="F449" t="n">
-        <v>2.8059174723588636</v>
+        <v>2.511042727875859</v>
       </c>
       <c r="G449" t="n">
-        <v>2.454270017517597</v>
+        <v>2.6734703168248326</v>
       </c>
       <c r="H449" t="n">
-        <v>2.522052759386151</v>
+        <v>2.7753630150206856</v>
       </c>
       <c r="I449" t="n">
-        <v>2.668368952912377</v>
+        <v>2.8798964631944486</v>
       </c>
       <c r="J449" t="n">
-        <v>2.8059174723588636</v>
+        <v>2.7905566106730344</v>
       </c>
       <c r="K449" t="n">
-        <v>2.454270017517597</v>
+        <v>2.824923068860341</v>
       </c>
       <c r="L449" t="n">
-        <v>2.522052759386151</v>
+        <v>2.5055571079019927</v>
       </c>
     </row>
     <row r="450">
@@ -17168,34 +17168,34 @@
         <v>3.6817022516072537</v>
       </c>
       <c r="C450" t="n">
-        <v>3.2202983653508768</v>
+        <v>3.2104443611700484</v>
       </c>
       <c r="D450" t="n">
-        <v>3.3092375005235772</v>
+        <v>3.3535282341935297</v>
       </c>
       <c r="E450" t="n">
-        <v>3.501221999162179</v>
+        <v>3.5171388718679366</v>
       </c>
       <c r="F450" t="n">
-        <v>3.6817022516072537</v>
+        <v>3.294791010845593</v>
       </c>
       <c r="G450" t="n">
-        <v>3.2202983653508768</v>
+        <v>3.5079156040838404</v>
       </c>
       <c r="H450" t="n">
-        <v>3.3092375005235772</v>
+        <v>3.6416111172503913</v>
       </c>
       <c r="I450" t="n">
-        <v>3.501221999162179</v>
+        <v>3.778771612988732</v>
       </c>
       <c r="J450" t="n">
-        <v>3.6817022516072537</v>
+        <v>3.661546947820717</v>
       </c>
       <c r="K450" t="n">
-        <v>3.2202983653508768</v>
+        <v>3.7066398872012916</v>
       </c>
       <c r="L450" t="n">
-        <v>3.3092375005235772</v>
+        <v>3.2875932156116985</v>
       </c>
     </row>
     <row r="451">
@@ -17241,37 +17241,37 @@
         <v>451.0</v>
       </c>
       <c r="B452" t="n">
-        <v>4.823297924028283</v>
+        <v>4.919763882508849</v>
       </c>
       <c r="C452" t="n">
-        <v>4.2188252495344605</v>
+        <v>4.290034102565851</v>
       </c>
       <c r="D452" t="n">
-        <v>4.335341990087309</v>
+        <v>4.481233396415075</v>
       </c>
       <c r="E452" t="n">
-        <v>4.58685565698553</v>
+        <v>4.699862077122049</v>
       </c>
       <c r="F452" t="n">
-        <v>4.823297924028283</v>
+        <v>4.402744357856924</v>
       </c>
       <c r="G452" t="n">
-        <v>4.2188252495344605</v>
+        <v>4.687537261962676</v>
       </c>
       <c r="H452" t="n">
-        <v>4.335341990087309</v>
+        <v>4.8661911323681775</v>
       </c>
       <c r="I452" t="n">
-        <v>4.58685565698553</v>
+        <v>5.049475169730491</v>
       </c>
       <c r="J452" t="n">
-        <v>4.823297924028283</v>
+        <v>4.892830869235787</v>
       </c>
       <c r="K452" t="n">
-        <v>4.2188252495344605</v>
+        <v>4.953087402589039</v>
       </c>
       <c r="L452" t="n">
-        <v>4.335341990087309</v>
+        <v>4.3931261294925985</v>
       </c>
     </row>
     <row r="453">
@@ -17393,37 +17393,37 @@
         <v>455.0</v>
       </c>
       <c r="B456" t="n">
-        <v>4.945864971396139</v>
+        <v>4.897376099127549</v>
       </c>
       <c r="C456" t="n">
-        <v>4.7042127085428</v>
+        <v>4.6326917366886775</v>
       </c>
       <c r="D456" t="n">
-        <v>4.8941980772601115</v>
+        <v>4.776416812475137</v>
       </c>
       <c r="E456" t="n">
-        <v>4.905884906020708</v>
+        <v>4.793743597766314</v>
       </c>
       <c r="F456" t="n">
-        <v>4.945864971396139</v>
+        <v>4.882297970565562</v>
       </c>
       <c r="G456" t="n">
-        <v>4.7042127085428</v>
+        <v>4.846486496631337</v>
       </c>
       <c r="H456" t="n">
-        <v>4.8941980772601115</v>
+        <v>4.849450709607766</v>
       </c>
       <c r="I456" t="n">
-        <v>4.905884906020708</v>
+        <v>4.244567402546045</v>
       </c>
       <c r="J456" t="n">
-        <v>4.945864971396139</v>
+        <v>4.464443642125078</v>
       </c>
       <c r="K456" t="n">
-        <v>4.7042127085428</v>
+        <v>4.414728233477179</v>
       </c>
       <c r="L456" t="n">
-        <v>4.8941980772601115</v>
+        <v>4.3398204182805</v>
       </c>
     </row>
     <row r="457">
@@ -17469,37 +17469,37 @@
         <v>457.0</v>
       </c>
       <c r="B458" t="n">
-        <v>2.2440054158555407</v>
+        <v>2.266903430303046</v>
       </c>
       <c r="C458" t="n">
-        <v>2.1343645361039116</v>
+        <v>2.1443860093381457</v>
       </c>
       <c r="D458" t="n">
-        <v>2.2205634515212513</v>
+        <v>2.210913647960577</v>
       </c>
       <c r="E458" t="n">
-        <v>2.2258659228148723</v>
+        <v>2.2189338914986814</v>
       </c>
       <c r="F458" t="n">
-        <v>2.2440054158555407</v>
+        <v>2.259924047738205</v>
       </c>
       <c r="G458" t="n">
-        <v>2.1343645361039116</v>
+        <v>2.243347588944247</v>
       </c>
       <c r="H458" t="n">
-        <v>2.2205634515212513</v>
+        <v>2.2447196674671965</v>
       </c>
       <c r="I458" t="n">
-        <v>2.2258659228148723</v>
+        <v>1.9647305435043576</v>
       </c>
       <c r="J458" t="n">
-        <v>2.2440054158555407</v>
+        <v>2.066507125832319</v>
       </c>
       <c r="K458" t="n">
-        <v>2.1343645361039116</v>
+        <v>2.0434947967561596</v>
       </c>
       <c r="L458" t="n">
-        <v>2.2205634515212513</v>
+        <v>2.0088213757672935</v>
       </c>
     </row>
     <row r="459">
@@ -17548,34 +17548,34 @@
         <v>2.7207400820806154</v>
       </c>
       <c r="C460" t="n">
-        <v>2.735994049721044</v>
+        <v>2.726696819642449</v>
       </c>
       <c r="D460" t="n">
-        <v>2.6766957326114356</v>
+        <v>2.6568933812268583</v>
       </c>
       <c r="E460" t="n">
-        <v>2.764636969071677</v>
+        <v>2.77376118677681</v>
       </c>
       <c r="F460" t="n">
-        <v>2.7207400820806154</v>
+        <v>3.046896081506399</v>
       </c>
       <c r="G460" t="n">
-        <v>2.735994049721044</v>
+        <v>2.910707035619191</v>
       </c>
       <c r="H460" t="n">
-        <v>2.6766957326114356</v>
+        <v>3.0450336749281153</v>
       </c>
       <c r="I460" t="n">
-        <v>2.764636969071677</v>
+        <v>2.7753064581810536</v>
       </c>
       <c r="J460" t="n">
-        <v>2.7207400820806154</v>
+        <v>3.001009091759358</v>
       </c>
       <c r="K460" t="n">
-        <v>2.735994049721044</v>
+        <v>2.7939849074489254</v>
       </c>
       <c r="L460" t="n">
-        <v>2.6766957326114356</v>
+        <v>2.666849620903429</v>
       </c>
     </row>
     <row r="461">
@@ -17583,37 +17583,37 @@
         <v>460.0</v>
       </c>
       <c r="B461" t="n">
-        <v>1.4742258338280751</v>
+        <v>1.4894240383005295</v>
       </c>
       <c r="C461" t="n">
-        <v>1.4021959642781103</v>
+        <v>1.408926391397541</v>
       </c>
       <c r="D461" t="n">
-        <v>1.458825358778816</v>
+        <v>1.452637059814666</v>
       </c>
       <c r="E461" t="n">
-        <v>1.4623088798563297</v>
+        <v>1.4579066021158482</v>
       </c>
       <c r="F461" t="n">
-        <v>1.4742258338280751</v>
+        <v>1.484838373103852</v>
       </c>
       <c r="G461" t="n">
-        <v>1.4021959642781103</v>
+        <v>1.4739471388908805</v>
       </c>
       <c r="H461" t="n">
-        <v>1.458825358778816</v>
+        <v>1.4748486359318211</v>
       </c>
       <c r="I461" t="n">
-        <v>1.4623088798563297</v>
+        <v>1.2908873228390925</v>
       </c>
       <c r="J461" t="n">
-        <v>1.4742258338280751</v>
+        <v>1.3577576121637125</v>
       </c>
       <c r="K461" t="n">
-        <v>1.4021959642781103</v>
+        <v>1.3426378167436086</v>
       </c>
       <c r="L461" t="n">
-        <v>1.458825358778816</v>
+        <v>1.3198563316478684</v>
       </c>
     </row>
     <row r="462">
@@ -17773,37 +17773,37 @@
         <v>465.0</v>
       </c>
       <c r="B466" t="n">
-        <v>2.0535906949372085</v>
+        <v>2.0330547879878367</v>
       </c>
       <c r="C466" t="n">
-        <v>1.9532533745137495</v>
+        <v>1.9231759876935894</v>
       </c>
       <c r="D466" t="n">
-        <v>2.032137894739936</v>
+        <v>1.9828407852437775</v>
       </c>
       <c r="E466" t="n">
-        <v>2.0369904256793947</v>
+        <v>1.9900336785571868</v>
       </c>
       <c r="F466" t="n">
-        <v>2.0535906949372085</v>
+        <v>2.0267953827785234</v>
       </c>
       <c r="G466" t="n">
-        <v>1.9532533745137495</v>
+        <v>2.0119289140668704</v>
       </c>
       <c r="H466" t="n">
-        <v>2.032137894739936</v>
+        <v>2.0131594520656613</v>
       </c>
       <c r="I466" t="n">
-        <v>2.0369904256793947</v>
+        <v>1.7620533742998903</v>
       </c>
       <c r="J466" t="n">
-        <v>2.0535906949372085</v>
+        <v>1.853330914066654</v>
       </c>
       <c r="K466" t="n">
-        <v>1.9532533745137495</v>
+        <v>1.8326924849277548</v>
       </c>
       <c r="L466" t="n">
-        <v>2.032137894739936</v>
+        <v>1.8015958958031322</v>
       </c>
     </row>
     <row r="467">
@@ -17849,37 +17849,37 @@
         <v>467.0</v>
       </c>
       <c r="B468" t="n">
-        <v>1.3911798546273868</v>
+        <v>1.405375567429707</v>
       </c>
       <c r="C468" t="n">
-        <v>1.5778755973421674</v>
+        <v>1.604670880278191</v>
       </c>
       <c r="D468" t="n">
-        <v>1.5579654172331288</v>
+        <v>1.5968622634249587</v>
       </c>
       <c r="E468" t="n">
-        <v>1.4607155540383019</v>
+        <v>1.4723732804123713</v>
       </c>
       <c r="F468" t="n">
-        <v>1.3911798546273868</v>
+        <v>1.5298610481493493</v>
       </c>
       <c r="G468" t="n">
-        <v>1.5778755973421674</v>
+        <v>1.5881679121080285</v>
       </c>
       <c r="H468" t="n">
-        <v>1.5579654172331288</v>
+        <v>1.4337747455694476</v>
       </c>
       <c r="I468" t="n">
-        <v>1.4607155540383019</v>
+        <v>1.6215204192774981</v>
       </c>
       <c r="J468" t="n">
-        <v>1.3911798546273868</v>
+        <v>1.5920203523162715</v>
       </c>
       <c r="K468" t="n">
-        <v>1.5778755973421674</v>
+        <v>1.6479859132967274</v>
       </c>
       <c r="L468" t="n">
-        <v>1.5579654172331288</v>
+        <v>1.5872077151566153</v>
       </c>
     </row>
     <row r="469">
@@ -17966,34 +17966,34 @@
         <v>1.6382112099614974</v>
       </c>
       <c r="C471" t="n">
-        <v>1.6094569161534134</v>
+        <v>1.6182816346503255</v>
       </c>
       <c r="D471" t="n">
-        <v>1.6153237096034336</v>
+        <v>1.6261949916974787</v>
       </c>
       <c r="E471" t="n">
-        <v>1.5048140068165834</v>
+        <v>1.4980039450405411</v>
       </c>
       <c r="F471" t="n">
-        <v>1.6382112099614974</v>
+        <v>1.6432705405030594</v>
       </c>
       <c r="G471" t="n">
-        <v>1.6094569161534134</v>
+        <v>1.6133747769937405</v>
       </c>
       <c r="H471" t="n">
-        <v>1.6153237096034336</v>
+        <v>1.6700910270936862</v>
       </c>
       <c r="I471" t="n">
-        <v>1.5048140068165834</v>
+        <v>1.6094706624183133</v>
       </c>
       <c r="J471" t="n">
-        <v>1.6382112099614974</v>
+        <v>1.4530065567483528</v>
       </c>
       <c r="K471" t="n">
-        <v>1.6094569161534134</v>
+        <v>1.6084975859497224</v>
       </c>
       <c r="L471" t="n">
-        <v>1.6153237096034336</v>
+        <v>1.418909336077308</v>
       </c>
     </row>
     <row r="472">
@@ -18039,37 +18039,37 @@
         <v>472.0</v>
       </c>
       <c r="B473" t="n">
-        <v>3.4857975490540762</v>
+        <v>3.451284702033739</v>
       </c>
       <c r="C473" t="n">
-        <v>3.9535900923469915</v>
+        <v>3.9407089387727936</v>
       </c>
       <c r="D473" t="n">
-        <v>3.9037023249282337</v>
+        <v>3.921532740954803</v>
       </c>
       <c r="E473" t="n">
-        <v>3.6600290618035545</v>
+        <v>3.61581593997977</v>
       </c>
       <c r="F473" t="n">
-        <v>3.4857975490540762</v>
+        <v>3.7569929021690074</v>
       </c>
       <c r="G473" t="n">
-        <v>3.9535900923469915</v>
+        <v>3.900181379518296</v>
       </c>
       <c r="H473" t="n">
-        <v>3.9037023249282337</v>
+        <v>3.521026663780857</v>
       </c>
       <c r="I473" t="n">
-        <v>3.6600290618035545</v>
+        <v>3.9820875976397505</v>
       </c>
       <c r="J473" t="n">
-        <v>3.4857975490540762</v>
+        <v>3.9096421018080143</v>
       </c>
       <c r="K473" t="n">
-        <v>3.9535900923469915</v>
+        <v>4.047080868305031</v>
       </c>
       <c r="L473" t="n">
-        <v>3.9037023249282337</v>
+        <v>3.8978233528625363</v>
       </c>
     </row>
     <row r="474">
@@ -18115,37 +18115,37 @@
         <v>474.0</v>
       </c>
       <c r="B475" t="n">
-        <v>0.8091937023807528</v>
+        <v>0.8174507809764747</v>
       </c>
       <c r="C475" t="n">
-        <v>0.9177871518643648</v>
+        <v>0.9333728966788971</v>
       </c>
       <c r="D475" t="n">
-        <v>0.9062061960994354</v>
+        <v>0.9288309364421079</v>
       </c>
       <c r="E475" t="n">
-        <v>0.8496398387065439</v>
+        <v>0.8564206720650758</v>
       </c>
       <c r="F475" t="n">
-        <v>0.8091937023807528</v>
+        <v>0.8898590082097216</v>
       </c>
       <c r="G475" t="n">
-        <v>0.9177871518643648</v>
+        <v>0.9237737798792494</v>
       </c>
       <c r="H475" t="n">
-        <v>0.9062061960994354</v>
+        <v>0.8339694475076417</v>
       </c>
       <c r="I475" t="n">
-        <v>0.8496398387065439</v>
+        <v>0.9431735998740352</v>
       </c>
       <c r="J475" t="n">
-        <v>0.8091937023807528</v>
+        <v>0.9260145903286958</v>
       </c>
       <c r="K475" t="n">
-        <v>0.9177871518643648</v>
+        <v>0.9585675196605545</v>
       </c>
       <c r="L475" t="n">
-        <v>0.9062061960994354</v>
+        <v>0.9232152717010692</v>
       </c>
     </row>
     <row r="476">
@@ -18381,37 +18381,37 @@
         <v>481.0</v>
       </c>
       <c r="B482" t="n">
-        <v>3.5820536511220764</v>
+        <v>3.5465877733881945</v>
       </c>
       <c r="C482" t="n">
-        <v>3.6023997975699134</v>
+        <v>3.6011842569542463</v>
       </c>
       <c r="D482" t="n">
-        <v>3.287242024260285</v>
+        <v>3.2563046968818674</v>
       </c>
       <c r="E482" t="n">
-        <v>3.1208233358622617</v>
+        <v>3.1307940235895395</v>
       </c>
       <c r="F482" t="n">
-        <v>3.5820536511220764</v>
+        <v>3.535866528472352</v>
       </c>
       <c r="G482" t="n">
-        <v>3.6023997975699134</v>
+        <v>3.2581187948494867</v>
       </c>
       <c r="H482" t="n">
-        <v>3.287242024260285</v>
+        <v>3.52308628712076</v>
       </c>
       <c r="I482" t="n">
-        <v>3.1208233358622617</v>
+        <v>3.280046681926211</v>
       </c>
       <c r="J482" t="n">
-        <v>3.5820536511220764</v>
+        <v>3.4170746337206306</v>
       </c>
       <c r="K482" t="n">
-        <v>3.6023997975699134</v>
+        <v>3.5769561087014314</v>
       </c>
       <c r="L482" t="n">
-        <v>3.287242024260285</v>
+        <v>3.2929747952720567</v>
       </c>
     </row>
     <row r="483">
@@ -18457,37 +18457,37 @@
         <v>483.0</v>
       </c>
       <c r="B484" t="n">
-        <v>1.3293361952305944</v>
+        <v>1.3429008502839679</v>
       </c>
       <c r="C484" t="n">
-        <v>1.3368868551427093</v>
+        <v>1.3635735838769456</v>
       </c>
       <c r="D484" t="n">
-        <v>1.2199286305953099</v>
+        <v>1.2329863591811632</v>
       </c>
       <c r="E484" t="n">
-        <v>1.1581689788433058</v>
+        <v>1.1854622597781588</v>
       </c>
       <c r="F484" t="n">
-        <v>1.3293361952305944</v>
+        <v>1.3388412950625745</v>
       </c>
       <c r="G484" t="n">
-        <v>1.3368868551427093</v>
+        <v>1.2336732599034559</v>
       </c>
       <c r="H484" t="n">
-        <v>1.2199286305953099</v>
+        <v>1.3340021093227865</v>
       </c>
       <c r="I484" t="n">
-        <v>1.1581689788433058</v>
+        <v>1.2419761640134905</v>
       </c>
       <c r="J484" t="n">
-        <v>1.3293361952305944</v>
+        <v>1.2938612334760742</v>
       </c>
       <c r="K484" t="n">
-        <v>1.3368868551427093</v>
+        <v>1.3543996953484718</v>
       </c>
       <c r="L484" t="n">
-        <v>1.2199286305953099</v>
+        <v>1.2468713408747467</v>
       </c>
     </row>
     <row r="485">
@@ -18498,34 +18498,34 @@
         <v>2.381471820385006</v>
       </c>
       <c r="C485" t="n">
-        <v>2.3949986346480396</v>
+        <v>2.4181324066759387</v>
       </c>
       <c r="D485" t="n">
-        <v>2.1854709644309676</v>
+        <v>2.1865517984355547</v>
       </c>
       <c r="E485" t="n">
-        <v>2.074830126686625</v>
+        <v>2.1022735708259</v>
       </c>
       <c r="F485" t="n">
-        <v>2.381471820385006</v>
+        <v>2.3742726914537817</v>
       </c>
       <c r="G485" t="n">
-        <v>2.3949986346480396</v>
+        <v>2.18776993357427</v>
       </c>
       <c r="H485" t="n">
-        <v>2.1854709644309676</v>
+        <v>2.365690982334693</v>
       </c>
       <c r="I485" t="n">
-        <v>2.074830126686625</v>
+        <v>2.202494127219114</v>
       </c>
       <c r="J485" t="n">
-        <v>2.381471820385006</v>
+        <v>2.2945060064265275</v>
       </c>
       <c r="K485" t="n">
-        <v>2.3949986346480396</v>
+        <v>2.4018636277789014</v>
       </c>
       <c r="L485" t="n">
-        <v>2.1854709644309676</v>
+        <v>2.21117512980275</v>
       </c>
     </row>
     <row r="486">
@@ -18533,37 +18533,37 @@
         <v>485.0</v>
       </c>
       <c r="B486" t="n">
-        <v>2.082893488737493</v>
+        <v>2.1045902959118417</v>
       </c>
       <c r="C486" t="n">
-        <v>2.0947243712659622</v>
+        <v>2.136988543705453</v>
       </c>
       <c r="D486" t="n">
-        <v>1.9114663472701454</v>
+        <v>1.9323326260279219</v>
       </c>
       <c r="E486" t="n">
-        <v>1.814697165055386</v>
+        <v>1.8578529960505017</v>
       </c>
       <c r="F486" t="n">
-        <v>2.082893488737493</v>
+        <v>2.0982281728088177</v>
       </c>
       <c r="G486" t="n">
-        <v>2.0947243712659622</v>
+        <v>1.9334091348365106</v>
       </c>
       <c r="H486" t="n">
-        <v>1.9114663472701454</v>
+        <v>2.0906442150312055</v>
       </c>
       <c r="I486" t="n">
-        <v>1.814697165055386</v>
+        <v>1.9464214219418248</v>
       </c>
       <c r="J486" t="n">
-        <v>2.082893488737493</v>
+        <v>2.027735551477579</v>
       </c>
       <c r="K486" t="n">
-        <v>2.0947243712659622</v>
+        <v>2.122611252359841</v>
       </c>
       <c r="L486" t="n">
-        <v>1.9114663472701454</v>
+        <v>1.9540931288416998</v>
       </c>
     </row>
     <row r="487">
@@ -18726,34 +18726,34 @@
         <v>2.3480081522363205</v>
       </c>
       <c r="C491" t="n">
-        <v>2.3613448921009375</v>
+        <v>2.3841535958817373</v>
       </c>
       <c r="D491" t="n">
-        <v>2.1547614366186747</v>
+        <v>2.1558270830950517</v>
       </c>
       <c r="E491" t="n">
-        <v>2.0456752879730136</v>
+        <v>2.0727331057531297</v>
       </c>
       <c r="F491" t="n">
-        <v>2.3480081522363205</v>
+        <v>2.3409101831254446</v>
       </c>
       <c r="G491" t="n">
-        <v>2.3613448921009375</v>
+        <v>2.1570281013946375</v>
       </c>
       <c r="H491" t="n">
-        <v>2.1547614366186747</v>
+        <v>2.332449061394227</v>
       </c>
       <c r="I491" t="n">
-        <v>2.0456752879730136</v>
+        <v>2.1715453954550856</v>
       </c>
       <c r="J491" t="n">
-        <v>2.3480081522363205</v>
+        <v>2.262264353635604</v>
       </c>
       <c r="K491" t="n">
-        <v>2.3613448921009375</v>
+        <v>2.3681134205791388</v>
       </c>
       <c r="L491" t="n">
-        <v>2.1547614366186747</v>
+        <v>2.180104415411352</v>
       </c>
     </row>
     <row r="492">
@@ -18837,37 +18837,37 @@
         <v>493.0</v>
       </c>
       <c r="B494" t="n">
-        <v>1.2907553253464732</v>
+        <v>1.3037932579257305</v>
       </c>
       <c r="C494" t="n">
-        <v>1.2469691420461546</v>
+        <v>1.2511702771890263</v>
       </c>
       <c r="D494" t="n">
-        <v>1.2094720855778136</v>
+        <v>1.2135218578883722</v>
       </c>
       <c r="E494" t="n">
-        <v>1.1319698950743873</v>
+        <v>1.1368049583756616</v>
       </c>
       <c r="F494" t="n">
-        <v>1.2907553253464732</v>
+        <v>1.1564268706967278</v>
       </c>
       <c r="G494" t="n">
-        <v>1.2469691420461546</v>
+        <v>1.2633471172848634</v>
       </c>
       <c r="H494" t="n">
-        <v>1.2094720855778136</v>
+        <v>1.2595164710347666</v>
       </c>
       <c r="I494" t="n">
-        <v>1.1319698950743873</v>
+        <v>1.210339544802391</v>
       </c>
       <c r="J494" t="n">
-        <v>1.2907553253464732</v>
+        <v>1.1077027515109765</v>
       </c>
       <c r="K494" t="n">
-        <v>1.2469691420461546</v>
+        <v>1.2828552557307253</v>
       </c>
       <c r="L494" t="n">
-        <v>1.2094720855778136</v>
+        <v>1.2564686382046786</v>
       </c>
     </row>
     <row r="495">
@@ -18916,34 +18916,34 @@
         <v>4.80880120159693</v>
       </c>
       <c r="C496" t="n">
-        <v>4.645672646763042</v>
+        <v>4.614711033190268</v>
       </c>
       <c r="D496" t="n">
-        <v>4.50597468336095</v>
+        <v>4.47585177550455</v>
       </c>
       <c r="E496" t="n">
-        <v>4.217234734355332</v>
+        <v>4.192895627114551</v>
       </c>
       <c r="F496" t="n">
-        <v>4.80880120159693</v>
+        <v>4.265267435277826</v>
       </c>
       <c r="G496" t="n">
-        <v>4.645672646763042</v>
+        <v>4.659623064241629</v>
       </c>
       <c r="H496" t="n">
-        <v>4.50597468336095</v>
+        <v>4.645494431363388</v>
       </c>
       <c r="I496" t="n">
-        <v>4.217234734355332</v>
+        <v>4.464114400043605</v>
       </c>
       <c r="J496" t="n">
-        <v>4.80880120159693</v>
+        <v>4.085557499317612</v>
       </c>
       <c r="K496" t="n">
-        <v>4.645672646763042</v>
+        <v>4.731575238429604</v>
       </c>
       <c r="L496" t="n">
-        <v>4.50597468336095</v>
+        <v>4.634253061547661</v>
       </c>
     </row>
     <row r="497">
@@ -19369,37 +19369,37 @@
         <v>507.0</v>
       </c>
       <c r="B508" t="n">
-        <v>1.1627712737279905</v>
+        <v>1.0936957525164266</v>
       </c>
       <c r="C508" t="n">
-        <v>1.123326682543265</v>
+        <v>1.049552610828417</v>
       </c>
       <c r="D508" t="n">
-        <v>1.0895476236817108</v>
+        <v>1.0179709808209174</v>
       </c>
       <c r="E508" t="n">
-        <v>1.0197301152827518</v>
+        <v>0.9536164931494828</v>
       </c>
       <c r="F508" t="n">
-        <v>1.1627712737279905</v>
+        <v>0.9700764664093094</v>
       </c>
       <c r="G508" t="n">
-        <v>1.123326682543265</v>
+        <v>1.0597672351263494</v>
       </c>
       <c r="H508" t="n">
-        <v>1.0895476236817108</v>
+        <v>1.0565538717286977</v>
       </c>
       <c r="I508" t="n">
-        <v>1.0197301152827518</v>
+        <v>1.0153014760630448</v>
       </c>
       <c r="J508" t="n">
-        <v>1.1627712737279905</v>
+        <v>0.929203910983351</v>
       </c>
       <c r="K508" t="n">
-        <v>1.123326682543265</v>
+        <v>1.0761317684049507</v>
       </c>
       <c r="L508" t="n">
-        <v>1.0895476236817108</v>
+        <v>1.053997176638902</v>
       </c>
     </row>
     <row r="509">
@@ -19445,37 +19445,37 @@
         <v>509.0</v>
       </c>
       <c r="B510" t="n">
-        <v>2.0514176353131393</v>
+        <v>2.0723504683265386</v>
       </c>
       <c r="C510" t="n">
-        <v>2.3667121261204773</v>
+        <v>2.376548703861196</v>
       </c>
       <c r="D510" t="n">
-        <v>2.300660218720602</v>
+        <v>2.349248567748799</v>
       </c>
       <c r="E510" t="n">
-        <v>2.1054625808642027</v>
+        <v>2.1647114931293854</v>
       </c>
       <c r="F510" t="n">
-        <v>2.0514176353131393</v>
+        <v>2.3407573072758865</v>
       </c>
       <c r="G510" t="n">
-        <v>2.3667121261204773</v>
+        <v>2.1878700055932456</v>
       </c>
       <c r="H510" t="n">
-        <v>2.300660218720602</v>
+        <v>2.1792804981791902</v>
       </c>
       <c r="I510" t="n">
-        <v>2.1054625808642027</v>
+        <v>2.375096045214075</v>
       </c>
       <c r="J510" t="n">
-        <v>2.0514176353131393</v>
+        <v>2.08011623646097</v>
       </c>
       <c r="K510" t="n">
-        <v>2.3667121261204773</v>
+        <v>2.1267964575082936</v>
       </c>
       <c r="L510" t="n">
-        <v>2.300660218720602</v>
+        <v>2.1635061967705242</v>
       </c>
     </row>
     <row r="511">
@@ -19711,37 +19711,37 @@
         <v>516.0</v>
       </c>
       <c r="B517" t="n">
-        <v>1.1002418839046715</v>
+        <v>1.111355438287547</v>
       </c>
       <c r="C517" t="n">
-        <v>1.1064104459824176</v>
+        <v>1.1137886191442548</v>
       </c>
       <c r="D517" t="n">
-        <v>1.082430760249571</v>
+        <v>1.0852756305624818</v>
       </c>
       <c r="E517" t="n">
-        <v>1.1179933751105726</v>
+        <v>1.133013256113007</v>
       </c>
       <c r="F517" t="n">
-        <v>1.1002418839046715</v>
+        <v>1.24458214600553</v>
       </c>
       <c r="G517" t="n">
-        <v>1.1064104459824176</v>
+        <v>1.18895226876044</v>
       </c>
       <c r="H517" t="n">
-        <v>1.082430760249571</v>
+        <v>1.2438213987027242</v>
       </c>
       <c r="I517" t="n">
-        <v>1.1179933751105726</v>
+        <v>1.1336444614935017</v>
       </c>
       <c r="J517" t="n">
-        <v>1.1002418839046715</v>
+        <v>1.2258384387554715</v>
       </c>
       <c r="K517" t="n">
-        <v>1.1064104459824176</v>
+        <v>1.14127414883826</v>
       </c>
       <c r="L517" t="n">
-        <v>1.082430760249571</v>
+        <v>1.0893425097114042</v>
       </c>
     </row>
     <row r="518">
@@ -19749,37 +19749,37 @@
         <v>517.0</v>
       </c>
       <c r="B518" t="n">
-        <v>1.1232506131075375</v>
+        <v>1.1345965788965022</v>
       </c>
       <c r="C518" t="n">
-        <v>1.1035350367807437</v>
+        <v>1.1207937018136094</v>
       </c>
       <c r="D518" t="n">
-        <v>1.1075576434505305</v>
+        <v>1.126274355210858</v>
       </c>
       <c r="E518" t="n">
-        <v>1.0317859171585475</v>
+        <v>1.0374914668398638</v>
       </c>
       <c r="F518" t="n">
-        <v>1.1232506131075375</v>
+        <v>1.1381005831964714</v>
       </c>
       <c r="G518" t="n">
-        <v>1.1035350367807437</v>
+        <v>1.117395297580724</v>
       </c>
       <c r="H518" t="n">
-        <v>1.1075576434505305</v>
+        <v>1.1566759855286164</v>
       </c>
       <c r="I518" t="n">
-        <v>1.0317859171585475</v>
+        <v>1.1146913757579673</v>
       </c>
       <c r="J518" t="n">
-        <v>1.1232506131075375</v>
+        <v>1.0063270586700561</v>
       </c>
       <c r="K518" t="n">
-        <v>1.1035350367807437</v>
+        <v>1.114017439927499</v>
       </c>
       <c r="L518" t="n">
-        <v>1.1075576434505305</v>
+        <v>0.9827119169300873</v>
       </c>
     </row>
     <row r="519">
@@ -19863,37 +19863,37 @@
         <v>520.0</v>
       </c>
       <c r="B521" t="n">
-        <v>3.5389463274060984</v>
+        <v>3.5039072548575234</v>
       </c>
       <c r="C521" t="n">
-        <v>3.5587876099729305</v>
+        <v>3.5115786440121357</v>
       </c>
       <c r="D521" t="n">
-        <v>3.4816565517955795</v>
+        <v>3.4216822309408257</v>
       </c>
       <c r="E521" t="n">
-        <v>3.5960442942514947</v>
+        <v>3.5721905262472275</v>
       </c>
       <c r="F521" t="n">
-        <v>3.5389463274060984</v>
+        <v>3.9239475152742287</v>
       </c>
       <c r="G521" t="n">
-        <v>3.5587876099729305</v>
+        <v>3.7485563454012913</v>
       </c>
       <c r="H521" t="n">
-        <v>3.4816565517955795</v>
+        <v>3.921549013497406</v>
       </c>
       <c r="I521" t="n">
-        <v>3.5960442942514947</v>
+        <v>3.574180605240702</v>
       </c>
       <c r="J521" t="n">
-        <v>3.5389463274060984</v>
+        <v>3.8648519194335287</v>
       </c>
       <c r="K521" t="n">
-        <v>3.5587876099729305</v>
+        <v>3.5982356608229082</v>
       </c>
       <c r="L521" t="n">
-        <v>3.4816565517955795</v>
+        <v>3.4345043820399335</v>
       </c>
     </row>
     <row r="522">
@@ -19901,37 +19901,37 @@
         <v>521.0</v>
       </c>
       <c r="B522" t="n">
-        <v>1.8756285935912984</v>
+        <v>1.8947676608728423</v>
       </c>
       <c r="C522" t="n">
-        <v>1.8861444006911905</v>
+        <v>1.898916029829806</v>
       </c>
       <c r="D522" t="n">
-        <v>1.8452652223179402</v>
+        <v>1.8503037795826427</v>
       </c>
       <c r="E522" t="n">
-        <v>1.905890306921562</v>
+        <v>1.9316924208614101</v>
       </c>
       <c r="F522" t="n">
-        <v>1.8756285935912984</v>
+        <v>2.121908005583405</v>
       </c>
       <c r="G522" t="n">
-        <v>1.8861444006911905</v>
+        <v>2.027063738168168</v>
       </c>
       <c r="H522" t="n">
-        <v>1.8452652223179402</v>
+        <v>2.120610995340064</v>
       </c>
       <c r="I522" t="n">
-        <v>1.905890306921562</v>
+        <v>1.932768573009613</v>
       </c>
       <c r="J522" t="n">
-        <v>1.8756285935912984</v>
+        <v>2.0899515593208107</v>
       </c>
       <c r="K522" t="n">
-        <v>1.8861444006911905</v>
+        <v>1.9457765489868526</v>
       </c>
       <c r="L522" t="n">
-        <v>1.8452652223179402</v>
+        <v>1.8572374668860763</v>
       </c>
     </row>
     <row r="523">
@@ -19942,34 +19942,34 @@
         <v>4.068403149068915</v>
       </c>
       <c r="C523" t="n">
-        <v>4.1972658153809</v>
+        <v>4.15384212826193</v>
       </c>
       <c r="D523" t="n">
-        <v>3.9613837946997426</v>
+        <v>3.9190386976571245</v>
       </c>
       <c r="E523" t="n">
-        <v>4.036744540059965</v>
+        <v>4.090675432753301</v>
       </c>
       <c r="F523" t="n">
-        <v>4.068403149068915</v>
+        <v>3.6728948151254706</v>
       </c>
       <c r="G523" t="n">
-        <v>4.1972658153809</v>
+        <v>3.7717725216369686</v>
       </c>
       <c r="H523" t="n">
-        <v>3.9613837946997426</v>
+        <v>3.6001447583500945</v>
       </c>
       <c r="I523" t="n">
-        <v>4.036744540059965</v>
+        <v>3.6809361824909237</v>
       </c>
       <c r="J523" t="n">
-        <v>4.068403149068915</v>
+        <v>4.113192911626087</v>
       </c>
       <c r="K523" t="n">
-        <v>4.1972658153809</v>
+        <v>3.92934292029083</v>
       </c>
       <c r="L523" t="n">
-        <v>3.9613837946997426</v>
+        <v>4.051247234479766</v>
       </c>
     </row>
     <row r="524">
@@ -19980,34 +19980,34 @@
         <v>2.7681935747216766</v>
       </c>
       <c r="C524" t="n">
-        <v>2.6329411476505156</v>
+        <v>2.6185833474076845</v>
       </c>
       <c r="D524" t="n">
-        <v>2.7392756877190316</v>
+        <v>2.699822530036386</v>
       </c>
       <c r="E524" t="n">
-        <v>2.74581678911809</v>
+        <v>2.709616324660851</v>
       </c>
       <c r="F524" t="n">
-        <v>2.7681935747216766</v>
+        <v>2.759670811152108</v>
       </c>
       <c r="G524" t="n">
-        <v>2.6329411476505156</v>
+        <v>2.7394287284450654</v>
       </c>
       <c r="H524" t="n">
-        <v>2.7392756877190316</v>
+        <v>2.7411042206166636</v>
       </c>
       <c r="I524" t="n">
-        <v>2.74581678911809</v>
+        <v>2.399199892631122</v>
       </c>
       <c r="J524" t="n">
-        <v>2.7681935747216766</v>
+        <v>2.5234827700979094</v>
       </c>
       <c r="K524" t="n">
-        <v>2.6329411476505156</v>
+        <v>2.495381625321977</v>
       </c>
       <c r="L524" t="n">
-        <v>2.7392756877190316</v>
+        <v>2.4530407210240965</v>
       </c>
     </row>
     <row r="525">
@@ -20246,34 +20246,34 @@
         <v>1.6262560636607202</v>
       </c>
       <c r="C531" t="n">
-        <v>1.6777661241908115</v>
+        <v>1.66040844553994</v>
       </c>
       <c r="D531" t="n">
-        <v>1.5834773940955487</v>
+        <v>1.5665508584724457</v>
       </c>
       <c r="E531" t="n">
-        <v>1.613601220229176</v>
+        <v>1.635158926790593</v>
       </c>
       <c r="F531" t="n">
-        <v>1.6262560636607202</v>
+        <v>1.4681601713077028</v>
       </c>
       <c r="G531" t="n">
-        <v>1.6777661241908115</v>
+        <v>1.5076843934369648</v>
       </c>
       <c r="H531" t="n">
-        <v>1.5834773940955487</v>
+        <v>1.439079911405315</v>
       </c>
       <c r="I531" t="n">
-        <v>1.613601220229176</v>
+        <v>1.4713745337882707</v>
       </c>
       <c r="J531" t="n">
-        <v>1.6262560636607202</v>
+        <v>1.6441598013876941</v>
       </c>
       <c r="K531" t="n">
-        <v>1.6777661241908115</v>
+        <v>1.570669748347754</v>
       </c>
       <c r="L531" t="n">
-        <v>1.5834773940955487</v>
+        <v>1.619398358289355</v>
       </c>
     </row>
     <row r="532">
@@ -20357,37 +20357,37 @@
         <v>533.0</v>
       </c>
       <c r="B534" t="n">
-        <v>1.286619494277858</v>
+        <v>1.260887104392301</v>
       </c>
       <c r="C534" t="n">
-        <v>1.3273719006856561</v>
+        <v>1.2873665124375848</v>
       </c>
       <c r="D534" t="n">
-        <v>1.252774965466125</v>
+        <v>1.2145957945738877</v>
       </c>
       <c r="E534" t="n">
-        <v>1.2766075603519005</v>
+        <v>1.2677897721599816</v>
       </c>
       <c r="F534" t="n">
-        <v>1.286619494277858</v>
+        <v>1.1383104226632292</v>
       </c>
       <c r="G534" t="n">
-        <v>1.3273719006856561</v>
+        <v>1.1689547861847664</v>
       </c>
       <c r="H534" t="n">
-        <v>1.252774965466125</v>
+        <v>1.1157635891585722</v>
       </c>
       <c r="I534" t="n">
-        <v>1.2766075603519005</v>
+        <v>1.1408026182597009</v>
       </c>
       <c r="J534" t="n">
-        <v>1.286619494277858</v>
+        <v>1.2747684312785157</v>
       </c>
       <c r="K534" t="n">
-        <v>1.3273719006856561</v>
+        <v>1.2177892985024743</v>
       </c>
       <c r="L534" t="n">
-        <v>1.252774965466125</v>
+        <v>1.255570111292818</v>
       </c>
     </row>
     <row r="535">
@@ -20474,34 +20474,34 @@
         <v>3.5339520916450455</v>
       </c>
       <c r="C537" t="n">
-        <v>3.4719232786757805</v>
+        <v>3.4909599768748327</v>
       </c>
       <c r="D537" t="n">
-        <v>3.4845791357825306</v>
+        <v>3.5080306845581104</v>
       </c>
       <c r="E537" t="n">
-        <v>3.246187411360232</v>
+        <v>3.231496734168344</v>
       </c>
       <c r="F537" t="n">
-        <v>3.5339520916450455</v>
+        <v>3.544866088351305</v>
       </c>
       <c r="G537" t="n">
-        <v>3.4719232786757805</v>
+        <v>3.4803748949431204</v>
       </c>
       <c r="H537" t="n">
-        <v>3.4845791357825306</v>
+        <v>3.602723289003784</v>
       </c>
       <c r="I537" t="n">
-        <v>3.246187411360232</v>
+        <v>3.471952932142501</v>
       </c>
       <c r="J537" t="n">
-        <v>3.5339520916450455</v>
+        <v>3.134428289326314</v>
       </c>
       <c r="K537" t="n">
-        <v>3.4719232786757805</v>
+        <v>3.469853809880001</v>
       </c>
       <c r="L537" t="n">
-        <v>3.4845791357825306</v>
+        <v>3.0608737051695165</v>
       </c>
     </row>
     <row r="538">
@@ -20854,34 +20854,34 @@
         <v>0.5036033029900975</v>
       </c>
       <c r="C547" t="n">
-        <v>0.5471300667510016</v>
+        <v>0.5468650504127296</v>
       </c>
       <c r="D547" t="n">
-        <v>0.49394592554880545</v>
+        <v>0.4937017632320735</v>
       </c>
       <c r="E547" t="n">
-        <v>0.5500008021154505</v>
+        <v>0.5481915883012178</v>
       </c>
       <c r="F547" t="n">
-        <v>0.5036033029900975</v>
+        <v>0.5525476337539057</v>
       </c>
       <c r="G547" t="n">
-        <v>0.5471300667510016</v>
+        <v>0.5674626043528707</v>
       </c>
       <c r="H547" t="n">
-        <v>0.49394592554880545</v>
+        <v>0.5583495542712751</v>
       </c>
       <c r="I547" t="n">
-        <v>0.5500008021154505</v>
+        <v>0.48211622847421254</v>
       </c>
       <c r="J547" t="n">
-        <v>0.5036033029900975</v>
+        <v>0.5566304977415284</v>
       </c>
       <c r="K547" t="n">
-        <v>0.5471300667510016</v>
+        <v>0.5498588376785407</v>
       </c>
       <c r="L547" t="n">
-        <v>0.49394592554880545</v>
+        <v>0.5267878370053337</v>
       </c>
     </row>
     <row r="548">
@@ -20927,37 +20927,37 @@
         <v>548.0</v>
       </c>
       <c r="B549" t="n">
-        <v>3.7093421762193697</v>
+        <v>3.7464355979815633</v>
       </c>
       <c r="C549" t="n">
-        <v>3.6669177690284505</v>
+        <v>3.723784838336599</v>
       </c>
       <c r="D549" t="n">
-        <v>3.269537194385828</v>
+        <v>3.2971842186685993</v>
       </c>
       <c r="E549" t="n">
-        <v>3.741639274973468</v>
+        <v>3.792573964011135</v>
       </c>
       <c r="F549" t="n">
-        <v>3.7093421762193697</v>
+        <v>3.5986795910000002</v>
       </c>
       <c r="G549" t="n">
-        <v>3.6669177690284505</v>
+        <v>3.3711768568987868</v>
       </c>
       <c r="H549" t="n">
-        <v>3.269537194385828</v>
+        <v>3.42936532293028</v>
       </c>
       <c r="I549" t="n">
-        <v>3.741639274973468</v>
+        <v>3.710325374131117</v>
       </c>
       <c r="J549" t="n">
-        <v>3.7093421762193697</v>
+        <v>3.431275833537138</v>
       </c>
       <c r="K549" t="n">
-        <v>3.6669177690284505</v>
+        <v>3.7647555751142208</v>
       </c>
       <c r="L549" t="n">
-        <v>3.269537194385828</v>
+        <v>3.454369107215751</v>
       </c>
     </row>
     <row r="550">
@@ -20965,37 +20965,37 @@
         <v>549.0</v>
       </c>
       <c r="B550" t="n">
-        <v>3.880167703684468</v>
+        <v>3.803332699651112</v>
       </c>
       <c r="C550" t="n">
-        <v>3.661962247834079</v>
+        <v>3.5551086367671356</v>
       </c>
       <c r="D550" t="n">
-        <v>4.215169502064935</v>
+        <v>4.086254812156608</v>
       </c>
       <c r="E550" t="n">
-        <v>4.1659974593563325</v>
+        <v>4.020632435521216</v>
       </c>
       <c r="F550" t="n">
-        <v>3.880167703684468</v>
+        <v>3.9594914347405834</v>
       </c>
       <c r="G550" t="n">
-        <v>3.661962247834079</v>
+        <v>3.484691603831058</v>
       </c>
       <c r="H550" t="n">
-        <v>4.215169502064935</v>
+        <v>3.5628921252717913</v>
       </c>
       <c r="I550" t="n">
-        <v>4.1659974593563325</v>
+        <v>3.981286799881235</v>
       </c>
       <c r="J550" t="n">
-        <v>3.880167703684468</v>
+        <v>3.6243897079278287</v>
       </c>
       <c r="K550" t="n">
-        <v>3.661962247834079</v>
+        <v>3.665204907844892</v>
       </c>
       <c r="L550" t="n">
-        <v>4.215169502064935</v>
+        <v>3.626408867255674</v>
       </c>
     </row>
     <row r="551">
@@ -21041,37 +21041,37 @@
         <v>551.0</v>
       </c>
       <c r="B552" t="n">
-        <v>4.053056471924083</v>
+        <v>4.012927199924834</v>
       </c>
       <c r="C552" t="n">
-        <v>3.8251284279367646</v>
+        <v>3.7510239765454187</v>
       </c>
       <c r="D552" t="n">
-        <v>4.402984957165289</v>
+        <v>4.3114406170754425</v>
       </c>
       <c r="E552" t="n">
-        <v>4.351621954027929</v>
+        <v>4.24220191488459</v>
       </c>
       <c r="F552" t="n">
-        <v>4.053056471924083</v>
+        <v>4.177691548729734</v>
       </c>
       <c r="G552" t="n">
-        <v>3.8251284279367646</v>
+        <v>3.676726393577431</v>
       </c>
       <c r="H552" t="n">
-        <v>4.402984957165289</v>
+        <v>3.759236398438855</v>
       </c>
       <c r="I552" t="n">
-        <v>4.351621954027929</v>
+        <v>4.200688015384685</v>
       </c>
       <c r="J552" t="n">
-        <v>4.053056471924083</v>
+        <v>3.8241229970245305</v>
       </c>
       <c r="K552" t="n">
-        <v>3.8251284279367646</v>
+        <v>3.8671874457204276</v>
       </c>
       <c r="L552" t="n">
-        <v>4.402984957165289</v>
+        <v>3.8262534284191956</v>
       </c>
     </row>
     <row r="553">
@@ -21120,34 +21120,34 @@
         <v>1.840443038527029</v>
       </c>
       <c r="C554" t="n">
-        <v>1.893390625042329</v>
+        <v>1.9047941926420175</v>
       </c>
       <c r="D554" t="n">
-        <v>1.841745961540119</v>
+        <v>1.8332175182337025</v>
       </c>
       <c r="E554" t="n">
-        <v>2.0138688651744765</v>
+        <v>1.9773907045893027</v>
       </c>
       <c r="F554" t="n">
-        <v>1.840443038527029</v>
+        <v>1.9821872877463402</v>
       </c>
       <c r="G554" t="n">
-        <v>1.893390625042329</v>
+        <v>1.743267645275671</v>
       </c>
       <c r="H554" t="n">
-        <v>1.841745961540119</v>
+        <v>1.9882158379681223</v>
       </c>
       <c r="I554" t="n">
-        <v>2.0138688651744765</v>
+        <v>2.0127012528855404</v>
       </c>
       <c r="J554" t="n">
-        <v>1.840443038527029</v>
+        <v>1.9761951858334934</v>
       </c>
       <c r="K554" t="n">
-        <v>1.893390625042329</v>
+        <v>1.7851593856979207</v>
       </c>
       <c r="L554" t="n">
-        <v>1.841745961540119</v>
+        <v>2.051868698141409</v>
       </c>
     </row>
     <row r="555">
@@ -21231,37 +21231,37 @@
         <v>556.0</v>
       </c>
       <c r="B557" t="n">
-        <v>1.8866887008775493</v>
+        <v>1.9065485819394183</v>
       </c>
       <c r="C557" t="n">
-        <v>1.9024959836317084</v>
+        <v>1.9204493842697605</v>
       </c>
       <c r="D557" t="n">
-        <v>1.9334709419229634</v>
+        <v>1.9280187238927626</v>
       </c>
       <c r="E557" t="n">
-        <v>2.0097066697808343</v>
+        <v>1.9954319648573429</v>
       </c>
       <c r="F557" t="n">
-        <v>1.8866887008775493</v>
+        <v>2.149504867128223</v>
       </c>
       <c r="G557" t="n">
-        <v>1.9024959836317084</v>
+        <v>1.870104452411145</v>
       </c>
       <c r="H557" t="n">
-        <v>1.9334709419229634</v>
+        <v>1.8262193344152116</v>
       </c>
       <c r="I557" t="n">
-        <v>2.0097066697808343</v>
+        <v>2.076507734841819</v>
       </c>
       <c r="J557" t="n">
-        <v>1.8866887008775493</v>
+        <v>2.1149853316477984</v>
       </c>
       <c r="K557" t="n">
-        <v>1.9024959836317084</v>
+        <v>2.0714829109576316</v>
       </c>
       <c r="L557" t="n">
-        <v>1.9334709419229634</v>
+        <v>2.108473677224732</v>
       </c>
     </row>
     <row r="558">
@@ -21269,37 +21269,37 @@
         <v>557.0</v>
       </c>
       <c r="B558" t="n">
-        <v>7.280228993097558</v>
+        <v>7.1360660427391895</v>
       </c>
       <c r="C558" t="n">
-        <v>7.341225085434037</v>
+        <v>7.188095686471361</v>
       </c>
       <c r="D558" t="n">
-        <v>7.460749196278129</v>
+        <v>7.216427147815356</v>
       </c>
       <c r="E558" t="n">
-        <v>7.754922557258462</v>
+        <v>7.468749771133445</v>
       </c>
       <c r="F558" t="n">
-        <v>7.280228993097558</v>
+        <v>8.045432902324924</v>
       </c>
       <c r="G558" t="n">
-        <v>7.341225085434037</v>
+        <v>6.999658443348594</v>
       </c>
       <c r="H558" t="n">
-        <v>7.460749196278129</v>
+        <v>6.835399791206713</v>
       </c>
       <c r="I558" t="n">
-        <v>7.754922557258462</v>
+        <v>7.7722101993416866</v>
       </c>
       <c r="J558" t="n">
-        <v>7.280228993097558</v>
+        <v>7.916228911780709</v>
       </c>
       <c r="K558" t="n">
-        <v>7.341225085434037</v>
+        <v>7.753402666488672</v>
       </c>
       <c r="L558" t="n">
-        <v>7.460749196278129</v>
+        <v>7.891856285533112</v>
       </c>
     </row>
     <row r="559">
@@ -21649,37 +21649,37 @@
         <v>567.0</v>
       </c>
       <c r="B568" t="n">
-        <v>1.282026357519185</v>
+        <v>1.2953807987433432</v>
       </c>
       <c r="C568" t="n">
-        <v>1.3034744947594583</v>
+        <v>1.3184739391112625</v>
       </c>
       <c r="D568" t="n">
-        <v>1.4259425128824357</v>
+        <v>1.447498911986583</v>
       </c>
       <c r="E568" t="n">
-        <v>1.4078959788356276</v>
+        <v>1.4256992293074344</v>
       </c>
       <c r="F568" t="n">
-        <v>1.282026357519185</v>
+        <v>1.2669489938038894</v>
       </c>
       <c r="G568" t="n">
-        <v>1.3034744947594583</v>
+        <v>1.4308710527486985</v>
       </c>
       <c r="H568" t="n">
-        <v>1.4259425128824357</v>
+        <v>1.3791729132999377</v>
       </c>
       <c r="I568" t="n">
-        <v>1.4078959788356276</v>
+        <v>1.2925509118981438</v>
       </c>
       <c r="J568" t="n">
-        <v>1.282026357519185</v>
+        <v>1.4317366722952738</v>
       </c>
       <c r="K568" t="n">
-        <v>1.3034744947594583</v>
+        <v>1.4352096551467184</v>
       </c>
       <c r="L568" t="n">
-        <v>1.4259425128824357</v>
+        <v>1.4618040268007162</v>
       </c>
     </row>
     <row r="569">
@@ -21953,37 +21953,37 @@
         <v>575.0</v>
       </c>
       <c r="B576" t="n">
-        <v>0.8182590087612148</v>
+        <v>0.8267825401024774</v>
       </c>
       <c r="C576" t="n">
-        <v>0.8889816715358895</v>
+        <v>0.8978068110137007</v>
       </c>
       <c r="D576" t="n">
-        <v>0.8025676182452556</v>
+        <v>0.8105268480856486</v>
       </c>
       <c r="E576" t="n">
-        <v>0.893646067221507</v>
+        <v>0.8999846330384463</v>
       </c>
       <c r="F576" t="n">
-        <v>0.8182590087612148</v>
+        <v>0.9071360998830669</v>
       </c>
       <c r="G576" t="n">
-        <v>0.8889816715358895</v>
+        <v>0.9316225105244373</v>
       </c>
       <c r="H576" t="n">
-        <v>0.8025676182452556</v>
+        <v>0.9166613086224499</v>
       </c>
       <c r="I576" t="n">
-        <v>0.893646067221507</v>
+        <v>0.7915064846395053</v>
       </c>
       <c r="J576" t="n">
-        <v>0.8182590087612148</v>
+        <v>0.9138390754960882</v>
       </c>
       <c r="K576" t="n">
-        <v>0.8889816715358895</v>
+        <v>0.9027218126140822</v>
       </c>
       <c r="L576" t="n">
-        <v>0.8025676182452556</v>
+        <v>0.8648453721180692</v>
       </c>
     </row>
     <row r="577">
@@ -21991,37 +21991,37 @@
         <v>576.0</v>
       </c>
       <c r="B577" t="n">
-        <v>2.59745495683489</v>
+        <v>2.571480407266541</v>
       </c>
       <c r="C577" t="n">
-        <v>2.821954692270431</v>
+        <v>2.7923819288032248</v>
       </c>
       <c r="D577" t="n">
-        <v>2.547644713820255</v>
+        <v>2.5209215341647293</v>
       </c>
       <c r="E577" t="n">
-        <v>2.8367611992132495</v>
+        <v>2.7991554471052114</v>
       </c>
       <c r="F577" t="n">
-        <v>2.59745495683489</v>
+        <v>2.821398123966625</v>
       </c>
       <c r="G577" t="n">
-        <v>2.821954692270431</v>
+        <v>2.8975563906866286</v>
       </c>
       <c r="H577" t="n">
-        <v>2.547644713820255</v>
+        <v>2.8510236741692347</v>
       </c>
       <c r="I577" t="n">
-        <v>2.8367611992132495</v>
+        <v>2.4617639085878955</v>
       </c>
       <c r="J577" t="n">
-        <v>2.59745495683489</v>
+        <v>2.842245891817568</v>
       </c>
       <c r="K577" t="n">
-        <v>2.821954692270431</v>
+        <v>2.807668693706966</v>
       </c>
       <c r="L577" t="n">
-        <v>2.547644713820255</v>
+        <v>2.689864410345561</v>
       </c>
     </row>
     <row r="578">
@@ -22029,37 +22029,37 @@
         <v>577.0</v>
       </c>
       <c r="B578" t="n">
-        <v>5.263054227393769</v>
+        <v>5.210944779597791</v>
       </c>
       <c r="C578" t="n">
-        <v>5.671399435919794</v>
+        <v>5.6343932984116964</v>
       </c>
       <c r="D578" t="n">
-        <v>5.725817693630201</v>
+        <v>5.620758948034032</v>
       </c>
       <c r="E578" t="n">
-        <v>5.702852850033765</v>
+        <v>5.679165370493756</v>
       </c>
       <c r="F578" t="n">
-        <v>5.263054227393769</v>
+        <v>5.2314834155631855</v>
       </c>
       <c r="G578" t="n">
-        <v>5.671399435919794</v>
+        <v>5.738798357899285</v>
       </c>
       <c r="H578" t="n">
-        <v>5.725817693630201</v>
+        <v>5.721129643534639</v>
       </c>
       <c r="I578" t="n">
-        <v>5.702852850033765</v>
+        <v>5.617360670329649</v>
       </c>
       <c r="J578" t="n">
-        <v>5.263054227393769</v>
+        <v>5.832463619102853</v>
       </c>
       <c r="K578" t="n">
-        <v>5.671399435919794</v>
+        <v>5.414402413042373</v>
       </c>
       <c r="L578" t="n">
-        <v>5.725817693630201</v>
+        <v>5.651529531288745</v>
       </c>
     </row>
     <row r="579">
@@ -22257,37 +22257,37 @@
         <v>583.0</v>
       </c>
       <c r="B584" t="n">
-        <v>2.56142803287215</v>
+        <v>2.587301043305202</v>
       </c>
       <c r="C584" t="n">
-        <v>2.604280396755241</v>
+        <v>2.6334256317081444</v>
       </c>
       <c r="D584" t="n">
-        <v>2.8489657052207447</v>
+        <v>2.8911308927839525</v>
       </c>
       <c r="E584" t="n">
-        <v>2.812909583649949</v>
+        <v>2.847589764341876</v>
       </c>
       <c r="F584" t="n">
-        <v>2.56142803287215</v>
+        <v>2.5305133877723573</v>
       </c>
       <c r="G584" t="n">
-        <v>2.604280396755241</v>
+        <v>2.857919594920154</v>
       </c>
       <c r="H584" t="n">
-        <v>2.8489657052207447</v>
+        <v>2.754661425382303</v>
       </c>
       <c r="I584" t="n">
-        <v>2.812909583649949</v>
+        <v>2.581648829535998</v>
       </c>
       <c r="J584" t="n">
-        <v>2.56142803287215</v>
+        <v>2.8596485215478546</v>
       </c>
       <c r="K584" t="n">
-        <v>2.604280396755241</v>
+        <v>2.8665852093261823</v>
       </c>
       <c r="L584" t="n">
-        <v>2.8489657052207447</v>
+        <v>2.9197029069122404</v>
       </c>
     </row>
     <row r="585">
@@ -22295,37 +22295,37 @@
         <v>584.0</v>
       </c>
       <c r="B585" t="n">
-        <v>3.7226142749700135</v>
+        <v>3.685756707891102</v>
       </c>
       <c r="C585" t="n">
-        <v>4.294764846406257</v>
+        <v>4.226785218409351</v>
       </c>
       <c r="D585" t="n">
-        <v>4.174903454389784</v>
+        <v>4.178230854009847</v>
       </c>
       <c r="E585" t="n">
-        <v>3.820687179450849</v>
+        <v>3.850024418356931</v>
       </c>
       <c r="F585" t="n">
-        <v>3.7226142749700135</v>
+        <v>4.163128813730068</v>
       </c>
       <c r="G585" t="n">
-        <v>4.294764846406257</v>
+        <v>3.8912127424184395</v>
       </c>
       <c r="H585" t="n">
-        <v>4.174903454389784</v>
+        <v>3.8759359660947905</v>
       </c>
       <c r="I585" t="n">
-        <v>3.820687179450849</v>
+        <v>4.224201607946383</v>
       </c>
       <c r="J585" t="n">
-        <v>3.7226142749700135</v>
+        <v>3.699568431550239</v>
       </c>
       <c r="K585" t="n">
-        <v>4.294764846406257</v>
+        <v>3.78259103823797</v>
       </c>
       <c r="L585" t="n">
-        <v>4.174903454389784</v>
+        <v>3.8478807514397917</v>
       </c>
     </row>
     <row r="586">
@@ -22713,37 +22713,37 @@
         <v>595.0</v>
       </c>
       <c r="B596" t="n">
-        <v>1.422903470168774</v>
+        <v>1.4378814014337085</v>
       </c>
       <c r="C596" t="n">
-        <v>1.244580198476462</v>
+        <v>1.253832581178695</v>
       </c>
       <c r="D596" t="n">
-        <v>1.2789533757250564</v>
+        <v>1.3097136996954764</v>
       </c>
       <c r="E596" t="n">
-        <v>1.3531515022064207</v>
+        <v>1.3736115048170174</v>
       </c>
       <c r="F596" t="n">
-        <v>1.422903470168774</v>
+        <v>1.2867739953815314</v>
       </c>
       <c r="G596" t="n">
-        <v>1.244580198476462</v>
+        <v>1.3700093761545475</v>
       </c>
       <c r="H596" t="n">
-        <v>1.2789533757250564</v>
+        <v>1.4222238896322186</v>
       </c>
       <c r="I596" t="n">
-        <v>1.3531515022064207</v>
+        <v>1.4757916450767254</v>
       </c>
       <c r="J596" t="n">
-        <v>1.422903470168774</v>
+        <v>1.4300097881216172</v>
       </c>
       <c r="K596" t="n">
-        <v>1.244580198476462</v>
+        <v>1.4476207448042226</v>
       </c>
       <c r="L596" t="n">
-        <v>1.2789533757250564</v>
+        <v>1.2839629109453508</v>
       </c>
     </row>
     <row r="597">
@@ -22789,37 +22789,37 @@
         <v>597.0</v>
       </c>
       <c r="B598" t="n">
-        <v>0.9350327648286009</v>
+        <v>0.944672277868071</v>
       </c>
       <c r="C598" t="n">
-        <v>0.9402750735781117</v>
+        <v>0.946740525723962</v>
       </c>
       <c r="D598" t="n">
-        <v>0.9198961076629703</v>
+        <v>0.9225039683235017</v>
       </c>
       <c r="E598" t="n">
-        <v>0.950118743780046</v>
+        <v>0.9630818158016367</v>
       </c>
       <c r="F598" t="n">
-        <v>0.9350327648286009</v>
+        <v>1.0579173956017256</v>
       </c>
       <c r="G598" t="n">
-        <v>0.9402750735781117</v>
+        <v>1.0106309910508862</v>
       </c>
       <c r="H598" t="n">
-        <v>0.9198961076629703</v>
+        <v>1.0572707465975772</v>
       </c>
       <c r="I598" t="n">
-        <v>0.950118743780046</v>
+        <v>0.9636183518224736</v>
       </c>
       <c r="J598" t="n">
-        <v>0.9350327648286009</v>
+        <v>1.0419849045069876</v>
       </c>
       <c r="K598" t="n">
-        <v>0.9402750735781117</v>
+        <v>0.9701037244360273</v>
       </c>
       <c r="L598" t="n">
-        <v>0.9198961076629703</v>
+        <v>0.9259608893562061</v>
       </c>
     </row>
     <row r="599">
@@ -23093,37 +23093,37 @@
         <v>605.0</v>
       </c>
       <c r="B606" t="n">
-        <v>1.4327241267465973</v>
+        <v>1.461668048499054</v>
       </c>
       <c r="C606" t="n">
-        <v>1.4408620324680832</v>
+        <v>1.4841690947688504</v>
       </c>
       <c r="D606" t="n">
-        <v>1.314807486799568</v>
+        <v>1.3420326341063753</v>
       </c>
       <c r="E606" t="n">
-        <v>1.2482445334684018</v>
+        <v>1.2903054662991795</v>
       </c>
       <c r="F606" t="n">
-        <v>1.4327241267465973</v>
+        <v>1.457249463048778</v>
       </c>
       <c r="G606" t="n">
-        <v>1.4408620324680832</v>
+        <v>1.3427802848641015</v>
       </c>
       <c r="H606" t="n">
-        <v>1.314807486799568</v>
+        <v>1.451982295949208</v>
       </c>
       <c r="I606" t="n">
-        <v>1.2482445334684018</v>
+        <v>1.3518175042871312</v>
       </c>
       <c r="J606" t="n">
-        <v>1.4327241267465973</v>
+        <v>1.4082913297460813</v>
       </c>
       <c r="K606" t="n">
-        <v>1.4408620324680832</v>
+        <v>1.4741838603863369</v>
       </c>
       <c r="L606" t="n">
-        <v>1.314807486799568</v>
+        <v>1.3571456144066063</v>
       </c>
     </row>
     <row r="607">
@@ -23131,37 +23131,37 @@
         <v>606.0</v>
       </c>
       <c r="B607" t="n">
-        <v>2.6061272500345023</v>
+        <v>2.632720385238936</v>
       </c>
       <c r="C607" t="n">
-        <v>2.6209301122625126</v>
+        <v>2.673248713996295</v>
       </c>
       <c r="D607" t="n">
-        <v>2.3916367121412905</v>
+        <v>2.417236031871875</v>
       </c>
       <c r="E607" t="n">
-        <v>2.270558604164535</v>
+        <v>2.3240663348968864</v>
       </c>
       <c r="F607" t="n">
-        <v>2.6061272500345023</v>
+        <v>2.6247617382665216</v>
       </c>
       <c r="G607" t="n">
-        <v>2.6209301122625126</v>
+        <v>2.418582681949453</v>
       </c>
       <c r="H607" t="n">
-        <v>2.3916367121412905</v>
+        <v>2.6152746469876655</v>
       </c>
       <c r="I607" t="n">
-        <v>2.270558604164535</v>
+        <v>2.4348602983516994</v>
       </c>
       <c r="J607" t="n">
-        <v>2.6061272500345023</v>
+        <v>2.5365795578449055</v>
       </c>
       <c r="K607" t="n">
-        <v>2.6209301122625126</v>
+        <v>2.6552635564653313</v>
       </c>
       <c r="L607" t="n">
-        <v>2.3916367121412905</v>
+        <v>2.4444571586926944</v>
       </c>
     </row>
     <row r="608">
@@ -23169,37 +23169,37 @@
         <v>607.0</v>
       </c>
       <c r="B608" t="n">
-        <v>1.7509347289349444</v>
+        <v>1.7863071477013068</v>
       </c>
       <c r="C608" t="n">
-        <v>1.9859094222330782</v>
+        <v>2.03962209787915</v>
       </c>
       <c r="D608" t="n">
-        <v>1.960850530173717</v>
+        <v>2.029696930242929</v>
       </c>
       <c r="E608" t="n">
-        <v>1.8384521484794953</v>
+        <v>1.8714648068738322</v>
       </c>
       <c r="F608" t="n">
-        <v>1.7509347289349444</v>
+        <v>1.9445348194696597</v>
       </c>
       <c r="G608" t="n">
-        <v>1.9859094222330782</v>
+        <v>2.018645946959889</v>
       </c>
       <c r="H608" t="n">
-        <v>1.960850530173717</v>
+        <v>1.8224040146709244</v>
       </c>
       <c r="I608" t="n">
-        <v>1.8384521484794953</v>
+        <v>2.0610387587685817</v>
       </c>
       <c r="J608" t="n">
-        <v>1.7509347289349444</v>
+        <v>2.023542603511747</v>
       </c>
       <c r="K608" t="n">
-        <v>1.9859094222330782</v>
+        <v>2.0946778103001646</v>
       </c>
       <c r="L608" t="n">
-        <v>1.960850530173717</v>
+        <v>2.0174254855278977</v>
       </c>
     </row>
     <row r="609">
@@ -23207,37 +23207,37 @@
         <v>608.0</v>
       </c>
       <c r="B609" t="n">
-        <v>3.5485552178087856</v>
+        <v>3.5134210077314707</v>
       </c>
       <c r="C609" t="n">
-        <v>3.4281778804721603</v>
+        <v>3.3716142566335776</v>
       </c>
       <c r="D609" t="n">
-        <v>3.325090662646826</v>
+        <v>3.270160482061032</v>
       </c>
       <c r="E609" t="n">
-        <v>3.1120209994023833</v>
+        <v>3.06342619749754</v>
       </c>
       <c r="F609" t="n">
-        <v>3.5485552178087856</v>
+        <v>3.1163027088168103</v>
       </c>
       <c r="G609" t="n">
-        <v>3.4281778804721603</v>
+        <v>3.40442802180718</v>
       </c>
       <c r="H609" t="n">
-        <v>3.325090662646826</v>
+        <v>3.39410531694085</v>
       </c>
       <c r="I609" t="n">
-        <v>3.1120209994023833</v>
+        <v>3.2615848849857314</v>
       </c>
       <c r="J609" t="n">
-        <v>3.5485552178087856</v>
+        <v>2.9850024870295138</v>
       </c>
       <c r="K609" t="n">
-        <v>3.4281778804721603</v>
+        <v>3.456997938870925</v>
       </c>
       <c r="L609" t="n">
-        <v>3.325090662646826</v>
+        <v>3.385892113023596</v>
       </c>
     </row>
     <row r="610">
@@ -23283,37 +23283,37 @@
         <v>610.0</v>
       </c>
       <c r="B611" t="n">
-        <v>1.8280601328670598</v>
+        <v>1.8467138076922338</v>
       </c>
       <c r="C611" t="n">
-        <v>1.8806514763718363</v>
+        <v>1.9112842194666675</v>
       </c>
       <c r="D611" t="n">
-        <v>1.8293542895274753</v>
+        <v>1.8394636685604489</v>
       </c>
       <c r="E611" t="n">
-        <v>2.0003191123992083</v>
+        <v>1.9841280827087717</v>
       </c>
       <c r="F611" t="n">
-        <v>1.8280601328670598</v>
+        <v>1.9889410088142896</v>
       </c>
       <c r="G611" t="n">
-        <v>1.8806514763718363</v>
+        <v>1.7492073178261691</v>
       </c>
       <c r="H611" t="n">
-        <v>1.8293542895274753</v>
+        <v>1.9949900995505294</v>
       </c>
       <c r="I611" t="n">
-        <v>2.0003191123992083</v>
+        <v>2.0195589413285715</v>
       </c>
       <c r="J611" t="n">
-        <v>1.8280601328670598</v>
+        <v>1.9829284905738938</v>
       </c>
       <c r="K611" t="n">
-        <v>1.8806514763718363</v>
+        <v>1.791241792051431</v>
       </c>
       <c r="L611" t="n">
-        <v>1.8293542895274753</v>
+        <v>2.0588598381517254</v>
       </c>
     </row>
     <row r="612">
@@ -23473,37 +23473,37 @@
         <v>615.0</v>
       </c>
       <c r="B616" t="n">
-        <v>1.4107835796959833</v>
+        <v>1.4254792419844833</v>
       </c>
       <c r="C616" t="n">
-        <v>1.233979215341359</v>
+        <v>1.2430178981464874</v>
       </c>
       <c r="D616" t="n">
-        <v>1.268059611560046</v>
+        <v>1.298417025212962</v>
       </c>
       <c r="E616" t="n">
-        <v>1.3416257393253386</v>
+        <v>1.3617636925516632</v>
       </c>
       <c r="F616" t="n">
-        <v>1.4107835796959833</v>
+        <v>1.2756751827465491</v>
       </c>
       <c r="G616" t="n">
-        <v>1.233979215341359</v>
+        <v>1.3581926333320444</v>
       </c>
       <c r="H616" t="n">
-        <v>1.268059611560046</v>
+        <v>1.4099567809303961</v>
       </c>
       <c r="I616" t="n">
-        <v>1.3416257393253386</v>
+        <v>1.4630624983767082</v>
       </c>
       <c r="J616" t="n">
-        <v>1.4107835796959833</v>
+        <v>1.4176755237041532</v>
       </c>
       <c r="K616" t="n">
-        <v>1.233979215341359</v>
+        <v>1.4351345805898676</v>
       </c>
       <c r="L616" t="n">
-        <v>1.268059611560046</v>
+        <v>1.2728883447589059</v>
       </c>
     </row>
     <row r="617">
@@ -23511,37 +23511,37 @@
         <v>616.0</v>
       </c>
       <c r="B617" t="n">
-        <v>4.970230917414344</v>
+        <v>5.0696355357626315</v>
       </c>
       <c r="C617" t="n">
-        <v>4.998096769826721</v>
+        <v>5.080734901196169</v>
       </c>
       <c r="D617" t="n">
-        <v>4.889770976050996</v>
+        <v>4.9506680880372</v>
       </c>
       <c r="E617" t="n">
-        <v>5.050421475247555</v>
+        <v>5.168431329702515</v>
       </c>
       <c r="F617" t="n">
-        <v>4.970230917414344</v>
+        <v>5.677371664539278</v>
       </c>
       <c r="G617" t="n">
-        <v>4.998096769826721</v>
+        <v>5.4236065837957295</v>
       </c>
       <c r="H617" t="n">
-        <v>4.889770976050996</v>
+        <v>5.673901387229994</v>
       </c>
       <c r="I617" t="n">
-        <v>5.050421475247555</v>
+        <v>5.171310679654003</v>
       </c>
       <c r="J617" t="n">
-        <v>4.970230917414344</v>
+        <v>5.5918690781720874</v>
       </c>
       <c r="K617" t="n">
-        <v>4.998096769826721</v>
+        <v>5.206114787104403</v>
       </c>
       <c r="L617" t="n">
-        <v>4.889770976050996</v>
+        <v>4.969219844156554</v>
       </c>
     </row>
     <row r="618">
@@ -23549,37 +23549,37 @@
         <v>617.0</v>
       </c>
       <c r="B618" t="n">
-        <v>2.4266306685129786</v>
+        <v>2.4511420894070493</v>
       </c>
       <c r="C618" t="n">
-        <v>2.61490594813902</v>
+        <v>2.650325256963461</v>
       </c>
       <c r="D618" t="n">
-        <v>2.6399965148293254</v>
+        <v>2.6439118844396794</v>
       </c>
       <c r="E618" t="n">
-        <v>2.6294081394562085</v>
+        <v>2.671385297887321</v>
       </c>
       <c r="F618" t="n">
-        <v>2.4266306685129786</v>
+        <v>2.4608031234811185</v>
       </c>
       <c r="G618" t="n">
-        <v>2.61490594813902</v>
+        <v>2.6994356671637454</v>
       </c>
       <c r="H618" t="n">
-        <v>2.6399965148293254</v>
+        <v>2.6911245966618162</v>
       </c>
       <c r="I618" t="n">
-        <v>2.6294081394562085</v>
+        <v>2.6423133909101915</v>
       </c>
       <c r="J618" t="n">
-        <v>2.4266306685129786</v>
+        <v>2.743494254188168</v>
       </c>
       <c r="K618" t="n">
-        <v>2.61490594813902</v>
+        <v>2.5468451892939874</v>
       </c>
       <c r="L618" t="n">
-        <v>2.6399965148293254</v>
+        <v>2.6583858569957757</v>
       </c>
     </row>
     <row r="619">
@@ -23704,34 +23704,34 @@
         <v>0.5177689724367613</v>
       </c>
       <c r="C622" t="n">
-        <v>0.5341687951379819</v>
+        <v>0.5286424406850929</v>
       </c>
       <c r="D622" t="n">
-        <v>0.5041490584035974</v>
+        <v>0.4987599716832931</v>
       </c>
       <c r="E622" t="n">
-        <v>0.5137399111921567</v>
+        <v>0.5206034745779082</v>
       </c>
       <c r="F622" t="n">
-        <v>0.5177689724367613</v>
+        <v>0.4674342499049152</v>
       </c>
       <c r="G622" t="n">
-        <v>0.5341687951379819</v>
+        <v>0.4800180098277927</v>
       </c>
       <c r="H622" t="n">
-        <v>0.5041490584035974</v>
+        <v>0.4581756487385281</v>
       </c>
       <c r="I622" t="n">
-        <v>0.5137399111921567</v>
+        <v>0.46845764172849835</v>
       </c>
       <c r="J622" t="n">
-        <v>0.5177689724367613</v>
+        <v>0.5234691817044247</v>
       </c>
       <c r="K622" t="n">
-        <v>0.5341687951379819</v>
+        <v>0.5000713478103208</v>
       </c>
       <c r="L622" t="n">
-        <v>0.5041490584035974</v>
+        <v>0.5155856095932659</v>
       </c>
     </row>
     <row r="623">
